--- a/Negative_ions/wsl.xlsx
+++ b/Negative_ions/wsl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Negative_ions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89E1937-EB46-4639-96DF-65FB379FD844}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFBEDE0-72D1-4E3A-8744-4E239E348606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,58 @@
     <t>W4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>随机对照实验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对照组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果差</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>BRBG</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +149,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +317,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,9 +788,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -746,8 +808,25 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1105,21 +1184,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T512"/>
+  <dimension ref="A1:AE512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.9140625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="20" max="20" width="11.9140625" customWidth="1"/>
+    <col min="21" max="21" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,16 +1235,28 @@
       <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43586</v>
       </c>
@@ -1186,24 +1277,36 @@
         <f>AVERAGE(I2:L2)</f>
         <v>216.910409684358</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="19">
+        <v>43678</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43587</v>
       </c>
@@ -1224,31 +1327,43 @@
         <f t="shared" ref="M3:M18" si="1">AVERAGE(I3:L3)</f>
         <v>261.60145161290302</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="19">
+        <v>43709</v>
+      </c>
+      <c r="P3">
+        <v>553.25999999995997</v>
+      </c>
+      <c r="Q3">
+        <v>200.289999999999</v>
+      </c>
+      <c r="R3">
+        <v>1898.8999999999501</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="9">
+      <c r="U3" s="8">
         <f>AVERAGE(B2:B428)</f>
         <v>553.26510328448762</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="V3" s="8">
         <f>AVERAGE(C2:C428)</f>
         <v>676.82452855072472</v>
       </c>
-      <c r="R3" s="9">
+      <c r="W3" s="8">
         <f>AVERAGE(D2:D428)</f>
         <v>297.35428254034542</v>
       </c>
-      <c r="S3" s="9">
+      <c r="X3" s="8">
         <f>AVERAGE(E2:E428)</f>
         <v>445.51036499535888</v>
       </c>
-      <c r="T3" s="9">
+      <c r="Y3" s="8">
         <f>AVERAGE(F2:F428)</f>
         <v>449.48302933294394</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43588</v>
       </c>
@@ -1269,31 +1384,43 @@
         <f t="shared" si="1"/>
         <v>223.23093390420101</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="19">
+        <v>43739</v>
+      </c>
+      <c r="P4">
+        <v>1826.7799999998799</v>
+      </c>
+      <c r="Q4">
+        <v>1159.95999999995</v>
+      </c>
+      <c r="R4">
+        <v>3569.7800000000502</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="9">
+      <c r="U4" s="8">
         <f>AVERAGE(B429:B512)</f>
         <v>691.03046949166651</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="V4" s="8">
         <f>AVERAGE(C429:C512)</f>
         <v>730.26290524354829</v>
       </c>
-      <c r="R4" s="9">
+      <c r="W4" s="8">
         <f>AVERAGE(D429:D512)</f>
         <v>276.7508984364286</v>
       </c>
-      <c r="S4" s="9">
+      <c r="X4" s="8">
         <f>AVERAGE(E429:E512)</f>
         <v>477.90382012421861</v>
       </c>
-      <c r="T4" s="9">
+      <c r="Y4" s="8">
         <f>AVERAGE(F429:F512)</f>
         <v>528.89855313027567</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43589</v>
       </c>
@@ -1317,31 +1444,43 @@
         <f>AVERAGE(I5:L5)</f>
         <v>362.66923393262721</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="19">
+        <v>43770</v>
+      </c>
+      <c r="P5">
+        <v>2466.5699999999201</v>
+      </c>
+      <c r="Q5">
+        <v>1860.97999999988</v>
+      </c>
+      <c r="R5">
+        <v>3719.1599999999899</v>
+      </c>
+      <c r="T5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="10">
-        <f>(P4-P3)/P3</f>
+      <c r="U5" s="9">
+        <f>(U4-U3)/U3</f>
         <v>0.24900425743342114</v>
       </c>
-      <c r="Q5" s="10">
-        <f t="shared" ref="Q5:T5" si="2">(Q4-Q3)/Q3</f>
+      <c r="V5" s="9">
+        <f t="shared" ref="V5:Y5" si="2">(V4-V3)/V3</f>
         <v>7.8954550904427837E-2</v>
       </c>
-      <c r="R5" s="10">
+      <c r="W5" s="9">
         <f t="shared" si="2"/>
         <v>-6.9289010832125242E-2</v>
       </c>
-      <c r="S5" s="10">
-        <f>(S4-S3)/S3</f>
+      <c r="X5" s="9">
+        <f>(X4-X3)/X3</f>
         <v>7.2710889968176581E-2</v>
       </c>
-      <c r="T5" s="10">
+      <c r="Y5" s="9">
         <f t="shared" si="2"/>
         <v>0.17668191814758497</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43590</v>
       </c>
@@ -1362,31 +1501,43 @@
         <f t="shared" si="1"/>
         <v>534.20735420036101</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="19">
+        <v>43800</v>
+      </c>
+      <c r="P6">
+        <v>2711.5400000002801</v>
+      </c>
+      <c r="Q6">
+        <v>2355.0100000000102</v>
+      </c>
+      <c r="R6">
+        <v>3765.4699999999498</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="11">
+      <c r="U6" s="10">
         <f>_xlfn.T.TEST(B2:B428,B429:B512,1,2)</f>
         <v>6.6644678620220442E-7</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="V6" s="10">
         <f>_xlfn.T.TEST(C2:C428,C429:C512,1,2)</f>
         <v>2.0756252748012793E-2</v>
       </c>
-      <c r="R6" s="11">
+      <c r="W6" s="10">
         <f>_xlfn.T.TEST(D2:D428,D429:D512,1,2)</f>
         <v>9.9993757139112321E-2</v>
       </c>
-      <c r="S6" s="11">
+      <c r="X6" s="10">
         <f>_xlfn.T.TEST(E2:E428,E429:E512,1,2)</f>
         <v>6.7779755572779612E-2</v>
       </c>
-      <c r="T6" s="11">
+      <c r="Y6" s="10">
         <f>_xlfn.T.TEST(F2:F428,F429:F512,1,2)</f>
         <v>1.4452189930212126E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43591</v>
       </c>
@@ -1410,8 +1561,20 @@
         <f t="shared" si="1"/>
         <v>495.36820599820896</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O7" s="19">
+        <v>43831</v>
+      </c>
+      <c r="P7">
+        <v>2662.8700000001099</v>
+      </c>
+      <c r="Q7">
+        <v>2046.0899999998601</v>
+      </c>
+      <c r="R7">
+        <v>3882.06000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43592</v>
       </c>
@@ -1435,8 +1598,20 @@
         <f t="shared" si="1"/>
         <v>473.17285301737701</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O8" s="19">
+        <v>43862</v>
+      </c>
+      <c r="P8">
+        <v>1715.3599999998701</v>
+      </c>
+      <c r="Q8">
+        <v>821.56999999994298</v>
+      </c>
+      <c r="R8">
+        <v>3888.73000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43593</v>
       </c>
@@ -1466,8 +1641,20 @@
         <f t="shared" si="1"/>
         <v>694.02212741768324</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O9" s="19">
+        <v>43891</v>
+      </c>
+      <c r="P9">
+        <v>1916.1099999999699</v>
+      </c>
+      <c r="Q9">
+        <v>221.02</v>
+      </c>
+      <c r="R9">
+        <v>4165.9700000000703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43594</v>
       </c>
@@ -1497,16 +1684,28 @@
         <f t="shared" si="1"/>
         <v>570.61773086994049</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="19">
+        <v>43922</v>
+      </c>
+      <c r="P10">
+        <v>2921.2600000001698</v>
+      </c>
+      <c r="Q10">
+        <v>454.98999999997102</v>
+      </c>
+      <c r="R10">
+        <v>3590.5300000001298</v>
+      </c>
+      <c r="T10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43595</v>
       </c>
@@ -1536,24 +1735,36 @@
         <f t="shared" si="1"/>
         <v>544.81954456850451</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="8" t="s">
+      <c r="O11" s="19">
+        <v>43952</v>
+      </c>
+      <c r="P11">
+        <v>2257.1999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>459.33999999995302</v>
+      </c>
+      <c r="R11">
+        <v>4561.8700000000099</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="V11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="W11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="X11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="Y11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43596</v>
       </c>
@@ -1583,31 +1794,43 @@
         <f t="shared" si="1"/>
         <v>459.59898284776722</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="19">
+        <v>43983</v>
+      </c>
+      <c r="P12">
+        <v>1421.93999999989</v>
+      </c>
+      <c r="Q12">
+        <v>142.19000000000301</v>
+      </c>
+      <c r="R12">
+        <v>4124.04000000012</v>
+      </c>
+      <c r="T12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="12">
+      <c r="U12" s="11">
         <f>AVERAGE(I2:I15)</f>
         <v>562.20427478085196</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="V12" s="11">
         <f>AVERAGE(J2:J15)</f>
         <v>668.97570745572216</v>
       </c>
-      <c r="R12" s="12">
+      <c r="W12" s="11">
         <f>AVERAGE(K2:K15)</f>
         <v>301.09842420606094</v>
       </c>
-      <c r="S12" s="12">
-        <f t="shared" ref="S12" si="3">AVERAGE(M2:M15)</f>
+      <c r="X12" s="11">
+        <f t="shared" ref="X12" si="3">AVERAGE(M2:M15)</f>
         <v>441.34719139602367</v>
       </c>
-      <c r="T12" s="12">
+      <c r="Y12" s="11">
         <f>AVERAGE(M2:M15)</f>
         <v>441.34719139602367</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43597</v>
       </c>
@@ -1637,31 +1860,43 @@
         <f t="shared" si="1"/>
         <v>374.82412654653729</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="19">
+        <v>44013</v>
+      </c>
+      <c r="P13">
+        <v>1058.7999999999299</v>
+      </c>
+      <c r="Q13">
+        <v>132.34000000000299</v>
+      </c>
+      <c r="R13">
+        <v>4426.0300000001898</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="12">
+      <c r="U13" s="11">
         <f>AVERAGE(I16:I18)</f>
         <v>679.73442842422367</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="V13" s="11">
         <f>AVERAGE(J16:J18)</f>
         <v>720.30337352482729</v>
       </c>
-      <c r="R13" s="12">
+      <c r="W13" s="11">
         <f>AVERAGE(K16:K18)</f>
         <v>273.30678723811963</v>
       </c>
-      <c r="S13" s="12">
-        <f t="shared" ref="S13" si="4">AVERAGE(M16:M18)</f>
+      <c r="X13" s="11">
+        <f t="shared" ref="X13" si="4">AVERAGE(M16:M18)</f>
         <v>538.63398941402227</v>
       </c>
-      <c r="T13" s="12">
+      <c r="Y13" s="11">
         <f>AVERAGE(M16:M18)</f>
         <v>538.63398941402227</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43598</v>
       </c>
@@ -1691,31 +1926,43 @@
         <f t="shared" si="1"/>
         <v>496.66815152938949</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="19">
+        <v>44044</v>
+      </c>
+      <c r="P14">
+        <v>989.21999999995796</v>
+      </c>
+      <c r="Q14">
+        <v>126.600000000002</v>
+      </c>
+      <c r="R14">
+        <v>4091.6500000001402</v>
+      </c>
+      <c r="T14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="3">
-        <f>(P13-P12)/P12</f>
+      <c r="U14" s="3">
+        <f>(U13-U12)/U12</f>
         <v>0.20905240126319766</v>
       </c>
-      <c r="Q14" s="3">
-        <f t="shared" ref="Q14:S14" si="5">(Q13-Q12)/Q12</f>
+      <c r="V14" s="3">
+        <f t="shared" ref="V14:X14" si="5">(V13-V12)/V12</f>
         <v>7.6725754757697814E-2</v>
       </c>
-      <c r="R14" s="3">
+      <c r="W14" s="3">
         <f t="shared" si="5"/>
         <v>-9.2300838309674171E-2</v>
       </c>
-      <c r="S14" s="3">
+      <c r="X14" s="3">
         <f t="shared" si="5"/>
         <v>0.22043144244392057</v>
       </c>
-      <c r="T14" s="3">
-        <f>(T13-T12)/T12</f>
+      <c r="Y14" s="3">
+        <f>(Y13-Y12)/Y12</f>
         <v>0.22043144244392057</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43599</v>
       </c>
@@ -1745,31 +1992,43 @@
         <f t="shared" si="1"/>
         <v>471.14957341447399</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="19">
+        <v>44075</v>
+      </c>
+      <c r="P15">
+        <v>1278.3799999999501</v>
+      </c>
+      <c r="Q15">
+        <v>306.8</v>
+      </c>
+      <c r="R15">
+        <v>4498.8500000001204</v>
+      </c>
+      <c r="T15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="4">
+      <c r="U15" s="4">
         <f>_xlfn.T.TEST(I2:I15,I16:I18,1,2)</f>
         <v>7.9346494021044656E-2</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="V15" s="4">
         <f>_xlfn.T.TEST(J2:J15,J16:J18,1,2)</f>
         <v>0.2404093569607858</v>
       </c>
-      <c r="R15" s="4">
+      <c r="W15" s="4">
         <f>_xlfn.T.TEST(K2:K15,K16:K18,1,2)</f>
         <v>0.24506919680489092</v>
       </c>
-      <c r="S15" s="4">
-        <f t="shared" ref="S15" si="6">_xlfn.T.TEST(M2:M15,M16:M18,1,2)</f>
+      <c r="X15" s="4">
+        <f t="shared" ref="X15" si="6">_xlfn.T.TEST(M2:M15,M16:M18,1,2)</f>
         <v>0.12761446304394178</v>
       </c>
-      <c r="T15" s="4">
+      <c r="Y15" s="4">
         <f>_xlfn.T.TEST(M2:M15,M16:M18,1,2)</f>
         <v>0.12761446304394178</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43600</v>
       </c>
@@ -1799,11 +2058,23 @@
         <f t="shared" si="1"/>
         <v>541.95454708249622</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O16" s="19">
+        <v>44105</v>
+      </c>
+      <c r="P16">
+        <v>2606.1099999999901</v>
+      </c>
+      <c r="Q16">
+        <v>1369.5699999999299</v>
+      </c>
+      <c r="R16">
+        <v>4389.75000000007</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43601</v>
       </c>
@@ -1833,11 +2104,23 @@
         <f t="shared" si="1"/>
         <v>565.71463721840053</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="19">
+        <v>44136</v>
+      </c>
+      <c r="P17">
+        <v>3047.1100000002498</v>
+      </c>
+      <c r="Q17">
+        <v>1950.14999999987</v>
+      </c>
+      <c r="R17">
+        <v>4700.7700000000696</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43602</v>
       </c>
@@ -1867,11 +2150,23 @@
         <f t="shared" si="1"/>
         <v>508.23278394117028</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O18" s="19">
+        <v>44166</v>
+      </c>
+      <c r="P18">
+        <v>3210.3800000002602</v>
+      </c>
+      <c r="Q18">
+        <v>2420.81000000007</v>
+      </c>
+      <c r="R18">
+        <v>4387.83000000006</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43603</v>
       </c>
@@ -1882,11 +2177,34 @@
         <f t="shared" si="0"/>
         <v>175.08603669999999</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O19" s="19">
+        <v>44197</v>
+      </c>
+      <c r="P19">
+        <v>3261.9400000002001</v>
+      </c>
+      <c r="Q19">
+        <v>2256.46000000001</v>
+      </c>
+      <c r="R19">
+        <v>3935.0100000000498</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="13"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43604</v>
       </c>
@@ -1897,11 +2215,56 @@
         <f t="shared" si="0"/>
         <v>202.2442997</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O20" s="19">
+        <v>44228</v>
+      </c>
+      <c r="P20">
+        <v>2068.9399999999</v>
+      </c>
+      <c r="Q20">
+        <v>888.80999999994697</v>
+      </c>
+      <c r="R20">
+        <v>4189.87</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43605</v>
       </c>
@@ -1912,11 +2275,40 @@
         <f t="shared" si="0"/>
         <v>222.4859155</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T21" s="14">
+        <v>183</v>
+      </c>
+      <c r="U21">
+        <v>703.2348432</v>
+      </c>
+      <c r="W21">
+        <v>297.37288139999998</v>
+      </c>
+      <c r="X21">
+        <v>407.251902587519</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" ref="Y21:Y56" si="7">AVERAGE(U21:X21)</f>
+        <v>469.28654239583966</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>44380</v>
+      </c>
+      <c r="AA21">
+        <v>625.94773520000001</v>
+      </c>
+      <c r="AC21">
+        <v>336.8900883</v>
+      </c>
+      <c r="AD21">
+        <v>422.96784830997501</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" ref="AE21:AE41" si="8">AVERAGE(AA21:AD21)</f>
+        <v>461.93522393665836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43606</v>
       </c>
@@ -1927,11 +2319,40 @@
         <f t="shared" si="0"/>
         <v>133.40809970000001</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T22" s="14">
+        <v>44388</v>
+      </c>
+      <c r="U22">
+        <v>652.46083920000001</v>
+      </c>
+      <c r="W22">
+        <v>230.19409279999999</v>
+      </c>
+      <c r="X22">
+        <v>518.32657342657296</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="7"/>
+        <v>466.99383514219102</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>44389</v>
+      </c>
+      <c r="AA22">
+        <v>734.00210079999999</v>
+      </c>
+      <c r="AC22">
+        <v>307.69405410000002</v>
+      </c>
+      <c r="AD22">
+        <v>541.37158852344203</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="8"/>
+        <v>527.68924780781401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43607</v>
       </c>
@@ -1947,11 +2368,41 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N23" s="5"/>
+      <c r="T23" s="14">
+        <v>44393</v>
+      </c>
+      <c r="U23">
+        <v>761.98119780000002</v>
+      </c>
+      <c r="W23">
+        <v>196.02178219999999</v>
+      </c>
+      <c r="X23">
+        <v>475.06332637439101</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="7"/>
+        <v>477.68876879146364</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>44390</v>
+      </c>
+      <c r="AA23">
+        <v>581.04114370000002</v>
+      </c>
+      <c r="AC23">
+        <v>372.69965580000002</v>
+      </c>
+      <c r="AD23">
+        <v>321.82709950599798</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="8"/>
+        <v>425.18929966866602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43608</v>
       </c>
@@ -1967,11 +2418,41 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N24" s="5"/>
+      <c r="T24" s="14">
+        <v>44398</v>
+      </c>
+      <c r="U24">
+        <v>609.01563940000005</v>
+      </c>
+      <c r="W24">
+        <v>291.02691220000003</v>
+      </c>
+      <c r="X24">
+        <v>407.72007366482501</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="7"/>
+        <v>435.92087508827507</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>44391</v>
+      </c>
+      <c r="AA24">
+        <v>874.76585369999998</v>
+      </c>
+      <c r="AC24">
+        <v>313.92231950000001</v>
+      </c>
+      <c r="AD24">
+        <v>560.84100418410003</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="8"/>
+        <v>583.17639246136662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43609</v>
       </c>
@@ -1982,11 +2463,43 @@
         <f t="shared" si="0"/>
         <v>162.7288136</v>
       </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T25" s="14">
+        <v>44400</v>
+      </c>
+      <c r="U25">
+        <v>697.58589389999997</v>
+      </c>
+      <c r="V25">
+        <v>636.94444439999995</v>
+      </c>
+      <c r="W25">
+        <v>142.4970414</v>
+      </c>
+      <c r="X25">
+        <v>492.50174703004802</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="7"/>
+        <v>492.38228168251203</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>44392</v>
+      </c>
+      <c r="AA25">
+        <v>708.91364899999996</v>
+      </c>
+      <c r="AC25">
+        <v>322.9005128</v>
+      </c>
+      <c r="AD25">
+        <v>485.50518518518498</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="8"/>
+        <v>505.7731156617283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43610</v>
       </c>
@@ -1997,19 +2510,83 @@
         <f t="shared" si="0"/>
         <v>345.88888889999998</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T26" s="14">
+        <v>44402</v>
+      </c>
+      <c r="U26">
+        <v>525.11454670000001</v>
+      </c>
+      <c r="V26">
+        <v>722.47719300000006</v>
+      </c>
+      <c r="W26">
+        <v>189.31259969999999</v>
+      </c>
+      <c r="X26">
+        <v>370.407299270073</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="7"/>
+        <v>451.82790966751827</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>44396</v>
+      </c>
+      <c r="AA26">
+        <v>792.01183839999999</v>
+      </c>
+      <c r="AC26">
+        <v>343.27217919999998</v>
+      </c>
+      <c r="AD26">
+        <v>580.331245650661</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="8"/>
+        <v>571.87175441688703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43611</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T27" s="14">
+        <v>44403</v>
+      </c>
+      <c r="U27">
+        <v>371.78885020000001</v>
+      </c>
+      <c r="V27">
+        <v>501.58188150000001</v>
+      </c>
+      <c r="W27">
+        <v>111.14125199999999</v>
+      </c>
+      <c r="X27">
+        <v>261.37183098591498</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="7"/>
+        <v>311.47095367147875</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>44397</v>
+      </c>
+      <c r="AA27">
+        <v>552.77126920000001</v>
+      </c>
+      <c r="AC27">
+        <v>143.3845508</v>
+      </c>
+      <c r="AD27">
+        <v>410.57949790794902</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="8"/>
+        <v>368.91177263598297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43612</v>
       </c>
@@ -2020,11 +2597,46 @@
         <f t="shared" si="0"/>
         <v>138.44902909999999</v>
       </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T28" s="14">
+        <v>44406</v>
+      </c>
+      <c r="U28">
+        <v>671.28731600000003</v>
+      </c>
+      <c r="V28">
+        <v>761.04491229999996</v>
+      </c>
+      <c r="W28">
+        <v>273.22009029999998</v>
+      </c>
+      <c r="X28">
+        <v>515.75806451612902</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="7"/>
+        <v>555.32759577903221</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>44401</v>
+      </c>
+      <c r="AA28">
+        <v>650.29347829999995</v>
+      </c>
+      <c r="AB28">
+        <v>688.72217709999995</v>
+      </c>
+      <c r="AC28">
+        <v>86.784272049999998</v>
+      </c>
+      <c r="AD28">
+        <v>489.537900874635</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="8"/>
+        <v>478.83445708115875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43613</v>
       </c>
@@ -2035,11 +2647,46 @@
         <f t="shared" si="0"/>
         <v>74.603513169999999</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T29" s="14">
+        <v>44409</v>
+      </c>
+      <c r="U29">
+        <v>834.11670160000006</v>
+      </c>
+      <c r="V29">
+        <v>909.87386119999996</v>
+      </c>
+      <c r="W29">
+        <v>426.53189300000003</v>
+      </c>
+      <c r="X29">
+        <v>471.403496503496</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="7"/>
+        <v>660.48148807587404</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>44405</v>
+      </c>
+      <c r="AA29">
+        <v>503.29395219999998</v>
+      </c>
+      <c r="AB29">
+        <v>600.85098870000002</v>
+      </c>
+      <c r="AC29">
+        <v>238.2051482</v>
+      </c>
+      <c r="AD29">
+        <v>339.38580463808802</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="8"/>
+        <v>420.43397343452199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43614</v>
       </c>
@@ -2050,11 +2697,46 @@
         <f t="shared" si="0"/>
         <v>0.74647887300000004</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T30" s="14">
+        <v>44410</v>
+      </c>
+      <c r="U30">
+        <v>581.87290499999995</v>
+      </c>
+      <c r="V30">
+        <v>687.08036340000001</v>
+      </c>
+      <c r="W30">
+        <v>401.83606559999998</v>
+      </c>
+      <c r="X30">
+        <v>387.050036258158</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="7"/>
+        <v>514.45984256453949</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>44408</v>
+      </c>
+      <c r="AA30">
+        <v>773.27414769999996</v>
+      </c>
+      <c r="AB30">
+        <v>817.95046660000003</v>
+      </c>
+      <c r="AC30">
+        <v>402.9247312</v>
+      </c>
+      <c r="AD30">
+        <v>484.78688524590098</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="8"/>
+        <v>619.73405768647524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43615</v>
       </c>
@@ -2065,11 +2747,46 @@
         <f t="shared" si="0"/>
         <v>213.5961801</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T31" s="14">
+        <v>44414</v>
+      </c>
+      <c r="U31">
+        <v>698.91986059999999</v>
+      </c>
+      <c r="V31">
+        <v>623.97838209999998</v>
+      </c>
+      <c r="W31">
+        <v>232.52988049999999</v>
+      </c>
+      <c r="X31">
+        <v>371.40836236933802</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="7"/>
+        <v>481.70912139233451</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>44412</v>
+      </c>
+      <c r="AA31">
+        <v>893.21772510000005</v>
+      </c>
+      <c r="AB31">
+        <v>914.97697140000002</v>
+      </c>
+      <c r="AC31">
+        <v>274.49946640000002</v>
+      </c>
+      <c r="AD31">
+        <v>526.13974151857803</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="8"/>
+        <v>652.20847610464455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43616</v>
       </c>
@@ -2080,11 +2797,46 @@
         <f t="shared" si="0"/>
         <v>233.75795299999999</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T32" s="14">
+        <v>44418</v>
+      </c>
+      <c r="U32">
+        <v>813.41422590000002</v>
+      </c>
+      <c r="V32">
+        <v>999.73449479999999</v>
+      </c>
+      <c r="W32">
+        <v>270.64570859999998</v>
+      </c>
+      <c r="X32">
+        <v>742.020905923344</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="7"/>
+        <v>706.45383380583598</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>44416</v>
+      </c>
+      <c r="AA32">
+        <v>1045.3568459999999</v>
+      </c>
+      <c r="AB32">
+        <v>1044.1493780000001</v>
+      </c>
+      <c r="AC32">
+        <v>415.9376054</v>
+      </c>
+      <c r="AD32">
+        <v>706.69156293222602</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="8"/>
+        <v>803.03384808305645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43617</v>
       </c>
@@ -2095,11 +2847,46 @@
         <f t="shared" si="0"/>
         <v>302.7311436</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T33" s="14">
+        <v>44420</v>
+      </c>
+      <c r="U33">
+        <v>543.25768159999996</v>
+      </c>
+      <c r="V33">
+        <v>780.86322399999995</v>
+      </c>
+      <c r="W33">
+        <v>247.9651064</v>
+      </c>
+      <c r="X33">
+        <v>417.88198324022301</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="7"/>
+        <v>497.49199881005569</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>44417</v>
+      </c>
+      <c r="AA33">
+        <v>1090.2400560000001</v>
+      </c>
+      <c r="AB33">
+        <v>1006.6655029999999</v>
+      </c>
+      <c r="AC33">
+        <v>481.87617419999998</v>
+      </c>
+      <c r="AD33">
+        <v>681.49231843575399</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="8"/>
+        <v>815.06851290893849</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43618</v>
       </c>
@@ -2110,11 +2897,46 @@
         <f t="shared" si="0"/>
         <v>488.53093810000001</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T34" s="14">
+        <v>44421</v>
+      </c>
+      <c r="U34">
+        <v>948.57282229999998</v>
+      </c>
+      <c r="V34">
+        <v>852.97763799999996</v>
+      </c>
+      <c r="W34">
+        <v>391.85371700000002</v>
+      </c>
+      <c r="X34">
+        <v>599.82984658298403</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="7"/>
+        <v>698.30850597074595</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>44454</v>
+      </c>
+      <c r="AA34">
+        <v>757.25417830000004</v>
+      </c>
+      <c r="AB34">
+        <v>815.81951219999996</v>
+      </c>
+      <c r="AC34">
+        <v>350.84510010000002</v>
+      </c>
+      <c r="AD34">
+        <v>541.23006993006902</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="8"/>
+        <v>616.2872151325173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43619</v>
       </c>
@@ -2125,11 +2947,46 @@
         <f t="shared" si="0"/>
         <v>330.47591740000001</v>
       </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T35" s="14">
+        <v>44432</v>
+      </c>
+      <c r="U35">
+        <v>1077.9142859999999</v>
+      </c>
+      <c r="V35">
+        <v>948.19024390000004</v>
+      </c>
+      <c r="W35">
+        <v>478.94917900000002</v>
+      </c>
+      <c r="X35">
+        <v>527.66387726638698</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="7"/>
+        <v>758.1793965415967</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>44455</v>
+      </c>
+      <c r="AA35">
+        <v>578.62325910000004</v>
+      </c>
+      <c r="AB35">
+        <v>634.8795265</v>
+      </c>
+      <c r="AC35">
+        <v>302.59223300000002</v>
+      </c>
+      <c r="AD35">
+        <v>400.82869080779898</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="8"/>
+        <v>479.23092735194979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43620</v>
       </c>
@@ -2140,11 +2997,46 @@
         <f t="shared" si="0"/>
         <v>483.61797749999999</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T36" s="14">
+        <v>44433</v>
+      </c>
+      <c r="U36">
+        <v>996.49616189999995</v>
+      </c>
+      <c r="V36">
+        <v>778.23377530000005</v>
+      </c>
+      <c r="W36">
+        <v>432.65132080000001</v>
+      </c>
+      <c r="X36">
+        <v>391.981158408932</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="7"/>
+        <v>649.84060410223299</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>44456</v>
+      </c>
+      <c r="AA36">
+        <v>741.7967989</v>
+      </c>
+      <c r="AB36">
+        <v>771.33263739999995</v>
+      </c>
+      <c r="AC36">
+        <v>313.959292</v>
+      </c>
+      <c r="AD36">
+        <v>516.18883174136602</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="8"/>
+        <v>585.81939001034152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43621</v>
       </c>
@@ -2155,11 +3047,46 @@
         <f t="shared" si="0"/>
         <v>430.99626869999997</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T37" s="14">
+        <v>44434</v>
+      </c>
+      <c r="U37">
+        <v>1146.4707109999999</v>
+      </c>
+      <c r="V37">
+        <v>1090.9372820000001</v>
+      </c>
+      <c r="W37">
+        <v>479.55779269999999</v>
+      </c>
+      <c r="X37">
+        <v>765.86689895470295</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="7"/>
+        <v>870.70817116367562</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>44457</v>
+      </c>
+      <c r="AA37">
+        <v>568.52785519999998</v>
+      </c>
+      <c r="AB37">
+        <v>687.0703833</v>
+      </c>
+      <c r="AC37">
+        <v>307.94504419999998</v>
+      </c>
+      <c r="AD37">
+        <v>487.62256267409401</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="8"/>
+        <v>512.79146134352345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43622</v>
       </c>
@@ -2170,11 +3097,46 @@
         <f t="shared" si="0"/>
         <v>303.14583329999999</v>
       </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T38" s="14">
+        <v>44435</v>
+      </c>
+      <c r="U38">
+        <v>637.66480839999997</v>
+      </c>
+      <c r="V38">
+        <v>716.25905290000003</v>
+      </c>
+      <c r="W38">
+        <v>256.41162969999999</v>
+      </c>
+      <c r="X38">
+        <v>490.20139372822302</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="7"/>
+        <v>525.13422118205574</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>44458</v>
+      </c>
+      <c r="AA38">
+        <v>564.58008359999997</v>
+      </c>
+      <c r="AB38">
+        <v>601.21866299999999</v>
+      </c>
+      <c r="AC38">
+        <v>300.3359274</v>
+      </c>
+      <c r="AD38">
+        <v>481.68662952646201</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="8"/>
+        <v>486.95532588161547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43623</v>
       </c>
@@ -2185,11 +3147,46 @@
         <f t="shared" si="0"/>
         <v>284.46709129999999</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T39" s="14">
+        <v>44436</v>
+      </c>
+      <c r="U39">
+        <v>461.97144850000001</v>
+      </c>
+      <c r="V39">
+        <v>692.21657379999999</v>
+      </c>
+      <c r="W39">
+        <v>152.5430029</v>
+      </c>
+      <c r="X39">
+        <v>568.78690807799398</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="7"/>
+        <v>468.87948331949849</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>44459</v>
+      </c>
+      <c r="AA39">
+        <v>570.88842399999999</v>
+      </c>
+      <c r="AB39">
+        <v>457.28661090000003</v>
+      </c>
+      <c r="AC39">
+        <v>341.8048048</v>
+      </c>
+      <c r="AD39">
+        <v>380.87726638772602</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="8"/>
+        <v>437.71427652193148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43624</v>
       </c>
@@ -2200,11 +3197,46 @@
         <f t="shared" si="0"/>
         <v>400.44807689999999</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T40" s="14">
+        <v>44437</v>
+      </c>
+      <c r="U40">
+        <v>218.6778243</v>
+      </c>
+      <c r="V40">
+        <v>706.40627180000001</v>
+      </c>
+      <c r="W40">
+        <v>226.1720808</v>
+      </c>
+      <c r="X40">
+        <v>493.58048780487798</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="7"/>
+        <v>411.20916617621947</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>44460</v>
+      </c>
+      <c r="AA40">
+        <v>722.45549370000003</v>
+      </c>
+      <c r="AB40">
+        <v>739.99721839999995</v>
+      </c>
+      <c r="AC40">
+        <v>216.6862266</v>
+      </c>
+      <c r="AD40">
+        <v>558.08692628650897</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="8"/>
+        <v>559.30646624662722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43625</v>
       </c>
@@ -2215,11 +3247,46 @@
         <f t="shared" si="0"/>
         <v>120.98027310000001</v>
       </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T41" s="14">
+        <v>44438</v>
+      </c>
+      <c r="U41">
+        <v>784.49302650000004</v>
+      </c>
+      <c r="V41">
+        <v>692.24320560000001</v>
+      </c>
+      <c r="W41">
+        <v>197.75648849999999</v>
+      </c>
+      <c r="X41">
+        <v>493.24825662482499</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="7"/>
+        <v>541.93524430620619</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>44461</v>
+      </c>
+      <c r="AA41">
+        <v>683.08002780000004</v>
+      </c>
+      <c r="AB41">
+        <v>895.08072370000002</v>
+      </c>
+      <c r="AC41">
+        <v>54.051391860000003</v>
+      </c>
+      <c r="AD41">
+        <v>746.19972164231001</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="8"/>
+        <v>594.60296625057754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43626</v>
       </c>
@@ -2230,8 +3297,28 @@
         <f t="shared" si="0"/>
         <v>202.9791908</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T42" s="14">
+        <v>44439</v>
+      </c>
+      <c r="U42">
+        <v>551.61961059999999</v>
+      </c>
+      <c r="V42">
+        <v>549.605007</v>
+      </c>
+      <c r="W42">
+        <v>350.91561510000002</v>
+      </c>
+      <c r="X42">
+        <v>366.50417246175198</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="7"/>
+        <v>454.66110129043795</v>
+      </c>
+      <c r="Z42" s="14"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43627</v>
       </c>
@@ -2242,8 +3329,28 @@
         <f t="shared" si="0"/>
         <v>298.61545890000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T43" s="14">
+        <v>44440</v>
+      </c>
+      <c r="U43">
+        <v>293.58257839999999</v>
+      </c>
+      <c r="V43">
+        <v>457.5062762</v>
+      </c>
+      <c r="W43">
+        <v>123.3125493</v>
+      </c>
+      <c r="X43">
+        <v>237.41742160278699</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="7"/>
+        <v>277.95470637569673</v>
+      </c>
+      <c r="Z43" s="14"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43628</v>
       </c>
@@ -2254,8 +3361,28 @@
         <f t="shared" si="0"/>
         <v>161.19143579999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T44" s="14">
+        <v>44441</v>
+      </c>
+      <c r="U44">
+        <v>770.82996519999995</v>
+      </c>
+      <c r="V44">
+        <v>788.60905920000005</v>
+      </c>
+      <c r="W44">
+        <v>281.32407410000002</v>
+      </c>
+      <c r="X44">
+        <v>538.74184191442998</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="7"/>
+        <v>594.87623510360754</v>
+      </c>
+      <c r="Z44" s="13"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43629</v>
       </c>
@@ -2266,8 +3393,28 @@
         <f t="shared" si="0"/>
         <v>151.26736109999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T45" s="14">
+        <v>44442</v>
+      </c>
+      <c r="U45">
+        <v>764.61710630000005</v>
+      </c>
+      <c r="V45">
+        <v>776.66266989999997</v>
+      </c>
+      <c r="W45">
+        <v>241.79282509999999</v>
+      </c>
+      <c r="X45">
+        <v>555.61630695443603</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="7"/>
+        <v>584.67222706360906</v>
+      </c>
+      <c r="Z45" s="13"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43630</v>
       </c>
@@ -2278,8 +3425,28 @@
         <f t="shared" si="0"/>
         <v>47.977148079999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T46" s="14">
+        <v>44443</v>
+      </c>
+      <c r="U46">
+        <v>759.89144050000004</v>
+      </c>
+      <c r="V46">
+        <v>675.91370910000001</v>
+      </c>
+      <c r="W46">
+        <v>247.70578510000001</v>
+      </c>
+      <c r="X46">
+        <v>466.927627000695</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="7"/>
+        <v>537.60964042517378</v>
+      </c>
+      <c r="Z46" s="13"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43631</v>
       </c>
@@ -2290,8 +3457,28 @@
         <f t="shared" si="0"/>
         <v>321.8036199</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T47" s="14">
+        <v>44444</v>
+      </c>
+      <c r="U47">
+        <v>981.29227560000004</v>
+      </c>
+      <c r="V47">
+        <v>965.24217120000003</v>
+      </c>
+      <c r="W47">
+        <v>315.06176699999997</v>
+      </c>
+      <c r="X47">
+        <v>574.93667362560802</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="7"/>
+        <v>709.13322185640197</v>
+      </c>
+      <c r="Z47" s="13"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43632</v>
       </c>
@@ -2302,8 +3489,28 @@
         <f t="shared" si="0"/>
         <v>538.88946280000005</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T48" s="14">
+        <v>44445</v>
+      </c>
+      <c r="U48">
+        <v>927.80431750000002</v>
+      </c>
+      <c r="V48">
+        <v>867.11768800000004</v>
+      </c>
+      <c r="W48">
+        <v>401.52061359999999</v>
+      </c>
+      <c r="X48">
+        <v>527.45543175487398</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="7"/>
+        <v>680.97451271371858</v>
+      </c>
+      <c r="Z48" s="13"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43633</v>
       </c>
@@ -2314,8 +3521,28 @@
         <f t="shared" si="0"/>
         <v>308.20642650000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T49" s="14">
+        <v>44446</v>
+      </c>
+      <c r="U49">
+        <v>536.44707519999997</v>
+      </c>
+      <c r="V49">
+        <v>623.62282530000004</v>
+      </c>
+      <c r="W49">
+        <v>141.14248480000001</v>
+      </c>
+      <c r="X49">
+        <v>410.28857890148203</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="7"/>
+        <v>427.87524105037051</v>
+      </c>
+      <c r="Z49" s="13"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43634</v>
       </c>
@@ -2326,8 +3553,28 @@
         <f t="shared" si="0"/>
         <v>331.0506024</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T50" s="14">
+        <v>44447</v>
+      </c>
+      <c r="U50">
+        <v>515.23517100000004</v>
+      </c>
+      <c r="V50">
+        <v>581.49721060000002</v>
+      </c>
+      <c r="W50">
+        <v>209.22869470000001</v>
+      </c>
+      <c r="X50">
+        <v>434.44072524407198</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="7"/>
+        <v>435.100450386018</v>
+      </c>
+      <c r="Z50" s="13"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43635</v>
       </c>
@@ -2338,8 +3585,28 @@
         <f t="shared" si="0"/>
         <v>200.8319559</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T51" s="14">
+        <v>44448</v>
+      </c>
+      <c r="U51">
+        <v>492.48712599999999</v>
+      </c>
+      <c r="V51">
+        <v>597.31754869999997</v>
+      </c>
+      <c r="W51">
+        <v>158.54402899999999</v>
+      </c>
+      <c r="X51">
+        <v>372.27031019202298</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="7"/>
+        <v>405.15475347300571</v>
+      </c>
+      <c r="Z51" s="13"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43636</v>
       </c>
@@ -2350,8 +3617,28 @@
         <f t="shared" si="0"/>
         <v>168.94646270000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T52" s="14">
+        <v>44449</v>
+      </c>
+      <c r="U52">
+        <v>607.89881370000001</v>
+      </c>
+      <c r="V52">
+        <v>663.03703700000005</v>
+      </c>
+      <c r="W52">
+        <v>342.94141409999997</v>
+      </c>
+      <c r="X52">
+        <v>445.61984626135501</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="7"/>
+        <v>514.87427776533877</v>
+      </c>
+      <c r="Z52" s="13"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43637</v>
       </c>
@@ -2362,13 +3649,53 @@
         <f t="shared" si="0"/>
         <v>84.75961538</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T53" s="14">
+        <v>44450</v>
+      </c>
+      <c r="U53">
+        <v>533.91631800000005</v>
+      </c>
+      <c r="V53">
+        <v>528.174216</v>
+      </c>
+      <c r="W53">
+        <v>151.5809045</v>
+      </c>
+      <c r="X53">
+        <v>358.88850174215997</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="7"/>
+        <v>393.13998506053997</v>
+      </c>
+      <c r="Z53" s="13"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43638</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T54" s="14">
+        <v>44451</v>
+      </c>
+      <c r="U54">
+        <v>498.80362120000001</v>
+      </c>
+      <c r="V54">
+        <v>570.04944290000003</v>
+      </c>
+      <c r="W54">
+        <v>207.2088316</v>
+      </c>
+      <c r="X54">
+        <v>320.50835654596102</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="7"/>
+        <v>399.14256306149025</v>
+      </c>
+      <c r="Z54" s="13"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43639</v>
       </c>
@@ -2379,8 +3706,28 @@
         <f t="shared" si="0"/>
         <v>273.67509030000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T55" s="14">
+        <v>44452</v>
+      </c>
+      <c r="U55">
+        <v>824.21926229999997</v>
+      </c>
+      <c r="V55">
+        <v>736.04410259999997</v>
+      </c>
+      <c r="W55">
+        <v>69.3686747</v>
+      </c>
+      <c r="X55">
+        <v>454.169057377049</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="7"/>
+        <v>520.95027424426223</v>
+      </c>
+      <c r="Z55" s="13"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43640</v>
       </c>
@@ -2391,8 +3738,28 @@
         <f t="shared" si="0"/>
         <v>61.257903489999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T56" s="14">
+        <v>44453</v>
+      </c>
+      <c r="U56">
+        <v>494.64250870000001</v>
+      </c>
+      <c r="V56">
+        <v>548.46411149999994</v>
+      </c>
+      <c r="W56">
+        <v>261.1567369</v>
+      </c>
+      <c r="X56">
+        <v>345.11986062717699</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="7"/>
+        <v>412.34580443179425</v>
+      </c>
+      <c r="Z56" s="13"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43641</v>
       </c>
@@ -2403,8 +3770,9 @@
         <f t="shared" si="0"/>
         <v>51.443271770000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T57" s="12"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43642</v>
       </c>
@@ -2415,8 +3783,51 @@
         <f t="shared" si="0"/>
         <v>71.171021379999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T58" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U58">
+        <f>AVERAGE(U21:U56)</f>
+        <v>674.71107722777788</v>
+      </c>
+      <c r="V58">
+        <f t="shared" ref="V58:AE58" si="9">AVERAGE(V21:V56)</f>
+        <v>719.68455860000006</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="9"/>
+        <v>261.9165421416667</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="9"/>
+        <v>460.50636505013398</v>
+      </c>
+      <c r="Y58">
+        <f>AVERAGE(Y21:Y56)</f>
+        <v>522.0598564980736</v>
+      </c>
+      <c r="AA58">
+        <f>AVERAGE(AA21:AA56)</f>
+        <v>714.87313885238098</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="9"/>
+        <v>762.57148287142866</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="9"/>
+        <v>296.62908466238093</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="9"/>
+        <v>507.81801818613462</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="9"/>
+        <v>547.93181717271364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43643</v>
       </c>
@@ -2427,8 +3838,31 @@
         <f t="shared" si="0"/>
         <v>53.12987013</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T59" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U59" s="15">
+        <f>(U58-AA58)/AA58</f>
+        <v>-5.6180683595241976E-2</v>
+      </c>
+      <c r="V59" s="15">
+        <f>(V58-AB58)/AB58</f>
+        <v>-5.6239874208172343E-2</v>
+      </c>
+      <c r="W59" s="15">
+        <f t="shared" ref="W59:Y59" si="10">(W58-AC58)/AC58</f>
+        <v>-0.1170233949250916</v>
+      </c>
+      <c r="X59" s="15">
+        <f t="shared" si="10"/>
+        <v>-9.3166550696629921E-2</v>
+      </c>
+      <c r="Y59" s="15">
+        <f t="shared" si="10"/>
+        <v>-4.7217481927107972E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43644</v>
       </c>
@@ -2439,8 +3873,16 @@
         <f t="shared" si="0"/>
         <v>93.081218269999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T60" s="12"/>
+      <c r="U60" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43645</v>
       </c>
@@ -2451,8 +3893,9 @@
         <f t="shared" si="0"/>
         <v>253.1488636</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T61" s="12"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43646</v>
       </c>
@@ -2463,8 +3906,9 @@
         <f t="shared" si="0"/>
         <v>284.88659790000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T62" s="12"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43647</v>
       </c>
@@ -2475,8 +3919,9 @@
         <f t="shared" si="0"/>
         <v>261.375</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="T63" s="12"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43648</v>
       </c>
@@ -2487,6 +3932,7 @@
         <f t="shared" si="0"/>
         <v>196.31021899999999</v>
       </c>
+      <c r="T64" s="12"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
@@ -2520,7 +3966,7 @@
         <v>38.57992565</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="7">AVERAGE(B67:E67)</f>
+        <f t="shared" ref="F67:F130" si="11">AVERAGE(B67:E67)</f>
         <v>38.57992565</v>
       </c>
     </row>
@@ -2532,7 +3978,7 @@
         <v>440.51890759999998</v>
       </c>
       <c r="F68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>440.51890759999998</v>
       </c>
     </row>
@@ -2544,7 +3990,7 @@
         <v>117.69775679999999</v>
       </c>
       <c r="F69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>117.69775679999999</v>
       </c>
     </row>
@@ -2556,7 +4002,7 @@
         <v>26.455334990000001</v>
       </c>
       <c r="F70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>26.455334990000001</v>
       </c>
     </row>
@@ -2568,7 +4014,7 @@
         <v>74.439560439999994</v>
       </c>
       <c r="F71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>74.439560439999994</v>
       </c>
     </row>
@@ -2580,7 +4026,7 @@
         <v>226.12220919999999</v>
       </c>
       <c r="F72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>226.12220919999999</v>
       </c>
     </row>
@@ -2592,7 +4038,7 @@
         <v>275.25238100000001</v>
       </c>
       <c r="F73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>275.25238100000001</v>
       </c>
     </row>
@@ -2604,7 +4050,7 @@
         <v>224.4025671</v>
       </c>
       <c r="F74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>224.4025671</v>
       </c>
     </row>
@@ -2616,7 +4062,7 @@
         <v>181.8823529</v>
       </c>
       <c r="F75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>181.8823529</v>
       </c>
     </row>
@@ -2633,7 +4079,7 @@
         <v>465.67441860000002</v>
       </c>
       <c r="F77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>465.67441860000002</v>
       </c>
     </row>
@@ -2685,7 +4131,7 @@
         <v>351.72300469999999</v>
       </c>
       <c r="F86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>351.72300469999999</v>
       </c>
     </row>
@@ -2697,7 +4143,7 @@
         <v>318.89221559999999</v>
       </c>
       <c r="F87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>318.89221559999999</v>
       </c>
     </row>
@@ -2709,7 +4155,7 @@
         <v>137.20585629999999</v>
       </c>
       <c r="F88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>137.20585629999999</v>
       </c>
     </row>
@@ -2721,7 +4167,7 @@
         <v>167.04980080000001</v>
       </c>
       <c r="F89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>167.04980080000001</v>
       </c>
     </row>
@@ -2733,7 +4179,7 @@
         <v>120.46643109999999</v>
       </c>
       <c r="F90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>120.46643109999999</v>
       </c>
     </row>
@@ -2745,7 +4191,7 @@
         <v>330.98169719999999</v>
       </c>
       <c r="F91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>330.98169719999999</v>
       </c>
     </row>
@@ -2757,7 +4203,7 @@
         <v>307.59032719999999</v>
       </c>
       <c r="F92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>307.59032719999999</v>
       </c>
     </row>
@@ -2769,7 +4215,7 @@
         <v>455.43648209999998</v>
       </c>
       <c r="F93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>455.43648209999998</v>
       </c>
     </row>
@@ -2781,7 +4227,7 @@
         <v>400.76451609999998</v>
       </c>
       <c r="F94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>400.76451609999998</v>
       </c>
     </row>
@@ -2903,7 +4349,7 @@
         <v>215.56862749999999</v>
       </c>
       <c r="F117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>215.56862749999999</v>
       </c>
     </row>
@@ -2918,7 +4364,7 @@
         <v>205.2082671</v>
       </c>
       <c r="F118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>241.89944270000001</v>
       </c>
     </row>
@@ -2930,7 +4376,7 @@
         <v>586.86344540000005</v>
       </c>
       <c r="F119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>586.86344540000005</v>
       </c>
     </row>
@@ -2942,7 +4388,7 @@
         <v>585.14235619999999</v>
       </c>
       <c r="F120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>585.14235619999999</v>
       </c>
     </row>
@@ -2954,7 +4400,7 @@
         <v>496.46164570000002</v>
       </c>
       <c r="F121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>496.46164570000002</v>
       </c>
     </row>
@@ -2966,7 +4412,7 @@
         <v>337.96407190000002</v>
       </c>
       <c r="F122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>337.96407190000002</v>
       </c>
     </row>
@@ -2978,7 +4424,7 @@
         <v>511.11002100000002</v>
       </c>
       <c r="F123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>511.11002100000002</v>
       </c>
     </row>
@@ -2990,7 +4436,7 @@
         <v>473.88284520000002</v>
       </c>
       <c r="F124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>473.88284520000002</v>
       </c>
     </row>
@@ -3002,7 +4448,7 @@
         <v>445.32960889999998</v>
       </c>
       <c r="F125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>445.32960889999998</v>
       </c>
     </row>
@@ -3014,7 +4460,7 @@
         <v>327.54593180000001</v>
       </c>
       <c r="F126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>327.54593180000001</v>
       </c>
     </row>
@@ -3026,7 +4472,7 @@
         <v>483.05985920000001</v>
       </c>
       <c r="F127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>483.05985920000001</v>
       </c>
     </row>
@@ -3038,7 +4484,7 @@
         <v>513.95725300000004</v>
       </c>
       <c r="F128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>513.95725300000004</v>
       </c>
     </row>
@@ -3050,7 +4496,7 @@
         <v>795.64915970000004</v>
       </c>
       <c r="F129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>795.64915970000004</v>
       </c>
     </row>
@@ -3062,7 +4508,7 @@
         <v>582.95251399999995</v>
       </c>
       <c r="F130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>582.95251399999995</v>
       </c>
     </row>
@@ -3074,7 +4520,7 @@
         <v>472.77298050000002</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="8">AVERAGE(B131:E131)</f>
+        <f t="shared" ref="F131:F194" si="12">AVERAGE(B131:E131)</f>
         <v>472.77298050000002</v>
       </c>
     </row>
@@ -3086,7 +4532,7 @@
         <v>566.48688709999999</v>
       </c>
       <c r="F132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>566.48688709999999</v>
       </c>
     </row>
@@ -3098,7 +4544,7 @@
         <v>771.01815639999995</v>
       </c>
       <c r="F133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>771.01815639999995</v>
       </c>
     </row>
@@ -3110,7 +4556,7 @@
         <v>435.14613179999998</v>
       </c>
       <c r="F134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>435.14613179999998</v>
       </c>
     </row>
@@ -3122,7 +4568,7 @@
         <v>478.88407819999998</v>
       </c>
       <c r="F135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>478.88407819999998</v>
       </c>
     </row>
@@ -3134,7 +4580,7 @@
         <v>695.70071429999996</v>
       </c>
       <c r="F136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>695.70071429999996</v>
       </c>
     </row>
@@ -3146,7 +4592,7 @@
         <v>540.71877180000001</v>
       </c>
       <c r="F137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>540.71877180000001</v>
       </c>
     </row>
@@ -3158,7 +4604,7 @@
         <v>456.0438413</v>
       </c>
       <c r="F138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>456.0438413</v>
       </c>
     </row>
@@ -3170,7 +4616,7 @@
         <v>335.67550590000002</v>
       </c>
       <c r="F139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>335.67550590000002</v>
       </c>
     </row>
@@ -3182,7 +4628,7 @@
         <v>375.09414229999999</v>
       </c>
       <c r="F140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>375.09414229999999</v>
       </c>
     </row>
@@ -3194,7 +4640,7 @@
         <v>525.73152019999998</v>
       </c>
       <c r="F141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>525.73152019999998</v>
       </c>
     </row>
@@ -3206,7 +4652,7 @@
         <v>374.45953550000002</v>
       </c>
       <c r="F142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>374.45953550000002</v>
       </c>
     </row>
@@ -3218,7 +4664,7 @@
         <v>278.50174950000002</v>
       </c>
       <c r="F143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>278.50174950000002</v>
       </c>
     </row>
@@ -3230,7 +4676,7 @@
         <v>521.80879270000003</v>
       </c>
       <c r="F144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>521.80879270000003</v>
       </c>
     </row>
@@ -3242,7 +4688,7 @@
         <v>701.24181180000005</v>
       </c>
       <c r="F145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>701.24181180000005</v>
       </c>
     </row>
@@ -3254,7 +4700,7 @@
         <v>498.03566430000001</v>
       </c>
       <c r="F146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>498.03566430000001</v>
       </c>
     </row>
@@ -3266,7 +4712,7 @@
         <v>397.94556870000002</v>
       </c>
       <c r="F147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>397.94556870000002</v>
       </c>
     </row>
@@ -3278,7 +4724,7 @@
         <v>532.14135759999999</v>
       </c>
       <c r="F148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>532.14135759999999</v>
       </c>
     </row>
@@ -3290,7 +4736,7 @@
         <v>547.66132400000004</v>
       </c>
       <c r="F149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>547.66132400000004</v>
       </c>
     </row>
@@ -3302,7 +4748,7 @@
         <v>559.6948324</v>
       </c>
       <c r="F150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>559.6948324</v>
       </c>
     </row>
@@ -3314,7 +4760,7 @@
         <v>672.36775990000001</v>
       </c>
       <c r="F151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>672.36775990000001</v>
       </c>
     </row>
@@ -3326,7 +4772,7 @@
         <v>686.87177699999995</v>
       </c>
       <c r="F152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>686.87177699999995</v>
       </c>
     </row>
@@ -3338,7 +4784,7 @@
         <v>783.46587739999995</v>
       </c>
       <c r="F153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>783.46587739999995</v>
       </c>
     </row>
@@ -3350,7 +4796,7 @@
         <v>639.6499652</v>
       </c>
       <c r="F154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>639.6499652</v>
       </c>
     </row>
@@ -3362,7 +4808,7 @@
         <v>601.11033029999999</v>
       </c>
       <c r="F155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>601.11033029999999</v>
       </c>
     </row>
@@ -3374,7 +4820,7 @@
         <v>504.3923345</v>
       </c>
       <c r="F156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>504.3923345</v>
       </c>
     </row>
@@ -3386,7 +4832,7 @@
         <v>326.87038330000001</v>
       </c>
       <c r="F157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>326.87038330000001</v>
       </c>
     </row>
@@ -3398,7 +4844,7 @@
         <v>547.87762239999995</v>
       </c>
       <c r="F158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>547.87762239999995</v>
       </c>
     </row>
@@ -3410,7 +4856,7 @@
         <v>471.16013989999999</v>
       </c>
       <c r="F159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>471.16013989999999</v>
       </c>
     </row>
@@ -3422,7 +4868,7 @@
         <v>725.28041959999996</v>
       </c>
       <c r="F160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>725.28041959999996</v>
       </c>
     </row>
@@ -3434,7 +4880,7 @@
         <v>597.05874129999995</v>
       </c>
       <c r="F161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>597.05874129999995</v>
       </c>
     </row>
@@ -3446,7 +4892,7 @@
         <v>405.24633640000002</v>
       </c>
       <c r="F162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>405.24633640000002</v>
       </c>
     </row>
@@ -3458,7 +4904,7 @@
         <v>404.36806150000001</v>
       </c>
       <c r="F163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>404.36806150000001</v>
       </c>
     </row>
@@ -3470,7 +4916,7 @@
         <v>769.25</v>
       </c>
       <c r="F164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>769.25</v>
       </c>
     </row>
@@ -3482,7 +4928,7 @@
         <v>810.01392759999999</v>
       </c>
       <c r="F165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>810.01392759999999</v>
       </c>
     </row>
@@ -3494,7 +4940,7 @@
         <v>698.97768480000002</v>
       </c>
       <c r="F166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>698.97768480000002</v>
       </c>
     </row>
@@ -3506,7 +4952,7 @@
         <v>721.72955969999998</v>
       </c>
       <c r="F167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>721.72955969999998</v>
       </c>
     </row>
@@ -3518,7 +4964,7 @@
         <v>426.6062718</v>
       </c>
       <c r="F168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>426.6062718</v>
       </c>
     </row>
@@ -3530,7 +4976,7 @@
         <v>638.71325650000006</v>
       </c>
       <c r="F169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>638.71325650000006</v>
       </c>
     </row>
@@ -3542,7 +4988,7 @@
         <v>813.26484979999998</v>
       </c>
       <c r="F170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>813.26484979999998</v>
       </c>
     </row>
@@ -3554,7 +5000,7 @@
         <v>804.18822669999997</v>
       </c>
       <c r="F171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>804.18822669999997</v>
       </c>
     </row>
@@ -3566,7 +5012,7 @@
         <v>935.93850450000002</v>
       </c>
       <c r="F172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>935.93850450000002</v>
       </c>
     </row>
@@ -3578,7 +5024,7 @@
         <v>539.54564459999995</v>
       </c>
       <c r="F173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>539.54564459999995</v>
       </c>
     </row>
@@ -3590,7 +5036,7 @@
         <v>566.21717880000006</v>
       </c>
       <c r="F174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>566.21717880000006</v>
       </c>
     </row>
@@ -3602,7 +5048,7 @@
         <v>465.38418469999999</v>
       </c>
       <c r="F175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>465.38418469999999</v>
       </c>
     </row>
@@ -3614,7 +5060,7 @@
         <v>753.15679439999997</v>
       </c>
       <c r="F176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>753.15679439999997</v>
       </c>
     </row>
@@ -3629,7 +5075,7 @@
         <v>220.10393260000001</v>
       </c>
       <c r="F177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>307.11011395000003</v>
       </c>
     </row>
@@ -3644,7 +5090,7 @@
         <v>532.83454730000005</v>
       </c>
       <c r="F178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>616.11922350000009</v>
       </c>
     </row>
@@ -3659,7 +5105,7 @@
         <v>542.18865740000001</v>
       </c>
       <c r="F179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>671.55182000000002</v>
       </c>
     </row>
@@ -3674,7 +5120,7 @@
         <v>457.37612610000002</v>
       </c>
       <c r="F180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>663.27592915000002</v>
       </c>
     </row>
@@ -3689,7 +5135,7 @@
         <v>305.14020429999999</v>
       </c>
       <c r="F181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>410.72860460000004</v>
       </c>
     </row>
@@ -3704,7 +5150,7 @@
         <v>554.67357509999999</v>
       </c>
       <c r="F182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>784.24467305000007</v>
       </c>
     </row>
@@ -3719,7 +5165,7 @@
         <v>311.40432959999998</v>
       </c>
       <c r="F183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>473.88220665</v>
       </c>
     </row>
@@ -3734,7 +5180,7 @@
         <v>237.23438770000001</v>
       </c>
       <c r="F184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>454.68117985000004</v>
       </c>
     </row>
@@ -3749,7 +5195,7 @@
         <v>90.133388569999994</v>
       </c>
       <c r="F185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>313.86144953499996</v>
       </c>
     </row>
@@ -3764,7 +5210,7 @@
         <v>263.46936849999997</v>
       </c>
       <c r="F186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>423.25149095</v>
       </c>
     </row>
@@ -3779,7 +5225,7 @@
         <v>498.34980689999998</v>
       </c>
       <c r="F187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>700.34191880000003</v>
       </c>
     </row>
@@ -3794,7 +5240,7 @@
         <v>411.52062710000001</v>
       </c>
       <c r="F188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>583.68958525000005</v>
       </c>
     </row>
@@ -3809,7 +5255,7 @@
         <v>173.04391889999999</v>
       </c>
       <c r="F189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>373.35400714999997</v>
       </c>
     </row>
@@ -3824,7 +5270,7 @@
         <v>311.89622639999999</v>
       </c>
       <c r="F190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>386.09047190000001</v>
       </c>
     </row>
@@ -3839,7 +5285,7 @@
         <v>228.70463789999999</v>
       </c>
       <c r="F191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>328.63064405</v>
       </c>
     </row>
@@ -3854,7 +5300,7 @@
         <v>155.69846150000001</v>
       </c>
       <c r="F192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>292.02112755000002</v>
       </c>
     </row>
@@ -3869,7 +5315,7 @@
         <v>326.39742619999998</v>
       </c>
       <c r="F193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>423.90213249999999</v>
       </c>
     </row>
@@ -3884,7 +5330,7 @@
         <v>104.87921849999999</v>
       </c>
       <c r="F194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>394.94974200000001</v>
       </c>
     </row>
@@ -3899,7 +5345,7 @@
         <v>473.32106340000001</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F258" si="9">AVERAGE(B195:E195)</f>
+        <f t="shared" ref="F195:F258" si="13">AVERAGE(B195:E195)</f>
         <v>739.7632572</v>
       </c>
     </row>
@@ -3914,7 +5360,7 @@
         <v>275.53891629999998</v>
       </c>
       <c r="F196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>424.5739274</v>
       </c>
     </row>
@@ -3929,7 +5375,7 @@
         <v>254.94117650000001</v>
       </c>
       <c r="F197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>381.26353519999998</v>
       </c>
     </row>
@@ -3944,7 +5390,7 @@
         <v>214.15816860000001</v>
       </c>
       <c r="F198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>465.26191749999998</v>
       </c>
     </row>
@@ -3959,7 +5405,7 @@
         <v>433.02844829999998</v>
       </c>
       <c r="F199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>550.17550314999994</v>
       </c>
     </row>
@@ -3974,7 +5420,7 @@
         <v>357.84404460000002</v>
       </c>
       <c r="F200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>475.65684435000003</v>
       </c>
     </row>
@@ -3989,7 +5435,7 @@
         <v>170.4068293</v>
       </c>
       <c r="F201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>354.08410044999999</v>
       </c>
     </row>
@@ -4004,7 +5450,7 @@
         <v>153.08083139999999</v>
       </c>
       <c r="F202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>325.15389334999998</v>
       </c>
     </row>
@@ -4019,7 +5465,7 @@
         <v>462.97627870000002</v>
       </c>
       <c r="F203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>644.19030414999997</v>
       </c>
     </row>
@@ -4034,7 +5480,7 @@
         <v>504.39066150000002</v>
       </c>
       <c r="F204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>638.57825760000003</v>
       </c>
     </row>
@@ -4049,7 +5495,7 @@
         <v>315.27060649999999</v>
       </c>
       <c r="F205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>517.28562080000006</v>
       </c>
     </row>
@@ -4064,7 +5510,7 @@
         <v>332.76607280000002</v>
       </c>
       <c r="F206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>519.24167880000005</v>
       </c>
     </row>
@@ -4079,7 +5525,7 @@
         <v>350.64967230000002</v>
       </c>
       <c r="F207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>580.52769929999999</v>
       </c>
     </row>
@@ -4094,7 +5540,7 @@
         <v>179.0858369</v>
       </c>
       <c r="F208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>336.14996170000001</v>
       </c>
     </row>
@@ -4109,7 +5555,7 @@
         <v>281.94219650000002</v>
       </c>
       <c r="F209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>376.4924269</v>
       </c>
     </row>
@@ -4124,7 +5570,7 @@
         <v>366.59180579999997</v>
       </c>
       <c r="F210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>513.83281099999999</v>
       </c>
     </row>
@@ -4139,7 +5585,7 @@
         <v>352.20984220000003</v>
       </c>
       <c r="F211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>626.42555044999995</v>
       </c>
     </row>
@@ -4154,7 +5600,7 @@
         <v>365.87790699999999</v>
       </c>
       <c r="F212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>419.02374674999999</v>
       </c>
     </row>
@@ -4169,7 +5615,7 @@
         <v>343.50323100000003</v>
       </c>
       <c r="F213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>500.25161550000001</v>
       </c>
     </row>
@@ -4184,7 +5630,7 @@
         <v>152.5615942</v>
       </c>
       <c r="F214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>264.7325462</v>
       </c>
     </row>
@@ -4250,7 +5696,7 @@
         <v>414.00451807228899</v>
       </c>
       <c r="F224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>545.38301161807226</v>
       </c>
     </row>
@@ -4271,7 +5717,7 @@
         <v>739.47438162544097</v>
       </c>
       <c r="F225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>818.1368798063603</v>
       </c>
     </row>
@@ -4292,7 +5738,7 @@
         <v>717.66077441077402</v>
       </c>
       <c r="F226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>794.59709380269351</v>
       </c>
     </row>
@@ -4313,7 +5759,7 @@
         <v>722.28484320557402</v>
       </c>
       <c r="F227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>758.9116471263934</v>
       </c>
     </row>
@@ -4334,7 +5780,7 @@
         <v>920.912630579297</v>
       </c>
       <c r="F228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>709.76437794482422</v>
       </c>
     </row>
@@ -4355,7 +5801,7 @@
         <v>715.90154968094805</v>
       </c>
       <c r="F229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>810.23926919523694</v>
       </c>
     </row>
@@ -4376,7 +5822,7 @@
         <v>577.69869402985</v>
       </c>
       <c r="F230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>609.90940028246246</v>
       </c>
     </row>
@@ -4397,7 +5843,7 @@
         <v>499.24732229795501</v>
       </c>
       <c r="F231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>542.22786232448868</v>
       </c>
     </row>
@@ -4418,7 +5864,7 @@
         <v>308.33475479744101</v>
       </c>
       <c r="F232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>347.39155699936026</v>
       </c>
     </row>
@@ -4439,7 +5885,7 @@
         <v>625.35983263598303</v>
       </c>
       <c r="F233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>698.59643920899566</v>
       </c>
     </row>
@@ -4460,7 +5906,7 @@
         <v>764.48264729620598</v>
       </c>
       <c r="F234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>785.00377852405154</v>
       </c>
     </row>
@@ -4481,7 +5927,7 @@
         <v>748.08003518029898</v>
       </c>
       <c r="F235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>751.0573674950748</v>
       </c>
     </row>
@@ -4502,7 +5948,7 @@
         <v>745.42664092664097</v>
       </c>
       <c r="F236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>688.52915095666026</v>
       </c>
     </row>
@@ -4523,7 +5969,7 @@
         <v>608.91019644527501</v>
       </c>
       <c r="F237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>766.94645636131872</v>
       </c>
     </row>
@@ -4544,7 +5990,7 @@
         <v>538.32110912343398</v>
       </c>
       <c r="F238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>700.54097940585848</v>
       </c>
     </row>
@@ -4565,7 +6011,7 @@
         <v>839.69883720930204</v>
       </c>
       <c r="F239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>737.07951497732552</v>
       </c>
     </row>
@@ -4586,7 +6032,7 @@
         <v>378.13807531380701</v>
       </c>
       <c r="F240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>309.98796962845176</v>
       </c>
     </row>
@@ -4607,7 +6053,7 @@
         <v>742.32575068243796</v>
       </c>
       <c r="F241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>892.94932789560937</v>
       </c>
     </row>
@@ -4628,7 +6074,7 @@
         <v>739.38641188959605</v>
       </c>
       <c r="F242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>866.51831134739905</v>
       </c>
     </row>
@@ -4649,7 +6095,7 @@
         <v>427.33685136323601</v>
       </c>
       <c r="F243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>497.04271541580903</v>
       </c>
     </row>
@@ -4670,7 +6116,7 @@
         <v>686.89253996447599</v>
       </c>
       <c r="F244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>705.48129469111893</v>
       </c>
     </row>
@@ -4691,7 +6137,7 @@
         <v>954.60362173038197</v>
       </c>
       <c r="F245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>771.2634351575955</v>
       </c>
     </row>
@@ -4712,7 +6158,7 @@
         <v>767.84675834970506</v>
       </c>
       <c r="F246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>807.8441958624262</v>
       </c>
     </row>
@@ -4733,7 +6179,7 @@
         <v>834.93574297188695</v>
       </c>
       <c r="F247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>651.3848740179717</v>
       </c>
     </row>
@@ -4754,7 +6200,7 @@
         <v>562.54770755886</v>
       </c>
       <c r="F248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>512.66672558971504</v>
       </c>
     </row>
@@ -4775,7 +6221,7 @@
         <v>864.45474137931001</v>
       </c>
       <c r="F249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>917.00321501982739</v>
       </c>
     </row>
@@ -4796,7 +6242,7 @@
         <v>642.07196029776605</v>
       </c>
       <c r="F250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>444.89631479944148</v>
       </c>
     </row>
@@ -4817,7 +6263,7 @@
         <v>298.978146194423</v>
       </c>
       <c r="F251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>275.87542799610577</v>
       </c>
     </row>
@@ -4838,7 +6284,7 @@
         <v>403.12596401028202</v>
       </c>
       <c r="F252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>552.08311510257045</v>
       </c>
     </row>
@@ -4859,7 +6305,7 @@
         <v>500.77603686635899</v>
       </c>
       <c r="F253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>673.23648811658973</v>
       </c>
     </row>
@@ -4880,7 +6326,7 @@
         <v>790.35352112676003</v>
       </c>
       <c r="F254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>643.24989918169001</v>
       </c>
     </row>
@@ -4901,7 +6347,7 @@
         <v>193.59922779922701</v>
       </c>
       <c r="F255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>295.23311838980675</v>
       </c>
     </row>
@@ -4922,7 +6368,7 @@
         <v>278.07602339181199</v>
       </c>
       <c r="F256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>346.372593847953</v>
       </c>
     </row>
@@ -4943,7 +6389,7 @@
         <v>436.48888888888803</v>
       </c>
       <c r="F257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>603.25864799722206</v>
       </c>
     </row>
@@ -4964,7 +6410,7 @@
         <v>434.5</v>
       </c>
       <c r="F258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>508.72803405000002</v>
       </c>
     </row>
@@ -4985,7 +6431,7 @@
         <v>521.51496388028897</v>
       </c>
       <c r="F259">
-        <f t="shared" ref="F259:F322" si="10">AVERAGE(B259:E259)</f>
+        <f t="shared" ref="F259:F322" si="14">AVERAGE(B259:E259)</f>
         <v>585.48378124507224</v>
       </c>
     </row>
@@ -5006,7 +6452,7 @@
         <v>663.906367041198</v>
       </c>
       <c r="F260">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>722.30531693529952</v>
       </c>
     </row>
@@ -5027,7 +6473,7 @@
         <v>184.20132743362799</v>
       </c>
       <c r="F261">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>312.03278573340702</v>
       </c>
     </row>
@@ -5048,7 +6494,7 @@
         <v>473.10028116213601</v>
       </c>
       <c r="F262">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>572.01518281553399</v>
       </c>
     </row>
@@ -5069,7 +6515,7 @@
         <v>913.713747645951</v>
       </c>
       <c r="F263">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>773.61361983648771</v>
       </c>
     </row>
@@ -5090,7 +6536,7 @@
         <v>355.569477911646</v>
       </c>
       <c r="F264">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>351.32606695291145</v>
       </c>
     </row>
@@ -5111,7 +6557,7 @@
         <v>510.89898989898899</v>
       </c>
       <c r="F265">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>626.57174847474721</v>
       </c>
     </row>
@@ -5132,7 +6578,7 @@
         <v>444.65741728922001</v>
       </c>
       <c r="F266">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>493.34997537230493</v>
       </c>
     </row>
@@ -5153,7 +6599,7 @@
         <v>744.88842975206603</v>
       </c>
       <c r="F267">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>809.86948896301647</v>
       </c>
     </row>
@@ -5174,7 +6620,7 @@
         <v>539.84526854219905</v>
       </c>
       <c r="F268">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>590.18202741054984</v>
       </c>
     </row>
@@ -5195,7 +6641,7 @@
         <v>732.90675547097999</v>
       </c>
       <c r="F269">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>578.937364042745</v>
       </c>
     </row>
@@ -5216,7 +6662,7 @@
         <v>362.36170212765899</v>
       </c>
       <c r="F270">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>514.88149103191472</v>
       </c>
     </row>
@@ -5237,7 +6683,7 @@
         <v>566.01295896328202</v>
       </c>
       <c r="F271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>496.2609213908205</v>
       </c>
     </row>
@@ -5258,7 +6704,7 @@
         <v>528.86798336798302</v>
       </c>
       <c r="F272">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>589.58765326699574</v>
       </c>
     </row>
@@ -5279,7 +6725,7 @@
         <v>528.25666337611005</v>
       </c>
       <c r="F273">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>590.52213764402745</v>
       </c>
     </row>
@@ -5300,7 +6746,7 @@
         <v>679.71643192488204</v>
       </c>
       <c r="F274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>719.3306718812205</v>
       </c>
     </row>
@@ -5321,7 +6767,7 @@
         <v>569.73523622047196</v>
       </c>
       <c r="F275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>757.16928563011811</v>
       </c>
     </row>
@@ -5342,7 +6788,7 @@
         <v>921.38590604026797</v>
       </c>
       <c r="F276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>778.62537966006698</v>
       </c>
     </row>
@@ -5363,7 +6809,7 @@
         <v>688.00935453695001</v>
       </c>
       <c r="F277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>570.89645323423747</v>
       </c>
     </row>
@@ -5384,7 +6830,7 @@
         <v>297.44480257856497</v>
       </c>
       <c r="F278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>323.99658599464124</v>
       </c>
     </row>
@@ -5405,7 +6851,7 @@
         <v>642.64217252396099</v>
       </c>
       <c r="F279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>699.59609743099031</v>
       </c>
     </row>
@@ -5426,7 +6872,7 @@
         <v>510.01249024199802</v>
       </c>
       <c r="F280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>667.35981786049945</v>
       </c>
     </row>
@@ -5447,7 +6893,7 @@
         <v>759.35359116022096</v>
       </c>
       <c r="F281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>674.7515714150552</v>
       </c>
     </row>
@@ -5468,7 +6914,7 @@
         <v>534.95481335952798</v>
       </c>
       <c r="F282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>519.44712693988197</v>
       </c>
     </row>
@@ -5489,7 +6935,7 @@
         <v>639.44847020933901</v>
       </c>
       <c r="F283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>689.22415652733469</v>
       </c>
     </row>
@@ -5510,7 +6956,7 @@
         <v>438.27809523809498</v>
       </c>
       <c r="F284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>449.58937060952377</v>
       </c>
     </row>
@@ -5531,7 +6977,7 @@
         <v>443.10854947166098</v>
       </c>
       <c r="F285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>465.24380441791527</v>
       </c>
     </row>
@@ -5552,7 +6998,7 @@
         <v>634.49863760217897</v>
       </c>
       <c r="F286">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>602.66688630054477</v>
       </c>
     </row>
@@ -5573,7 +7019,7 @@
         <v>579.06637168141594</v>
       </c>
       <c r="F287">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>598.03190259535393</v>
       </c>
     </row>
@@ -5594,7 +7040,7 @@
         <v>562.62109704641296</v>
       </c>
       <c r="F288">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>716.5995076616033</v>
       </c>
     </row>
@@ -5615,7 +7061,7 @@
         <v>497.14358322744602</v>
       </c>
       <c r="F289">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>653.2665520068615</v>
       </c>
     </row>
@@ -5636,7 +7082,7 @@
         <v>299.40740740740699</v>
       </c>
       <c r="F290">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>317.74504180185176</v>
       </c>
     </row>
@@ -5657,7 +7103,7 @@
         <v>207.70760642009699</v>
       </c>
       <c r="F291">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>248.43116158002425</v>
       </c>
     </row>
@@ -5678,7 +7124,7 @@
         <v>537.67525298988005</v>
       </c>
       <c r="F292">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>571.16536339747006</v>
       </c>
     </row>
@@ -5699,7 +7145,7 @@
         <v>918.402791625124</v>
       </c>
       <c r="F293">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>896.33392493128099</v>
       </c>
     </row>
@@ -5720,7 +7166,7 @@
         <v>740.71044776119402</v>
       </c>
       <c r="F294">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>711.83194414029845</v>
       </c>
     </row>
@@ -5741,7 +7187,7 @@
         <v>382.13935340022198</v>
       </c>
       <c r="F295">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>444.15176822505549</v>
       </c>
     </row>
@@ -5762,7 +7208,7 @@
         <v>629.95387293298495</v>
       </c>
       <c r="F296">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>618.3995657082462</v>
       </c>
     </row>
@@ -5783,7 +7229,7 @@
         <v>432.08276533592903</v>
       </c>
       <c r="F297">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>499.87726975898227</v>
       </c>
     </row>
@@ -5804,7 +7250,7 @@
         <v>632.16224814422003</v>
       </c>
       <c r="F298">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>698.72899088605504</v>
       </c>
     </row>
@@ -5825,7 +7271,7 @@
         <v>736.37445319334995</v>
       </c>
       <c r="F299">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>726.12904989833748</v>
       </c>
     </row>
@@ -5846,7 +7292,7 @@
         <v>525.79601990049696</v>
       </c>
       <c r="F300">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>572.79914825012429</v>
       </c>
     </row>
@@ -5867,7 +7313,7 @@
         <v>325.13043478260801</v>
       </c>
       <c r="F301">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>346.222269170652</v>
       </c>
     </row>
@@ -5888,7 +7334,7 @@
         <v>456.12254901960699</v>
       </c>
       <c r="F302">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>510.36222500490175</v>
       </c>
     </row>
@@ -5909,7 +7355,7 @@
         <v>337.81845688350899</v>
       </c>
       <c r="F303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>344.73726864587729</v>
       </c>
     </row>
@@ -5930,7 +7376,7 @@
         <v>369.625592417061</v>
       </c>
       <c r="F304">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>454.19623715426519</v>
       </c>
     </row>
@@ -5951,7 +7397,7 @@
         <v>315.658064516129</v>
       </c>
       <c r="F305">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>495.53667410403227</v>
       </c>
     </row>
@@ -5972,7 +7418,7 @@
         <v>206.027820710973</v>
       </c>
       <c r="F306">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>233.84572557774322</v>
       </c>
     </row>
@@ -5993,7 +7439,7 @@
         <v>546.24935511607896</v>
       </c>
       <c r="F307">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>508.37396955401977</v>
       </c>
     </row>
@@ -6014,7 +7460,7 @@
         <v>414.07931570762003</v>
       </c>
       <c r="F308">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>349.362370876905</v>
       </c>
     </row>
@@ -6035,7 +7481,7 @@
         <v>435.94299999999998</v>
       </c>
       <c r="F309">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>544.76176874999999</v>
       </c>
     </row>
@@ -6056,7 +7502,7 @@
         <v>589.05646359583898</v>
       </c>
       <c r="F310">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>699.44537257395973</v>
       </c>
     </row>
@@ -6077,7 +7523,7 @@
         <v>414.50670241286798</v>
       </c>
       <c r="F311">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>651.42823410321705</v>
       </c>
     </row>
@@ -6098,7 +7544,7 @@
         <v>341.91356673960598</v>
       </c>
       <c r="F312">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>390.95517685990154</v>
       </c>
     </row>
@@ -6119,7 +7565,7 @@
         <v>467.32871536523902</v>
       </c>
       <c r="F313">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>444.42176041630978</v>
       </c>
     </row>
@@ -6140,7 +7586,7 @@
         <v>92.7596371882086</v>
       </c>
       <c r="F314">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>122.48118749455215</v>
       </c>
     </row>
@@ -6161,7 +7607,7 @@
         <v>568.87780548628405</v>
       </c>
       <c r="F315">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>633.46371497157099</v>
       </c>
     </row>
@@ -6182,7 +7628,7 @@
         <v>641.689453125</v>
       </c>
       <c r="F316">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>746.04939200625006</v>
       </c>
     </row>
@@ -6203,7 +7649,7 @@
         <v>451.75278969956997</v>
       </c>
       <c r="F317">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>443.19844739989253</v>
       </c>
     </row>
@@ -6224,7 +7670,7 @@
         <v>303.19845111326202</v>
       </c>
       <c r="F318">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>425.22654190331554</v>
       </c>
     </row>
@@ -6245,7 +7691,7 @@
         <v>514.17316513761398</v>
       </c>
       <c r="F319">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>695.44728055940345</v>
       </c>
     </row>
@@ -6266,7 +7712,7 @@
         <v>760.920802534318</v>
       </c>
       <c r="F320">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>868.19568983357954</v>
       </c>
     </row>
@@ -6287,7 +7733,7 @@
         <v>436.32871972318299</v>
       </c>
       <c r="F321">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>412.14876378079578</v>
       </c>
     </row>
@@ -6308,7 +7754,7 @@
         <v>290.94780219780199</v>
       </c>
       <c r="F322">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>360.8226380994505</v>
       </c>
     </row>
@@ -6329,7 +7775,7 @@
         <v>378.98595943837699</v>
       </c>
       <c r="F323">
-        <f t="shared" ref="F323:F386" si="11">AVERAGE(B323:E323)</f>
+        <f t="shared" ref="F323:F386" si="15">AVERAGE(B323:E323)</f>
         <v>487.14756425959428</v>
       </c>
     </row>
@@ -6350,7 +7796,7 @@
         <v>182.79058597502399</v>
       </c>
       <c r="F324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>286.78927116875604</v>
       </c>
     </row>
@@ -6371,7 +7817,7 @@
         <v>349.82259887005603</v>
       </c>
       <c r="F325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>526.94014786751404</v>
       </c>
     </row>
@@ -6392,7 +7838,7 @@
         <v>226.501726121979</v>
       </c>
       <c r="F326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>362.30378768049479</v>
       </c>
     </row>
@@ -6413,7 +7859,7 @@
         <v>413.66966292134799</v>
       </c>
       <c r="F327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>494.73763260533696</v>
       </c>
     </row>
@@ -6434,7 +7880,7 @@
         <v>317.44707091469598</v>
       </c>
       <c r="F328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>233.90089489367404</v>
       </c>
     </row>
@@ -6455,7 +7901,7 @@
         <v>352.05895439377002</v>
       </c>
       <c r="F329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>341.20794417344251</v>
       </c>
     </row>
@@ -6476,7 +7922,7 @@
         <v>453.498054474708</v>
       </c>
       <c r="F330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>468.56378479367697</v>
       </c>
     </row>
@@ -6497,7 +7943,7 @@
         <v>291.65721649484499</v>
       </c>
       <c r="F331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>264.05460167371126</v>
       </c>
     </row>
@@ -6518,7 +7964,7 @@
         <v>508.37984496124</v>
       </c>
       <c r="F332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>517.15146219030999</v>
       </c>
     </row>
@@ -6539,7 +7985,7 @@
         <v>457.81906300484599</v>
       </c>
       <c r="F333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>482.21501602621146</v>
       </c>
     </row>
@@ -6560,7 +8006,7 @@
         <v>342.736906211936</v>
       </c>
       <c r="F334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>370.17846487798397</v>
       </c>
     </row>
@@ -6581,7 +8027,7 @@
         <v>348.19503105590002</v>
       </c>
       <c r="F335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>427.18088736397505</v>
       </c>
     </row>
@@ -6602,7 +8048,7 @@
         <v>233.57203389830499</v>
       </c>
       <c r="F336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>259.14495504957625</v>
       </c>
     </row>
@@ -6623,7 +8069,7 @@
         <v>329.02816901408403</v>
       </c>
       <c r="F337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>358.97140842852104</v>
       </c>
     </row>
@@ -6644,7 +8090,7 @@
         <v>306.81176470588201</v>
       </c>
       <c r="F338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>342.81678250147053</v>
       </c>
     </row>
@@ -6665,7 +8111,7 @@
         <v>370.94693877550998</v>
       </c>
       <c r="F339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>371.88864179387753</v>
       </c>
     </row>
@@ -6686,7 +8132,7 @@
         <v>204.13275299238299</v>
       </c>
       <c r="F340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>205.38326174809575</v>
       </c>
     </row>
@@ -6707,7 +8153,7 @@
         <v>356.610788381742</v>
       </c>
       <c r="F341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>307.69602332043553</v>
       </c>
     </row>
@@ -6728,7 +8174,7 @@
         <v>380.94697773064598</v>
       </c>
       <c r="F342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>469.87033470766153</v>
       </c>
     </row>
@@ -6749,7 +8195,7 @@
         <v>347.09515418502201</v>
       </c>
       <c r="F343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>406.99782874625549</v>
       </c>
     </row>
@@ -6770,7 +8216,7 @@
         <v>226.30749354005101</v>
       </c>
       <c r="F344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>393.81326403501271</v>
       </c>
     </row>
@@ -6791,7 +8237,7 @@
         <v>256.680045871559</v>
       </c>
       <c r="F345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>428.38694691788976</v>
       </c>
     </row>
@@ -6812,7 +8258,7 @@
         <v>344.84935579781899</v>
       </c>
       <c r="F346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>549.11869709945472</v>
       </c>
     </row>
@@ -6833,7 +8279,7 @@
         <v>57.941261783901297</v>
       </c>
       <c r="F347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>139.31556769597532</v>
       </c>
     </row>
@@ -6854,7 +8300,7 @@
         <v>399.41942945258199</v>
       </c>
       <c r="F348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>495.28163383814547</v>
       </c>
     </row>
@@ -6875,7 +8321,7 @@
         <v>387.48732943469702</v>
       </c>
       <c r="F349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>390.06383385867423</v>
       </c>
     </row>
@@ -6896,7 +8342,7 @@
         <v>371.60238272524202</v>
       </c>
       <c r="F350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>507.56437135631052</v>
       </c>
     </row>
@@ -6917,7 +8363,7 @@
         <v>179.21615201900201</v>
       </c>
       <c r="F351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>437.9526309797505</v>
       </c>
     </row>
@@ -6938,7 +8384,7 @@
         <v>367.12630792227202</v>
       </c>
       <c r="F352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>464.11314983056798</v>
       </c>
     </row>
@@ -6959,7 +8405,7 @@
         <v>394.97391304347798</v>
       </c>
       <c r="F353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>446.69000751086952</v>
       </c>
     </row>
@@ -6980,7 +8426,7 @@
         <v>371.53310696095002</v>
       </c>
       <c r="F354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>285.28485741273755</v>
       </c>
     </row>
@@ -7001,7 +8447,7 @@
         <v>158.090984284532</v>
       </c>
       <c r="F355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>234.80712339613302</v>
       </c>
     </row>
@@ -7022,7 +8468,7 @@
         <v>100.286617492096</v>
       </c>
       <c r="F356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>256.21855602302401</v>
       </c>
     </row>
@@ -7043,7 +8489,7 @@
         <v>264.99596774193498</v>
       </c>
       <c r="F357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>356.87633498548371</v>
       </c>
     </row>
@@ -7064,7 +8510,7 @@
         <v>228.540474243663</v>
       </c>
       <c r="F358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>333.84951153591578</v>
       </c>
     </row>
@@ -7085,7 +8531,7 @@
         <v>265.34301675977599</v>
       </c>
       <c r="F359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>353.67433886494399</v>
       </c>
     </row>
@@ -7106,7 +8552,7 @@
         <v>324.01890547263599</v>
       </c>
       <c r="F360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>402.49915534315903</v>
       </c>
     </row>
@@ -7127,7 +8573,7 @@
         <v>215.37272727272699</v>
       </c>
       <c r="F361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>395.47130754318175</v>
       </c>
     </row>
@@ -7148,7 +8594,7 @@
         <v>117.382585751978</v>
       </c>
       <c r="F362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>322.18035731299449</v>
       </c>
     </row>
@@ -7169,7 +8615,7 @@
         <v>87.910552763819098</v>
       </c>
       <c r="F363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>332.6228736159548</v>
       </c>
     </row>
@@ -7190,7 +8636,7 @@
         <v>125.814442413162</v>
       </c>
       <c r="F364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>392.06216077829049</v>
       </c>
     </row>
@@ -7211,7 +8657,7 @@
         <v>227.26368159203901</v>
       </c>
       <c r="F365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>429.3376001980098</v>
       </c>
     </row>
@@ -7232,7 +8678,7 @@
         <v>63.588607594936697</v>
       </c>
       <c r="F366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>314.7355099487342</v>
       </c>
     </row>
@@ -7253,7 +8699,7 @@
         <v>122.77966101694901</v>
       </c>
       <c r="F367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>429.37797655423719</v>
       </c>
     </row>
@@ -7274,7 +8720,7 @@
         <v>276.94078947368399</v>
       </c>
       <c r="F368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>441.37819361842099</v>
       </c>
     </row>
@@ -7295,7 +8741,7 @@
         <v>240.022944550669</v>
       </c>
       <c r="F369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>401.23658693766725</v>
       </c>
     </row>
@@ -7316,7 +8762,7 @@
         <v>239.728536385936</v>
       </c>
       <c r="F370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>311.78197294648402</v>
       </c>
     </row>
@@ -7337,7 +8783,7 @@
         <v>474.876574307304</v>
       </c>
       <c r="F371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>531.55290147682604</v>
       </c>
     </row>
@@ -7358,7 +8804,7 @@
         <v>404.50246791707798</v>
       </c>
       <c r="F372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>358.95221742926947</v>
       </c>
     </row>
@@ -7379,7 +8825,7 @@
         <v>395.45419847328202</v>
       </c>
       <c r="F373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>402.49781699082052</v>
       </c>
     </row>
@@ -7400,7 +8846,7 @@
         <v>448.47771236333</v>
       </c>
       <c r="F374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>430.29871308333253</v>
       </c>
     </row>
@@ -7421,7 +8867,7 @@
         <v>255.89816849816799</v>
       </c>
       <c r="F375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>306.28646312454202</v>
       </c>
     </row>
@@ -7442,7 +8888,7 @@
         <v>448.97268292682901</v>
       </c>
       <c r="F376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>631.74268248170722</v>
       </c>
     </row>
@@ -7463,7 +8909,7 @@
         <v>284.50075987841899</v>
       </c>
       <c r="F377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>311.36158419460475</v>
       </c>
     </row>
@@ -7484,7 +8930,7 @@
         <v>655.15653040877305</v>
       </c>
       <c r="F378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>680.15104790219323</v>
       </c>
     </row>
@@ -7505,7 +8951,7 @@
         <v>499.01257142857099</v>
       </c>
       <c r="F379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>444.92686145714271</v>
       </c>
     </row>
@@ -7526,7 +8972,7 @@
         <v>401.02162565249802</v>
       </c>
       <c r="F380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>491.31689051312452</v>
       </c>
     </row>
@@ -7547,7 +8993,7 @@
         <v>362.8203125</v>
       </c>
       <c r="F381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>633.37652494999998</v>
       </c>
     </row>
@@ -7568,7 +9014,7 @@
         <v>353.04855072463698</v>
       </c>
       <c r="F382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>545.13346798115924</v>
       </c>
     </row>
@@ -7589,7 +9035,7 @@
         <v>326.13405495420398</v>
       </c>
       <c r="F383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>556.857893863551</v>
       </c>
     </row>
@@ -7610,7 +9056,7 @@
         <v>199.97009674582199</v>
       </c>
       <c r="F384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>322.93864378645549</v>
       </c>
     </row>
@@ -7631,7 +9077,7 @@
         <v>416.10034305317299</v>
       </c>
       <c r="F385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>466.57752263829326</v>
       </c>
     </row>
@@ -7652,7 +9098,7 @@
         <v>611.36395147313601</v>
       </c>
       <c r="F386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>597.35937289328399</v>
       </c>
     </row>
@@ -7673,7 +9119,7 @@
         <v>352.61616161616098</v>
       </c>
       <c r="F387">
-        <f t="shared" ref="F387:F450" si="12">AVERAGE(B387:E387)</f>
+        <f t="shared" ref="F387:F450" si="16">AVERAGE(B387:E387)</f>
         <v>524.37288850404025</v>
       </c>
     </row>
@@ -7694,7 +9140,7 @@
         <v>271.88064269319</v>
       </c>
       <c r="F388">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>490.99034739829756</v>
       </c>
     </row>
@@ -7715,7 +9161,7 @@
         <v>658.05607476635498</v>
       </c>
       <c r="F389">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>648.44527431658867</v>
       </c>
     </row>
@@ -7736,7 +9182,7 @@
         <v>412.37124999999997</v>
       </c>
       <c r="F390">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>539.03728684999999</v>
       </c>
     </row>
@@ -7757,7 +9203,7 @@
         <v>463.99505358614999</v>
       </c>
       <c r="F391">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>626.37418592153745</v>
       </c>
     </row>
@@ -7778,7 +9224,7 @@
         <v>372.15840118430702</v>
       </c>
       <c r="F392">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>440.58149729607675</v>
       </c>
     </row>
@@ -7799,7 +9245,7 @@
         <v>357.74345146379</v>
       </c>
       <c r="F393">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>423.25653051594747</v>
       </c>
     </row>
@@ -7820,7 +9266,7 @@
         <v>369.475687103594</v>
       </c>
       <c r="F394">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>582.11829337589847</v>
       </c>
     </row>
@@ -7841,7 +9287,7 @@
         <v>439.91716997411498</v>
       </c>
       <c r="F395">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>607.31237906852868</v>
       </c>
     </row>
@@ -7862,7 +9308,7 @@
         <v>404.51612903225799</v>
       </c>
       <c r="F396">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>517.90533215806454</v>
       </c>
     </row>
@@ -7883,7 +9329,7 @@
         <v>482.19496855345898</v>
       </c>
       <c r="F397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>579.83333896336478</v>
       </c>
     </row>
@@ -7904,7 +9350,7 @@
         <v>550.74344262295006</v>
       </c>
       <c r="F398">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>564.75673005573753</v>
       </c>
     </row>
@@ -7925,7 +9371,7 @@
         <v>407.62908680946998</v>
       </c>
       <c r="F399">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>455.91815320236748</v>
       </c>
     </row>
@@ -7946,7 +9392,7 @@
         <v>404.627980922098</v>
       </c>
       <c r="F400">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>503.2890792805245</v>
       </c>
     </row>
@@ -7967,7 +9413,7 @@
         <v>300.98601398601397</v>
       </c>
       <c r="F401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>591.46395704650342</v>
       </c>
     </row>
@@ -7988,7 +9434,7 @@
         <v>279.54173764906301</v>
       </c>
       <c r="F402">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>370.40465993726576</v>
       </c>
     </row>
@@ -8006,7 +9452,7 @@
         <v>320.21094527363101</v>
       </c>
       <c r="F403">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>375.96401329121039</v>
       </c>
     </row>
@@ -8024,7 +9470,7 @@
         <v>608.84712837837799</v>
       </c>
       <c r="F404">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>535.68174559279271</v>
       </c>
     </row>
@@ -8042,7 +9488,7 @@
         <v>304.21410992616899</v>
       </c>
       <c r="F405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>206.570547408723</v>
       </c>
     </row>
@@ -8060,7 +9506,7 @@
         <v>329.79089219330803</v>
       </c>
       <c r="F406">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>278.46869789776935</v>
       </c>
     </row>
@@ -8078,7 +9524,7 @@
         <v>497.14346349745301</v>
       </c>
       <c r="F407">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>362.26419136581768</v>
       </c>
     </row>
@@ -8096,7 +9542,7 @@
         <v>437.41017227235398</v>
       </c>
       <c r="F408">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>307.94769866745133</v>
       </c>
     </row>
@@ -8114,7 +9560,7 @@
         <v>317.44790812141099</v>
       </c>
       <c r="F409">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>340.78450870713704</v>
       </c>
     </row>
@@ -8132,7 +9578,7 @@
         <v>335.96692111959197</v>
       </c>
       <c r="F410">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>438.43716947319734</v>
       </c>
     </row>
@@ -8150,7 +9596,7 @@
         <v>367.35052377115198</v>
       </c>
       <c r="F411">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>372.53257215705071</v>
       </c>
     </row>
@@ -8168,7 +9614,7 @@
         <v>448.025910931174</v>
       </c>
       <c r="F412">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>435.71658421039132</v>
       </c>
     </row>
@@ -8186,7 +9632,7 @@
         <v>294.40180772391102</v>
       </c>
       <c r="F413">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>345.26681294130367</v>
       </c>
     </row>
@@ -8204,7 +9650,7 @@
         <v>256.00236406619302</v>
       </c>
       <c r="F414">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>239.27871472206434</v>
       </c>
     </row>
@@ -8222,7 +9668,7 @@
         <v>353.98574483250098</v>
       </c>
       <c r="F415">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>373.66355634416703</v>
       </c>
     </row>
@@ -8240,7 +9686,7 @@
         <v>403.96795952782401</v>
       </c>
       <c r="F416">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>502.36281457594129</v>
       </c>
     </row>
@@ -8258,7 +9704,7 @@
         <v>558.85108481262296</v>
       </c>
       <c r="F417">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>412.73224137087436</v>
       </c>
     </row>
@@ -8276,7 +9722,7 @@
         <v>494.66848816029102</v>
       </c>
       <c r="F418">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>437.65338888676365</v>
       </c>
     </row>
@@ -8294,7 +9740,7 @@
         <v>382.266497461928</v>
       </c>
       <c r="F419">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>270.73775275730935</v>
       </c>
     </row>
@@ -8312,7 +9758,7 @@
         <v>387.489825581395</v>
       </c>
       <c r="F420">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>409.21586886046498</v>
       </c>
     </row>
@@ -8330,7 +9776,7 @@
         <v>502.08136696501202</v>
       </c>
       <c r="F421">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>667.16764422167068</v>
       </c>
     </row>
@@ -8348,7 +9794,7 @@
         <v>438.28750923872798</v>
       </c>
       <c r="F422">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>455.42884177957603</v>
       </c>
     </row>
@@ -8366,7 +9812,7 @@
         <v>425.02349624060099</v>
       </c>
       <c r="F423">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>468.35756301353371</v>
       </c>
     </row>
@@ -8384,7 +9830,7 @@
         <v>358.38184663536703</v>
       </c>
       <c r="F424">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>365.2531202784557</v>
       </c>
     </row>
@@ -8402,7 +9848,7 @@
         <v>483.05905826017499</v>
       </c>
       <c r="F425">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>397.94108358672497</v>
       </c>
     </row>
@@ -8420,7 +9866,7 @@
         <v>325.66726618705002</v>
       </c>
       <c r="F426">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>338.99596596235</v>
       </c>
     </row>
@@ -8438,7 +9884,7 @@
         <v>394.94934333958702</v>
       </c>
       <c r="F427">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>353.90934417986227</v>
       </c>
     </row>
@@ -8456,7 +9902,7 @@
         <v>457.56525157232699</v>
       </c>
       <c r="F428">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>587.81419449077578</v>
       </c>
     </row>
@@ -8474,7 +9920,7 @@
         <v>407.251902587519</v>
       </c>
       <c r="F429">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>469.28654239583966</v>
       </c>
     </row>
@@ -8492,7 +9938,7 @@
         <v>641.775735294117</v>
       </c>
       <c r="F430">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>691.14895513137242</v>
       </c>
     </row>
@@ -8510,7 +9956,7 @@
         <v>422.96784830997501</v>
       </c>
       <c r="F431">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>461.93522393665836</v>
       </c>
     </row>
@@ -8528,7 +9974,7 @@
         <v>497.61047835990797</v>
       </c>
       <c r="F432">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>556.18462111996939</v>
       </c>
     </row>
@@ -8546,7 +9992,7 @@
         <v>643.07954545454504</v>
       </c>
       <c r="F433">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>582.03863661818161</v>
       </c>
     </row>
@@ -8564,7 +10010,7 @@
         <v>523.43760683760604</v>
       </c>
       <c r="F434">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>467.16233967920198</v>
       </c>
     </row>
@@ -8582,7 +10028,7 @@
         <v>659.4144</v>
       </c>
       <c r="F435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>467.10560506666661</v>
       </c>
     </row>
@@ -8600,7 +10046,7 @@
         <v>437.751873438801</v>
       </c>
       <c r="F436">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>394.28087344626692</v>
       </c>
     </row>
@@ -8618,7 +10064,7 @@
         <v>435.11807817589499</v>
       </c>
       <c r="F437">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>611.11953722529825</v>
       </c>
     </row>
@@ -8636,7 +10082,7 @@
         <v>539.16958654519897</v>
       </c>
       <c r="F438">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>539.11587241506629</v>
       </c>
     </row>
@@ -8654,7 +10100,7 @@
         <v>518.32657342657296</v>
       </c>
       <c r="F439">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>466.99383514219102</v>
       </c>
     </row>
@@ -8672,7 +10118,7 @@
         <v>541.37158852344203</v>
       </c>
       <c r="F440">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>527.68924780781401</v>
       </c>
     </row>
@@ -8690,7 +10136,7 @@
         <v>321.82709950599798</v>
       </c>
       <c r="F441">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>425.18929966866602</v>
       </c>
     </row>
@@ -8708,7 +10154,7 @@
         <v>560.84100418410003</v>
       </c>
       <c r="F442">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>583.17639246136662</v>
       </c>
     </row>
@@ -8726,7 +10172,7 @@
         <v>485.50518518518498</v>
       </c>
       <c r="F443">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>505.7731156617283</v>
       </c>
     </row>
@@ -8744,7 +10190,7 @@
         <v>475.06332637439101</v>
       </c>
       <c r="F444">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>477.68876879146364</v>
       </c>
     </row>
@@ -8762,7 +10208,7 @@
         <v>512.69668587896194</v>
       </c>
       <c r="F445">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>529.11766255965404</v>
       </c>
     </row>
@@ -8780,7 +10226,7 @@
         <v>356.66178521617798</v>
       </c>
       <c r="F446">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>358.23316687205937</v>
       </c>
     </row>
@@ -8798,7 +10244,7 @@
         <v>580.331245650661</v>
       </c>
       <c r="F447">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>571.87175441688703</v>
       </c>
     </row>
@@ -8816,7 +10262,7 @@
         <v>410.57949790794902</v>
       </c>
       <c r="F448">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>368.91177263598297</v>
       </c>
     </row>
@@ -8834,7 +10280,7 @@
         <v>407.72007366482501</v>
       </c>
       <c r="F449">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>435.92087508827507</v>
       </c>
     </row>
@@ -8852,7 +10298,7 @@
         <v>510.18365871294202</v>
       </c>
       <c r="F450">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>506.11383213764731</v>
       </c>
     </row>
@@ -8873,7 +10319,7 @@
         <v>492.50174703004802</v>
       </c>
       <c r="F451">
-        <f t="shared" ref="F451:F512" si="13">AVERAGE(B451:E451)</f>
+        <f t="shared" ref="F451:F512" si="17">AVERAGE(B451:E451)</f>
         <v>492.38228168251203</v>
       </c>
     </row>
@@ -8894,7 +10340,7 @@
         <v>489.537900874635</v>
       </c>
       <c r="F452">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>478.83445708115875</v>
       </c>
     </row>
@@ -8915,7 +10361,7 @@
         <v>370.407299270073</v>
       </c>
       <c r="F453">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>451.82790966751827</v>
       </c>
     </row>
@@ -8936,7 +10382,7 @@
         <v>261.37183098591498</v>
       </c>
       <c r="F454">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>311.47095367147875</v>
       </c>
     </row>
@@ -8957,7 +10403,7 @@
         <v>405.87020237264397</v>
       </c>
       <c r="F455">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>620.72907411816095</v>
       </c>
     </row>
@@ -8978,7 +10424,7 @@
         <v>339.38580463808802</v>
       </c>
       <c r="F456">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>420.43397343452199</v>
       </c>
     </row>
@@ -8999,7 +10445,7 @@
         <v>515.75806451612902</v>
       </c>
       <c r="F457">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>555.32759577903221</v>
       </c>
     </row>
@@ -9020,7 +10466,7 @@
         <v>530.45670391061401</v>
       </c>
       <c r="F458">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>660.99280220265348</v>
       </c>
     </row>
@@ -9041,7 +10487,7 @@
         <v>484.78688524590098</v>
       </c>
       <c r="F459">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>619.73405768647524</v>
       </c>
     </row>
@@ -9062,7 +10508,7 @@
         <v>471.403496503496</v>
       </c>
       <c r="F460">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>660.48148807587404</v>
       </c>
     </row>
@@ -9083,7 +10529,7 @@
         <v>387.050036258158</v>
       </c>
       <c r="F461">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>514.45984256453949</v>
       </c>
     </row>
@@ -9104,7 +10550,7 @@
         <v>566.68736915561703</v>
       </c>
       <c r="F462">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>605.28052068890429</v>
       </c>
     </row>
@@ -9125,7 +10571,7 @@
         <v>526.13974151857803</v>
       </c>
       <c r="F463">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>652.20847610464455</v>
       </c>
     </row>
@@ -9146,7 +10592,7 @@
         <v>496.73733047822901</v>
       </c>
       <c r="F464">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>659.0617444695572</v>
       </c>
     </row>
@@ -9167,7 +10613,7 @@
         <v>371.40836236933802</v>
       </c>
       <c r="F465">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>481.70912139233451</v>
       </c>
     </row>
@@ -9188,7 +10634,7 @@
         <v>380.298528381219</v>
       </c>
       <c r="F466">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>576.02915387030475</v>
       </c>
     </row>
@@ -9209,7 +10655,7 @@
         <v>706.69156293222602</v>
       </c>
       <c r="F467">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>803.03384808305645</v>
       </c>
     </row>
@@ -9230,7 +10676,7 @@
         <v>681.49231843575399</v>
       </c>
       <c r="F468">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>815.06851290893849</v>
       </c>
     </row>
@@ -9251,7 +10697,7 @@
         <v>742.020905923344</v>
       </c>
       <c r="F469">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>706.45383380583598</v>
       </c>
     </row>
@@ -9272,7 +10718,7 @@
         <v>413.552613240418</v>
       </c>
       <c r="F470">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>488.9895913101044</v>
       </c>
     </row>
@@ -9293,7 +10739,7 @@
         <v>417.88198324022301</v>
       </c>
       <c r="F471">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>497.49199881005569</v>
       </c>
     </row>
@@ -9314,7 +10760,7 @@
         <v>599.82984658298403</v>
       </c>
       <c r="F472">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>698.30850597074595</v>
       </c>
     </row>
@@ -9335,7 +10781,7 @@
         <v>531.50585651537301</v>
       </c>
       <c r="F473">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>569.30750767884319</v>
       </c>
     </row>
@@ -9356,7 +10802,7 @@
         <v>302.16690042075697</v>
       </c>
       <c r="F474">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>349.6604012051892</v>
       </c>
     </row>
@@ -9377,7 +10823,7 @@
         <v>537.88107324147904</v>
       </c>
       <c r="F475">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>440.77841567286976</v>
       </c>
     </row>
@@ -9398,7 +10844,7 @@
         <v>392.11039886039799</v>
       </c>
       <c r="F476">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>514.67229681509946</v>
       </c>
     </row>
@@ -9419,7 +10865,7 @@
         <v>414.59776536312802</v>
       </c>
       <c r="F477">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>556.616982790782</v>
       </c>
     </row>
@@ -9440,7 +10886,7 @@
         <v>556.77263007840304</v>
       </c>
       <c r="F478">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>681.03760339460075</v>
       </c>
     </row>
@@ -9461,7 +10907,7 @@
         <v>388.33985507246302</v>
       </c>
       <c r="F479">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>395.46994394311577</v>
       </c>
     </row>
@@ -9482,7 +10928,7 @@
         <v>336.75779036827203</v>
       </c>
       <c r="F480">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>355.689563092068</v>
       </c>
     </row>
@@ -9503,7 +10949,7 @@
         <v>596.07262164124904</v>
       </c>
       <c r="F481">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>623.84685568531222</v>
       </c>
     </row>
@@ -9524,7 +10970,7 @@
         <v>294.80629370629299</v>
       </c>
       <c r="F482">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>326.97190917657326</v>
       </c>
     </row>
@@ -9545,7 +10991,7 @@
         <v>527.66387726638698</v>
       </c>
       <c r="F483">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>758.1793965415967</v>
       </c>
     </row>
@@ -9566,7 +11012,7 @@
         <v>391.981158408932</v>
       </c>
       <c r="F484">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>649.84060410223299</v>
       </c>
     </row>
@@ -9587,7 +11033,7 @@
         <v>765.86689895470295</v>
       </c>
       <c r="F485">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>870.70817116367562</v>
       </c>
     </row>
@@ -9608,7 +11054,7 @@
         <v>490.20139372822302</v>
       </c>
       <c r="F486">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>525.13422118205574</v>
       </c>
     </row>
@@ -9629,7 +11075,7 @@
         <v>568.78690807799398</v>
       </c>
       <c r="F487">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>468.87948331949849</v>
       </c>
     </row>
@@ -9650,7 +11096,7 @@
         <v>493.58048780487798</v>
       </c>
       <c r="F488">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>411.20916617621947</v>
       </c>
     </row>
@@ -9671,7 +11117,7 @@
         <v>493.24825662482499</v>
       </c>
       <c r="F489">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>541.93524430620619</v>
       </c>
     </row>
@@ -9692,7 +11138,7 @@
         <v>366.50417246175198</v>
       </c>
       <c r="F490">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>454.66110129043795</v>
       </c>
     </row>
@@ -9713,7 +11159,7 @@
         <v>237.41742160278699</v>
       </c>
       <c r="F491">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>277.95470637569673</v>
       </c>
     </row>
@@ -9734,7 +11180,7 @@
         <v>538.74184191442998</v>
       </c>
       <c r="F492">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>594.87623510360754</v>
       </c>
     </row>
@@ -9755,7 +11201,7 @@
         <v>555.61630695443603</v>
       </c>
       <c r="F493">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>584.67222706360906</v>
       </c>
     </row>
@@ -9776,7 +11222,7 @@
         <v>466.927627000695</v>
       </c>
       <c r="F494">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>537.60964042517378</v>
       </c>
     </row>
@@ -9797,7 +11243,7 @@
         <v>574.93667362560802</v>
       </c>
       <c r="F495">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>709.13322185640197</v>
       </c>
     </row>
@@ -9818,7 +11264,7 @@
         <v>527.45543175487398</v>
       </c>
       <c r="F496">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>680.97451271371858</v>
       </c>
     </row>
@@ -9839,7 +11285,7 @@
         <v>410.28857890148203</v>
       </c>
       <c r="F497">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>427.87524105037051</v>
       </c>
     </row>
@@ -9860,7 +11306,7 @@
         <v>434.44072524407198</v>
       </c>
       <c r="F498">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>435.100450386018</v>
       </c>
     </row>
@@ -9881,7 +11327,7 @@
         <v>372.27031019202298</v>
       </c>
       <c r="F499">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>405.15475347300571</v>
       </c>
     </row>
@@ -9902,7 +11348,7 @@
         <v>445.61984626135501</v>
       </c>
       <c r="F500">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>514.87427776533877</v>
       </c>
     </row>
@@ -9923,7 +11369,7 @@
         <v>358.88850174215997</v>
       </c>
       <c r="F501">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>393.13998506053997</v>
       </c>
     </row>
@@ -9944,7 +11390,7 @@
         <v>320.50835654596102</v>
       </c>
       <c r="F502">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>399.14256306149025</v>
       </c>
     </row>
@@ -9965,7 +11411,7 @@
         <v>454.169057377049</v>
       </c>
       <c r="F503">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>520.95027424426223</v>
       </c>
     </row>
@@ -9986,7 +11432,7 @@
         <v>345.11986062717699</v>
       </c>
       <c r="F504">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>412.34580443179425</v>
       </c>
     </row>
@@ -10007,7 +11453,7 @@
         <v>541.23006993006902</v>
       </c>
       <c r="F505">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>616.2872151325173</v>
       </c>
     </row>
@@ -10028,7 +11474,7 @@
         <v>400.82869080779898</v>
       </c>
       <c r="F506">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>479.23092735194979</v>
       </c>
     </row>
@@ -10049,7 +11495,7 @@
         <v>516.18883174136602</v>
       </c>
       <c r="F507">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>585.81939001034152</v>
       </c>
     </row>
@@ -10070,7 +11516,7 @@
         <v>487.62256267409401</v>
       </c>
       <c r="F508">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>512.79146134352345</v>
       </c>
     </row>
@@ -10091,7 +11537,7 @@
         <v>481.68662952646201</v>
       </c>
       <c r="F509">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>486.95532588161547</v>
       </c>
     </row>
@@ -10112,7 +11558,7 @@
         <v>380.87726638772602</v>
       </c>
       <c r="F510">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>437.71427652193148</v>
       </c>
     </row>
@@ -10133,7 +11579,7 @@
         <v>558.08692628650897</v>
       </c>
       <c r="F511">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>559.30646624662722</v>
       </c>
     </row>
@@ -10154,14 +11600,16 @@
         <v>746.19972164231001</v>
       </c>
       <c r="F512">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>594.60296625057754</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O1:T1"/>
+  <mergeCells count="4">
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="T19:AD19"/>
+    <mergeCell ref="U60:Y60"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Negative_ions/wsl.xlsx
+++ b/Negative_ions/wsl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Negative_ions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFBEDE0-72D1-4E3A-8744-4E239E348606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950A24AA-259E-47FB-8C28-4286F9CB7D16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>thin</t>
+  </si>
+  <si>
+    <t>T-test</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -816,6 +820,9 @@
     <xf numFmtId="9" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,9 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1186,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="O45" workbookViewId="0">
+      <selection activeCell="AB63" sqref="AB63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1247,14 +1251,14 @@
       <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1277,7 +1281,7 @@
         <f>AVERAGE(I2:L2)</f>
         <v>216.910409684358</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="16">
         <v>43678</v>
       </c>
       <c r="P2">
@@ -1327,7 +1331,7 @@
         <f t="shared" ref="M3:M18" si="1">AVERAGE(I3:L3)</f>
         <v>261.60145161290302</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="16">
         <v>43709</v>
       </c>
       <c r="P3">
@@ -1384,7 +1388,7 @@
         <f t="shared" si="1"/>
         <v>223.23093390420101</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="16">
         <v>43739</v>
       </c>
       <c r="P4">
@@ -1444,7 +1448,7 @@
         <f>AVERAGE(I5:L5)</f>
         <v>362.66923393262721</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="16">
         <v>43770</v>
       </c>
       <c r="P5">
@@ -1501,7 +1505,7 @@
         <f t="shared" si="1"/>
         <v>534.20735420036101</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="16">
         <v>43800</v>
       </c>
       <c r="P6">
@@ -1561,7 +1565,7 @@
         <f t="shared" si="1"/>
         <v>495.36820599820896</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="16">
         <v>43831</v>
       </c>
       <c r="P7">
@@ -1598,7 +1602,7 @@
         <f t="shared" si="1"/>
         <v>473.17285301737701</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="16">
         <v>43862</v>
       </c>
       <c r="P8">
@@ -1641,7 +1645,7 @@
         <f t="shared" si="1"/>
         <v>694.02212741768324</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="16">
         <v>43891</v>
       </c>
       <c r="P9">
@@ -1684,7 +1688,7 @@
         <f t="shared" si="1"/>
         <v>570.61773086994049</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="16">
         <v>43922</v>
       </c>
       <c r="P10">
@@ -1696,14 +1700,14 @@
       <c r="R10">
         <v>3590.5300000001298</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1735,7 +1739,7 @@
         <f t="shared" si="1"/>
         <v>544.81954456850451</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="16">
         <v>43952</v>
       </c>
       <c r="P11">
@@ -1794,7 +1798,7 @@
         <f t="shared" si="1"/>
         <v>459.59898284776722</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="16">
         <v>43983</v>
       </c>
       <c r="P12">
@@ -1860,7 +1864,7 @@
         <f t="shared" si="1"/>
         <v>374.82412654653729</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="16">
         <v>44013</v>
       </c>
       <c r="P13">
@@ -1926,7 +1930,7 @@
         <f t="shared" si="1"/>
         <v>496.66815152938949</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="16">
         <v>44044</v>
       </c>
       <c r="P14">
@@ -1992,7 +1996,7 @@
         <f t="shared" si="1"/>
         <v>471.14957341447399</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="16">
         <v>44075</v>
       </c>
       <c r="P15">
@@ -2058,7 +2062,7 @@
         <f t="shared" si="1"/>
         <v>541.95454708249622</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="16">
         <v>44105</v>
       </c>
       <c r="P16">
@@ -2104,7 +2108,7 @@
         <f t="shared" si="1"/>
         <v>565.71463721840053</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="16">
         <v>44136</v>
       </c>
       <c r="P17">
@@ -2150,7 +2154,7 @@
         <f t="shared" si="1"/>
         <v>508.23278394117028</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="16">
         <v>44166</v>
       </c>
       <c r="P18">
@@ -2177,7 +2181,7 @@
         <f t="shared" si="0"/>
         <v>175.08603669999999</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="16">
         <v>44197</v>
       </c>
       <c r="P19">
@@ -2189,19 +2193,19 @@
       <c r="R19">
         <v>3935.0100000000498</v>
       </c>
-      <c r="T19" s="17" t="s">
+      <c r="T19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
       <c r="AE19" s="13"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
@@ -2215,7 +2219,7 @@
         <f t="shared" si="0"/>
         <v>202.2442997</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="16">
         <v>44228</v>
       </c>
       <c r="P20">
@@ -3873,14 +3877,29 @@
         <f t="shared" si="0"/>
         <v>93.081218269999994</v>
       </c>
-      <c r="T60" s="12"/>
-      <c r="U60" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
+      <c r="T60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U60">
+        <f>_xlfn.T.TEST(U21:U56,AA21:AA41,1,2)</f>
+        <v>0.22679865170246161</v>
+      </c>
+      <c r="V60">
+        <f t="shared" ref="V60:Y60" si="11">_xlfn.T.TEST(V21:V56,AB21:AB41,1,2)</f>
+        <v>0.19893973794743197</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="11"/>
+        <v>0.11670791829120498</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="11"/>
+        <v>6.4507267253002307E-2</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="11"/>
+        <v>0.22347391825290608</v>
+      </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -3894,6 +3913,13 @@
         <v>253.1488636</v>
       </c>
       <c r="T61" s="12"/>
+      <c r="U61" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
@@ -3966,7 +3992,7 @@
         <v>38.57992565</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="11">AVERAGE(B67:E67)</f>
+        <f t="shared" ref="F67:F130" si="12">AVERAGE(B67:E67)</f>
         <v>38.57992565</v>
       </c>
     </row>
@@ -3978,7 +4004,7 @@
         <v>440.51890759999998</v>
       </c>
       <c r="F68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>440.51890759999998</v>
       </c>
     </row>
@@ -3990,7 +4016,7 @@
         <v>117.69775679999999</v>
       </c>
       <c r="F69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>117.69775679999999</v>
       </c>
     </row>
@@ -4002,7 +4028,7 @@
         <v>26.455334990000001</v>
       </c>
       <c r="F70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>26.455334990000001</v>
       </c>
     </row>
@@ -4014,7 +4040,7 @@
         <v>74.439560439999994</v>
       </c>
       <c r="F71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>74.439560439999994</v>
       </c>
     </row>
@@ -4026,7 +4052,7 @@
         <v>226.12220919999999</v>
       </c>
       <c r="F72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>226.12220919999999</v>
       </c>
     </row>
@@ -4038,7 +4064,7 @@
         <v>275.25238100000001</v>
       </c>
       <c r="F73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>275.25238100000001</v>
       </c>
     </row>
@@ -4050,7 +4076,7 @@
         <v>224.4025671</v>
       </c>
       <c r="F74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>224.4025671</v>
       </c>
     </row>
@@ -4062,7 +4088,7 @@
         <v>181.8823529</v>
       </c>
       <c r="F75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>181.8823529</v>
       </c>
     </row>
@@ -4079,7 +4105,7 @@
         <v>465.67441860000002</v>
       </c>
       <c r="F77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>465.67441860000002</v>
       </c>
     </row>
@@ -4131,7 +4157,7 @@
         <v>351.72300469999999</v>
       </c>
       <c r="F86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>351.72300469999999</v>
       </c>
     </row>
@@ -4143,7 +4169,7 @@
         <v>318.89221559999999</v>
       </c>
       <c r="F87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>318.89221559999999</v>
       </c>
     </row>
@@ -4155,7 +4181,7 @@
         <v>137.20585629999999</v>
       </c>
       <c r="F88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>137.20585629999999</v>
       </c>
     </row>
@@ -4167,7 +4193,7 @@
         <v>167.04980080000001</v>
       </c>
       <c r="F89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>167.04980080000001</v>
       </c>
     </row>
@@ -4179,7 +4205,7 @@
         <v>120.46643109999999</v>
       </c>
       <c r="F90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>120.46643109999999</v>
       </c>
     </row>
@@ -4191,7 +4217,7 @@
         <v>330.98169719999999</v>
       </c>
       <c r="F91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.98169719999999</v>
       </c>
     </row>
@@ -4203,7 +4229,7 @@
         <v>307.59032719999999</v>
       </c>
       <c r="F92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>307.59032719999999</v>
       </c>
     </row>
@@ -4215,7 +4241,7 @@
         <v>455.43648209999998</v>
       </c>
       <c r="F93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>455.43648209999998</v>
       </c>
     </row>
@@ -4227,7 +4253,7 @@
         <v>400.76451609999998</v>
       </c>
       <c r="F94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>400.76451609999998</v>
       </c>
     </row>
@@ -4349,7 +4375,7 @@
         <v>215.56862749999999</v>
       </c>
       <c r="F117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>215.56862749999999</v>
       </c>
     </row>
@@ -4364,7 +4390,7 @@
         <v>205.2082671</v>
       </c>
       <c r="F118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>241.89944270000001</v>
       </c>
     </row>
@@ -4376,7 +4402,7 @@
         <v>586.86344540000005</v>
       </c>
       <c r="F119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>586.86344540000005</v>
       </c>
     </row>
@@ -4388,7 +4414,7 @@
         <v>585.14235619999999</v>
       </c>
       <c r="F120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>585.14235619999999</v>
       </c>
     </row>
@@ -4400,7 +4426,7 @@
         <v>496.46164570000002</v>
       </c>
       <c r="F121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>496.46164570000002</v>
       </c>
     </row>
@@ -4412,7 +4438,7 @@
         <v>337.96407190000002</v>
       </c>
       <c r="F122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>337.96407190000002</v>
       </c>
     </row>
@@ -4424,7 +4450,7 @@
         <v>511.11002100000002</v>
       </c>
       <c r="F123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>511.11002100000002</v>
       </c>
     </row>
@@ -4436,7 +4462,7 @@
         <v>473.88284520000002</v>
       </c>
       <c r="F124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>473.88284520000002</v>
       </c>
     </row>
@@ -4448,7 +4474,7 @@
         <v>445.32960889999998</v>
       </c>
       <c r="F125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>445.32960889999998</v>
       </c>
     </row>
@@ -4460,7 +4486,7 @@
         <v>327.54593180000001</v>
       </c>
       <c r="F126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>327.54593180000001</v>
       </c>
     </row>
@@ -4472,7 +4498,7 @@
         <v>483.05985920000001</v>
       </c>
       <c r="F127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>483.05985920000001</v>
       </c>
     </row>
@@ -4484,7 +4510,7 @@
         <v>513.95725300000004</v>
       </c>
       <c r="F128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>513.95725300000004</v>
       </c>
     </row>
@@ -4496,7 +4522,7 @@
         <v>795.64915970000004</v>
       </c>
       <c r="F129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>795.64915970000004</v>
       </c>
     </row>
@@ -4508,7 +4534,7 @@
         <v>582.95251399999995</v>
       </c>
       <c r="F130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>582.95251399999995</v>
       </c>
     </row>
@@ -4520,7 +4546,7 @@
         <v>472.77298050000002</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="12">AVERAGE(B131:E131)</f>
+        <f t="shared" ref="F131:F194" si="13">AVERAGE(B131:E131)</f>
         <v>472.77298050000002</v>
       </c>
     </row>
@@ -4532,7 +4558,7 @@
         <v>566.48688709999999</v>
       </c>
       <c r="F132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>566.48688709999999</v>
       </c>
     </row>
@@ -4544,7 +4570,7 @@
         <v>771.01815639999995</v>
       </c>
       <c r="F133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>771.01815639999995</v>
       </c>
     </row>
@@ -4556,7 +4582,7 @@
         <v>435.14613179999998</v>
       </c>
       <c r="F134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>435.14613179999998</v>
       </c>
     </row>
@@ -4568,7 +4594,7 @@
         <v>478.88407819999998</v>
       </c>
       <c r="F135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>478.88407819999998</v>
       </c>
     </row>
@@ -4580,7 +4606,7 @@
         <v>695.70071429999996</v>
       </c>
       <c r="F136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>695.70071429999996</v>
       </c>
     </row>
@@ -4592,7 +4618,7 @@
         <v>540.71877180000001</v>
       </c>
       <c r="F137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>540.71877180000001</v>
       </c>
     </row>
@@ -4604,7 +4630,7 @@
         <v>456.0438413</v>
       </c>
       <c r="F138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>456.0438413</v>
       </c>
     </row>
@@ -4616,7 +4642,7 @@
         <v>335.67550590000002</v>
       </c>
       <c r="F139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>335.67550590000002</v>
       </c>
     </row>
@@ -4628,7 +4654,7 @@
         <v>375.09414229999999</v>
       </c>
       <c r="F140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>375.09414229999999</v>
       </c>
     </row>
@@ -4640,7 +4666,7 @@
         <v>525.73152019999998</v>
       </c>
       <c r="F141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>525.73152019999998</v>
       </c>
     </row>
@@ -4652,7 +4678,7 @@
         <v>374.45953550000002</v>
       </c>
       <c r="F142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>374.45953550000002</v>
       </c>
     </row>
@@ -4664,7 +4690,7 @@
         <v>278.50174950000002</v>
       </c>
       <c r="F143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>278.50174950000002</v>
       </c>
     </row>
@@ -4676,7 +4702,7 @@
         <v>521.80879270000003</v>
       </c>
       <c r="F144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>521.80879270000003</v>
       </c>
     </row>
@@ -4688,7 +4714,7 @@
         <v>701.24181180000005</v>
       </c>
       <c r="F145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>701.24181180000005</v>
       </c>
     </row>
@@ -4700,7 +4726,7 @@
         <v>498.03566430000001</v>
       </c>
       <c r="F146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>498.03566430000001</v>
       </c>
     </row>
@@ -4712,7 +4738,7 @@
         <v>397.94556870000002</v>
       </c>
       <c r="F147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>397.94556870000002</v>
       </c>
     </row>
@@ -4724,7 +4750,7 @@
         <v>532.14135759999999</v>
       </c>
       <c r="F148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>532.14135759999999</v>
       </c>
     </row>
@@ -4736,7 +4762,7 @@
         <v>547.66132400000004</v>
       </c>
       <c r="F149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>547.66132400000004</v>
       </c>
     </row>
@@ -4748,7 +4774,7 @@
         <v>559.6948324</v>
       </c>
       <c r="F150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>559.6948324</v>
       </c>
     </row>
@@ -4760,7 +4786,7 @@
         <v>672.36775990000001</v>
       </c>
       <c r="F151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>672.36775990000001</v>
       </c>
     </row>
@@ -4772,7 +4798,7 @@
         <v>686.87177699999995</v>
       </c>
       <c r="F152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>686.87177699999995</v>
       </c>
     </row>
@@ -4784,7 +4810,7 @@
         <v>783.46587739999995</v>
       </c>
       <c r="F153">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>783.46587739999995</v>
       </c>
     </row>
@@ -4796,7 +4822,7 @@
         <v>639.6499652</v>
       </c>
       <c r="F154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>639.6499652</v>
       </c>
     </row>
@@ -4808,7 +4834,7 @@
         <v>601.11033029999999</v>
       </c>
       <c r="F155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>601.11033029999999</v>
       </c>
     </row>
@@ -4820,7 +4846,7 @@
         <v>504.3923345</v>
       </c>
       <c r="F156">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>504.3923345</v>
       </c>
     </row>
@@ -4832,7 +4858,7 @@
         <v>326.87038330000001</v>
       </c>
       <c r="F157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>326.87038330000001</v>
       </c>
     </row>
@@ -4844,7 +4870,7 @@
         <v>547.87762239999995</v>
       </c>
       <c r="F158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>547.87762239999995</v>
       </c>
     </row>
@@ -4856,7 +4882,7 @@
         <v>471.16013989999999</v>
       </c>
       <c r="F159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>471.16013989999999</v>
       </c>
     </row>
@@ -4868,7 +4894,7 @@
         <v>725.28041959999996</v>
       </c>
       <c r="F160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>725.28041959999996</v>
       </c>
     </row>
@@ -4880,7 +4906,7 @@
         <v>597.05874129999995</v>
       </c>
       <c r="F161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>597.05874129999995</v>
       </c>
     </row>
@@ -4892,7 +4918,7 @@
         <v>405.24633640000002</v>
       </c>
       <c r="F162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>405.24633640000002</v>
       </c>
     </row>
@@ -4904,7 +4930,7 @@
         <v>404.36806150000001</v>
       </c>
       <c r="F163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>404.36806150000001</v>
       </c>
     </row>
@@ -4916,7 +4942,7 @@
         <v>769.25</v>
       </c>
       <c r="F164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>769.25</v>
       </c>
     </row>
@@ -4928,7 +4954,7 @@
         <v>810.01392759999999</v>
       </c>
       <c r="F165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>810.01392759999999</v>
       </c>
     </row>
@@ -4940,7 +4966,7 @@
         <v>698.97768480000002</v>
       </c>
       <c r="F166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>698.97768480000002</v>
       </c>
     </row>
@@ -4952,7 +4978,7 @@
         <v>721.72955969999998</v>
       </c>
       <c r="F167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>721.72955969999998</v>
       </c>
     </row>
@@ -4964,7 +4990,7 @@
         <v>426.6062718</v>
       </c>
       <c r="F168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>426.6062718</v>
       </c>
     </row>
@@ -4976,7 +5002,7 @@
         <v>638.71325650000006</v>
       </c>
       <c r="F169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>638.71325650000006</v>
       </c>
     </row>
@@ -4988,7 +5014,7 @@
         <v>813.26484979999998</v>
       </c>
       <c r="F170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>813.26484979999998</v>
       </c>
     </row>
@@ -5000,7 +5026,7 @@
         <v>804.18822669999997</v>
       </c>
       <c r="F171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>804.18822669999997</v>
       </c>
     </row>
@@ -5012,7 +5038,7 @@
         <v>935.93850450000002</v>
       </c>
       <c r="F172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>935.93850450000002</v>
       </c>
     </row>
@@ -5024,7 +5050,7 @@
         <v>539.54564459999995</v>
       </c>
       <c r="F173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>539.54564459999995</v>
       </c>
     </row>
@@ -5036,7 +5062,7 @@
         <v>566.21717880000006</v>
       </c>
       <c r="F174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>566.21717880000006</v>
       </c>
     </row>
@@ -5048,7 +5074,7 @@
         <v>465.38418469999999</v>
       </c>
       <c r="F175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>465.38418469999999</v>
       </c>
     </row>
@@ -5060,7 +5086,7 @@
         <v>753.15679439999997</v>
       </c>
       <c r="F176">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>753.15679439999997</v>
       </c>
     </row>
@@ -5075,7 +5101,7 @@
         <v>220.10393260000001</v>
       </c>
       <c r="F177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>307.11011395000003</v>
       </c>
     </row>
@@ -5090,7 +5116,7 @@
         <v>532.83454730000005</v>
       </c>
       <c r="F178">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>616.11922350000009</v>
       </c>
     </row>
@@ -5105,7 +5131,7 @@
         <v>542.18865740000001</v>
       </c>
       <c r="F179">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>671.55182000000002</v>
       </c>
     </row>
@@ -5120,7 +5146,7 @@
         <v>457.37612610000002</v>
       </c>
       <c r="F180">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>663.27592915000002</v>
       </c>
     </row>
@@ -5135,7 +5161,7 @@
         <v>305.14020429999999</v>
       </c>
       <c r="F181">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>410.72860460000004</v>
       </c>
     </row>
@@ -5150,7 +5176,7 @@
         <v>554.67357509999999</v>
       </c>
       <c r="F182">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>784.24467305000007</v>
       </c>
     </row>
@@ -5165,7 +5191,7 @@
         <v>311.40432959999998</v>
       </c>
       <c r="F183">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>473.88220665</v>
       </c>
     </row>
@@ -5180,7 +5206,7 @@
         <v>237.23438770000001</v>
       </c>
       <c r="F184">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>454.68117985000004</v>
       </c>
     </row>
@@ -5195,7 +5221,7 @@
         <v>90.133388569999994</v>
       </c>
       <c r="F185">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>313.86144953499996</v>
       </c>
     </row>
@@ -5210,7 +5236,7 @@
         <v>263.46936849999997</v>
       </c>
       <c r="F186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>423.25149095</v>
       </c>
     </row>
@@ -5225,7 +5251,7 @@
         <v>498.34980689999998</v>
       </c>
       <c r="F187">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>700.34191880000003</v>
       </c>
     </row>
@@ -5240,7 +5266,7 @@
         <v>411.52062710000001</v>
       </c>
       <c r="F188">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>583.68958525000005</v>
       </c>
     </row>
@@ -5255,7 +5281,7 @@
         <v>173.04391889999999</v>
       </c>
       <c r="F189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>373.35400714999997</v>
       </c>
     </row>
@@ -5270,7 +5296,7 @@
         <v>311.89622639999999</v>
       </c>
       <c r="F190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>386.09047190000001</v>
       </c>
     </row>
@@ -5285,7 +5311,7 @@
         <v>228.70463789999999</v>
       </c>
       <c r="F191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>328.63064405</v>
       </c>
     </row>
@@ -5300,7 +5326,7 @@
         <v>155.69846150000001</v>
       </c>
       <c r="F192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>292.02112755000002</v>
       </c>
     </row>
@@ -5315,7 +5341,7 @@
         <v>326.39742619999998</v>
       </c>
       <c r="F193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>423.90213249999999</v>
       </c>
     </row>
@@ -5330,7 +5356,7 @@
         <v>104.87921849999999</v>
       </c>
       <c r="F194">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>394.94974200000001</v>
       </c>
     </row>
@@ -5345,7 +5371,7 @@
         <v>473.32106340000001</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F258" si="13">AVERAGE(B195:E195)</f>
+        <f t="shared" ref="F195:F258" si="14">AVERAGE(B195:E195)</f>
         <v>739.7632572</v>
       </c>
     </row>
@@ -5360,7 +5386,7 @@
         <v>275.53891629999998</v>
       </c>
       <c r="F196">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>424.5739274</v>
       </c>
     </row>
@@ -5375,7 +5401,7 @@
         <v>254.94117650000001</v>
       </c>
       <c r="F197">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>381.26353519999998</v>
       </c>
     </row>
@@ -5390,7 +5416,7 @@
         <v>214.15816860000001</v>
       </c>
       <c r="F198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>465.26191749999998</v>
       </c>
     </row>
@@ -5405,7 +5431,7 @@
         <v>433.02844829999998</v>
       </c>
       <c r="F199">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>550.17550314999994</v>
       </c>
     </row>
@@ -5420,7 +5446,7 @@
         <v>357.84404460000002</v>
       </c>
       <c r="F200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>475.65684435000003</v>
       </c>
     </row>
@@ -5435,7 +5461,7 @@
         <v>170.4068293</v>
       </c>
       <c r="F201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>354.08410044999999</v>
       </c>
     </row>
@@ -5450,7 +5476,7 @@
         <v>153.08083139999999</v>
       </c>
       <c r="F202">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>325.15389334999998</v>
       </c>
     </row>
@@ -5465,7 +5491,7 @@
         <v>462.97627870000002</v>
       </c>
       <c r="F203">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>644.19030414999997</v>
       </c>
     </row>
@@ -5480,7 +5506,7 @@
         <v>504.39066150000002</v>
       </c>
       <c r="F204">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>638.57825760000003</v>
       </c>
     </row>
@@ -5495,7 +5521,7 @@
         <v>315.27060649999999</v>
       </c>
       <c r="F205">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>517.28562080000006</v>
       </c>
     </row>
@@ -5510,7 +5536,7 @@
         <v>332.76607280000002</v>
       </c>
       <c r="F206">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>519.24167880000005</v>
       </c>
     </row>
@@ -5525,7 +5551,7 @@
         <v>350.64967230000002</v>
       </c>
       <c r="F207">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>580.52769929999999</v>
       </c>
     </row>
@@ -5540,7 +5566,7 @@
         <v>179.0858369</v>
       </c>
       <c r="F208">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>336.14996170000001</v>
       </c>
     </row>
@@ -5555,7 +5581,7 @@
         <v>281.94219650000002</v>
       </c>
       <c r="F209">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>376.4924269</v>
       </c>
     </row>
@@ -5570,7 +5596,7 @@
         <v>366.59180579999997</v>
       </c>
       <c r="F210">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>513.83281099999999</v>
       </c>
     </row>
@@ -5585,7 +5611,7 @@
         <v>352.20984220000003</v>
       </c>
       <c r="F211">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>626.42555044999995</v>
       </c>
     </row>
@@ -5600,7 +5626,7 @@
         <v>365.87790699999999</v>
       </c>
       <c r="F212">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>419.02374674999999</v>
       </c>
     </row>
@@ -5615,7 +5641,7 @@
         <v>343.50323100000003</v>
       </c>
       <c r="F213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>500.25161550000001</v>
       </c>
     </row>
@@ -5630,7 +5656,7 @@
         <v>152.5615942</v>
       </c>
       <c r="F214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>264.7325462</v>
       </c>
     </row>
@@ -5696,7 +5722,7 @@
         <v>414.00451807228899</v>
       </c>
       <c r="F224">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>545.38301161807226</v>
       </c>
     </row>
@@ -5717,7 +5743,7 @@
         <v>739.47438162544097</v>
       </c>
       <c r="F225">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>818.1368798063603</v>
       </c>
     </row>
@@ -5738,7 +5764,7 @@
         <v>717.66077441077402</v>
       </c>
       <c r="F226">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>794.59709380269351</v>
       </c>
     </row>
@@ -5759,7 +5785,7 @@
         <v>722.28484320557402</v>
       </c>
       <c r="F227">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>758.9116471263934</v>
       </c>
     </row>
@@ -5780,7 +5806,7 @@
         <v>920.912630579297</v>
       </c>
       <c r="F228">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>709.76437794482422</v>
       </c>
     </row>
@@ -5801,7 +5827,7 @@
         <v>715.90154968094805</v>
       </c>
       <c r="F229">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>810.23926919523694</v>
       </c>
     </row>
@@ -5822,7 +5848,7 @@
         <v>577.69869402985</v>
       </c>
       <c r="F230">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>609.90940028246246</v>
       </c>
     </row>
@@ -5843,7 +5869,7 @@
         <v>499.24732229795501</v>
       </c>
       <c r="F231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>542.22786232448868</v>
       </c>
     </row>
@@ -5864,7 +5890,7 @@
         <v>308.33475479744101</v>
       </c>
       <c r="F232">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>347.39155699936026</v>
       </c>
     </row>
@@ -5885,7 +5911,7 @@
         <v>625.35983263598303</v>
       </c>
       <c r="F233">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>698.59643920899566</v>
       </c>
     </row>
@@ -5906,7 +5932,7 @@
         <v>764.48264729620598</v>
       </c>
       <c r="F234">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>785.00377852405154</v>
       </c>
     </row>
@@ -5927,7 +5953,7 @@
         <v>748.08003518029898</v>
       </c>
       <c r="F235">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>751.0573674950748</v>
       </c>
     </row>
@@ -5948,7 +5974,7 @@
         <v>745.42664092664097</v>
       </c>
       <c r="F236">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>688.52915095666026</v>
       </c>
     </row>
@@ -5969,7 +5995,7 @@
         <v>608.91019644527501</v>
       </c>
       <c r="F237">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>766.94645636131872</v>
       </c>
     </row>
@@ -5990,7 +6016,7 @@
         <v>538.32110912343398</v>
       </c>
       <c r="F238">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>700.54097940585848</v>
       </c>
     </row>
@@ -6011,7 +6037,7 @@
         <v>839.69883720930204</v>
       </c>
       <c r="F239">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>737.07951497732552</v>
       </c>
     </row>
@@ -6032,7 +6058,7 @@
         <v>378.13807531380701</v>
       </c>
       <c r="F240">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>309.98796962845176</v>
       </c>
     </row>
@@ -6053,7 +6079,7 @@
         <v>742.32575068243796</v>
       </c>
       <c r="F241">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>892.94932789560937</v>
       </c>
     </row>
@@ -6074,7 +6100,7 @@
         <v>739.38641188959605</v>
       </c>
       <c r="F242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>866.51831134739905</v>
       </c>
     </row>
@@ -6095,7 +6121,7 @@
         <v>427.33685136323601</v>
       </c>
       <c r="F243">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>497.04271541580903</v>
       </c>
     </row>
@@ -6116,7 +6142,7 @@
         <v>686.89253996447599</v>
       </c>
       <c r="F244">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>705.48129469111893</v>
       </c>
     </row>
@@ -6137,7 +6163,7 @@
         <v>954.60362173038197</v>
       </c>
       <c r="F245">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>771.2634351575955</v>
       </c>
     </row>
@@ -6158,7 +6184,7 @@
         <v>767.84675834970506</v>
       </c>
       <c r="F246">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>807.8441958624262</v>
       </c>
     </row>
@@ -6179,7 +6205,7 @@
         <v>834.93574297188695</v>
       </c>
       <c r="F247">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>651.3848740179717</v>
       </c>
     </row>
@@ -6200,7 +6226,7 @@
         <v>562.54770755886</v>
       </c>
       <c r="F248">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>512.66672558971504</v>
       </c>
     </row>
@@ -6221,7 +6247,7 @@
         <v>864.45474137931001</v>
       </c>
       <c r="F249">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>917.00321501982739</v>
       </c>
     </row>
@@ -6242,7 +6268,7 @@
         <v>642.07196029776605</v>
       </c>
       <c r="F250">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>444.89631479944148</v>
       </c>
     </row>
@@ -6263,7 +6289,7 @@
         <v>298.978146194423</v>
       </c>
       <c r="F251">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>275.87542799610577</v>
       </c>
     </row>
@@ -6284,7 +6310,7 @@
         <v>403.12596401028202</v>
       </c>
       <c r="F252">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>552.08311510257045</v>
       </c>
     </row>
@@ -6305,7 +6331,7 @@
         <v>500.77603686635899</v>
       </c>
       <c r="F253">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>673.23648811658973</v>
       </c>
     </row>
@@ -6326,7 +6352,7 @@
         <v>790.35352112676003</v>
       </c>
       <c r="F254">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>643.24989918169001</v>
       </c>
     </row>
@@ -6347,7 +6373,7 @@
         <v>193.59922779922701</v>
       </c>
       <c r="F255">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>295.23311838980675</v>
       </c>
     </row>
@@ -6368,7 +6394,7 @@
         <v>278.07602339181199</v>
       </c>
       <c r="F256">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>346.372593847953</v>
       </c>
     </row>
@@ -6389,7 +6415,7 @@
         <v>436.48888888888803</v>
       </c>
       <c r="F257">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>603.25864799722206</v>
       </c>
     </row>
@@ -6410,7 +6436,7 @@
         <v>434.5</v>
       </c>
       <c r="F258">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>508.72803405000002</v>
       </c>
     </row>
@@ -6431,7 +6457,7 @@
         <v>521.51496388028897</v>
       </c>
       <c r="F259">
-        <f t="shared" ref="F259:F322" si="14">AVERAGE(B259:E259)</f>
+        <f t="shared" ref="F259:F322" si="15">AVERAGE(B259:E259)</f>
         <v>585.48378124507224</v>
       </c>
     </row>
@@ -6452,7 +6478,7 @@
         <v>663.906367041198</v>
       </c>
       <c r="F260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>722.30531693529952</v>
       </c>
     </row>
@@ -6473,7 +6499,7 @@
         <v>184.20132743362799</v>
       </c>
       <c r="F261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>312.03278573340702</v>
       </c>
     </row>
@@ -6494,7 +6520,7 @@
         <v>473.10028116213601</v>
       </c>
       <c r="F262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>572.01518281553399</v>
       </c>
     </row>
@@ -6515,7 +6541,7 @@
         <v>913.713747645951</v>
       </c>
       <c r="F263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>773.61361983648771</v>
       </c>
     </row>
@@ -6536,7 +6562,7 @@
         <v>355.569477911646</v>
       </c>
       <c r="F264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>351.32606695291145</v>
       </c>
     </row>
@@ -6557,7 +6583,7 @@
         <v>510.89898989898899</v>
       </c>
       <c r="F265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>626.57174847474721</v>
       </c>
     </row>
@@ -6578,7 +6604,7 @@
         <v>444.65741728922001</v>
       </c>
       <c r="F266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>493.34997537230493</v>
       </c>
     </row>
@@ -6599,7 +6625,7 @@
         <v>744.88842975206603</v>
       </c>
       <c r="F267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>809.86948896301647</v>
       </c>
     </row>
@@ -6620,7 +6646,7 @@
         <v>539.84526854219905</v>
       </c>
       <c r="F268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>590.18202741054984</v>
       </c>
     </row>
@@ -6641,7 +6667,7 @@
         <v>732.90675547097999</v>
       </c>
       <c r="F269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>578.937364042745</v>
       </c>
     </row>
@@ -6662,7 +6688,7 @@
         <v>362.36170212765899</v>
       </c>
       <c r="F270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>514.88149103191472</v>
       </c>
     </row>
@@ -6683,7 +6709,7 @@
         <v>566.01295896328202</v>
       </c>
       <c r="F271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>496.2609213908205</v>
       </c>
     </row>
@@ -6704,7 +6730,7 @@
         <v>528.86798336798302</v>
       </c>
       <c r="F272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>589.58765326699574</v>
       </c>
     </row>
@@ -6725,7 +6751,7 @@
         <v>528.25666337611005</v>
       </c>
       <c r="F273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>590.52213764402745</v>
       </c>
     </row>
@@ -6746,7 +6772,7 @@
         <v>679.71643192488204</v>
       </c>
       <c r="F274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>719.3306718812205</v>
       </c>
     </row>
@@ -6767,7 +6793,7 @@
         <v>569.73523622047196</v>
       </c>
       <c r="F275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>757.16928563011811</v>
       </c>
     </row>
@@ -6788,7 +6814,7 @@
         <v>921.38590604026797</v>
       </c>
       <c r="F276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>778.62537966006698</v>
       </c>
     </row>
@@ -6809,7 +6835,7 @@
         <v>688.00935453695001</v>
       </c>
       <c r="F277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>570.89645323423747</v>
       </c>
     </row>
@@ -6830,7 +6856,7 @@
         <v>297.44480257856497</v>
       </c>
       <c r="F278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>323.99658599464124</v>
       </c>
     </row>
@@ -6851,7 +6877,7 @@
         <v>642.64217252396099</v>
       </c>
       <c r="F279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>699.59609743099031</v>
       </c>
     </row>
@@ -6872,7 +6898,7 @@
         <v>510.01249024199802</v>
       </c>
       <c r="F280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>667.35981786049945</v>
       </c>
     </row>
@@ -6893,7 +6919,7 @@
         <v>759.35359116022096</v>
       </c>
       <c r="F281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>674.7515714150552</v>
       </c>
     </row>
@@ -6914,7 +6940,7 @@
         <v>534.95481335952798</v>
       </c>
       <c r="F282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>519.44712693988197</v>
       </c>
     </row>
@@ -6935,7 +6961,7 @@
         <v>639.44847020933901</v>
       </c>
       <c r="F283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>689.22415652733469</v>
       </c>
     </row>
@@ -6956,7 +6982,7 @@
         <v>438.27809523809498</v>
       </c>
       <c r="F284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>449.58937060952377</v>
       </c>
     </row>
@@ -6977,7 +7003,7 @@
         <v>443.10854947166098</v>
       </c>
       <c r="F285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>465.24380441791527</v>
       </c>
     </row>
@@ -6998,7 +7024,7 @@
         <v>634.49863760217897</v>
       </c>
       <c r="F286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>602.66688630054477</v>
       </c>
     </row>
@@ -7019,7 +7045,7 @@
         <v>579.06637168141594</v>
       </c>
       <c r="F287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>598.03190259535393</v>
       </c>
     </row>
@@ -7040,7 +7066,7 @@
         <v>562.62109704641296</v>
       </c>
       <c r="F288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>716.5995076616033</v>
       </c>
     </row>
@@ -7061,7 +7087,7 @@
         <v>497.14358322744602</v>
       </c>
       <c r="F289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>653.2665520068615</v>
       </c>
     </row>
@@ -7082,7 +7108,7 @@
         <v>299.40740740740699</v>
       </c>
       <c r="F290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>317.74504180185176</v>
       </c>
     </row>
@@ -7103,7 +7129,7 @@
         <v>207.70760642009699</v>
       </c>
       <c r="F291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>248.43116158002425</v>
       </c>
     </row>
@@ -7124,7 +7150,7 @@
         <v>537.67525298988005</v>
       </c>
       <c r="F292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>571.16536339747006</v>
       </c>
     </row>
@@ -7145,7 +7171,7 @@
         <v>918.402791625124</v>
       </c>
       <c r="F293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>896.33392493128099</v>
       </c>
     </row>
@@ -7166,7 +7192,7 @@
         <v>740.71044776119402</v>
       </c>
       <c r="F294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>711.83194414029845</v>
       </c>
     </row>
@@ -7187,7 +7213,7 @@
         <v>382.13935340022198</v>
       </c>
       <c r="F295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>444.15176822505549</v>
       </c>
     </row>
@@ -7208,7 +7234,7 @@
         <v>629.95387293298495</v>
       </c>
       <c r="F296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>618.3995657082462</v>
       </c>
     </row>
@@ -7229,7 +7255,7 @@
         <v>432.08276533592903</v>
       </c>
       <c r="F297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>499.87726975898227</v>
       </c>
     </row>
@@ -7250,7 +7276,7 @@
         <v>632.16224814422003</v>
       </c>
       <c r="F298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>698.72899088605504</v>
       </c>
     </row>
@@ -7271,7 +7297,7 @@
         <v>736.37445319334995</v>
       </c>
       <c r="F299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>726.12904989833748</v>
       </c>
     </row>
@@ -7292,7 +7318,7 @@
         <v>525.79601990049696</v>
       </c>
       <c r="F300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>572.79914825012429</v>
       </c>
     </row>
@@ -7313,7 +7339,7 @@
         <v>325.13043478260801</v>
       </c>
       <c r="F301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>346.222269170652</v>
       </c>
     </row>
@@ -7334,7 +7360,7 @@
         <v>456.12254901960699</v>
       </c>
       <c r="F302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>510.36222500490175</v>
       </c>
     </row>
@@ -7355,7 +7381,7 @@
         <v>337.81845688350899</v>
       </c>
       <c r="F303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>344.73726864587729</v>
       </c>
     </row>
@@ -7376,7 +7402,7 @@
         <v>369.625592417061</v>
       </c>
       <c r="F304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>454.19623715426519</v>
       </c>
     </row>
@@ -7397,7 +7423,7 @@
         <v>315.658064516129</v>
       </c>
       <c r="F305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>495.53667410403227</v>
       </c>
     </row>
@@ -7418,7 +7444,7 @@
         <v>206.027820710973</v>
       </c>
       <c r="F306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>233.84572557774322</v>
       </c>
     </row>
@@ -7439,7 +7465,7 @@
         <v>546.24935511607896</v>
       </c>
       <c r="F307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>508.37396955401977</v>
       </c>
     </row>
@@ -7460,7 +7486,7 @@
         <v>414.07931570762003</v>
       </c>
       <c r="F308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>349.362370876905</v>
       </c>
     </row>
@@ -7481,7 +7507,7 @@
         <v>435.94299999999998</v>
       </c>
       <c r="F309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>544.76176874999999</v>
       </c>
     </row>
@@ -7502,7 +7528,7 @@
         <v>589.05646359583898</v>
       </c>
       <c r="F310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>699.44537257395973</v>
       </c>
     </row>
@@ -7523,7 +7549,7 @@
         <v>414.50670241286798</v>
       </c>
       <c r="F311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>651.42823410321705</v>
       </c>
     </row>
@@ -7544,7 +7570,7 @@
         <v>341.91356673960598</v>
       </c>
       <c r="F312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>390.95517685990154</v>
       </c>
     </row>
@@ -7565,7 +7591,7 @@
         <v>467.32871536523902</v>
       </c>
       <c r="F313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>444.42176041630978</v>
       </c>
     </row>
@@ -7586,7 +7612,7 @@
         <v>92.7596371882086</v>
       </c>
       <c r="F314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>122.48118749455215</v>
       </c>
     </row>
@@ -7607,7 +7633,7 @@
         <v>568.87780548628405</v>
       </c>
       <c r="F315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>633.46371497157099</v>
       </c>
     </row>
@@ -7628,7 +7654,7 @@
         <v>641.689453125</v>
       </c>
       <c r="F316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>746.04939200625006</v>
       </c>
     </row>
@@ -7649,7 +7675,7 @@
         <v>451.75278969956997</v>
       </c>
       <c r="F317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>443.19844739989253</v>
       </c>
     </row>
@@ -7670,7 +7696,7 @@
         <v>303.19845111326202</v>
       </c>
       <c r="F318">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>425.22654190331554</v>
       </c>
     </row>
@@ -7691,7 +7717,7 @@
         <v>514.17316513761398</v>
       </c>
       <c r="F319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>695.44728055940345</v>
       </c>
     </row>
@@ -7712,7 +7738,7 @@
         <v>760.920802534318</v>
       </c>
       <c r="F320">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>868.19568983357954</v>
       </c>
     </row>
@@ -7733,7 +7759,7 @@
         <v>436.32871972318299</v>
       </c>
       <c r="F321">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>412.14876378079578</v>
       </c>
     </row>
@@ -7754,7 +7780,7 @@
         <v>290.94780219780199</v>
       </c>
       <c r="F322">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>360.8226380994505</v>
       </c>
     </row>
@@ -7775,7 +7801,7 @@
         <v>378.98595943837699</v>
       </c>
       <c r="F323">
-        <f t="shared" ref="F323:F386" si="15">AVERAGE(B323:E323)</f>
+        <f t="shared" ref="F323:F386" si="16">AVERAGE(B323:E323)</f>
         <v>487.14756425959428</v>
       </c>
     </row>
@@ -7796,7 +7822,7 @@
         <v>182.79058597502399</v>
       </c>
       <c r="F324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>286.78927116875604</v>
       </c>
     </row>
@@ -7817,7 +7843,7 @@
         <v>349.82259887005603</v>
       </c>
       <c r="F325">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>526.94014786751404</v>
       </c>
     </row>
@@ -7838,7 +7864,7 @@
         <v>226.501726121979</v>
       </c>
       <c r="F326">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>362.30378768049479</v>
       </c>
     </row>
@@ -7859,7 +7885,7 @@
         <v>413.66966292134799</v>
       </c>
       <c r="F327">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>494.73763260533696</v>
       </c>
     </row>
@@ -7880,7 +7906,7 @@
         <v>317.44707091469598</v>
       </c>
       <c r="F328">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>233.90089489367404</v>
       </c>
     </row>
@@ -7901,7 +7927,7 @@
         <v>352.05895439377002</v>
       </c>
       <c r="F329">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>341.20794417344251</v>
       </c>
     </row>
@@ -7922,7 +7948,7 @@
         <v>453.498054474708</v>
       </c>
       <c r="F330">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>468.56378479367697</v>
       </c>
     </row>
@@ -7943,7 +7969,7 @@
         <v>291.65721649484499</v>
       </c>
       <c r="F331">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>264.05460167371126</v>
       </c>
     </row>
@@ -7964,7 +7990,7 @@
         <v>508.37984496124</v>
       </c>
       <c r="F332">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>517.15146219030999</v>
       </c>
     </row>
@@ -7985,7 +8011,7 @@
         <v>457.81906300484599</v>
       </c>
       <c r="F333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>482.21501602621146</v>
       </c>
     </row>
@@ -8006,7 +8032,7 @@
         <v>342.736906211936</v>
       </c>
       <c r="F334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>370.17846487798397</v>
       </c>
     </row>
@@ -8027,7 +8053,7 @@
         <v>348.19503105590002</v>
       </c>
       <c r="F335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>427.18088736397505</v>
       </c>
     </row>
@@ -8048,7 +8074,7 @@
         <v>233.57203389830499</v>
       </c>
       <c r="F336">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>259.14495504957625</v>
       </c>
     </row>
@@ -8069,7 +8095,7 @@
         <v>329.02816901408403</v>
       </c>
       <c r="F337">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>358.97140842852104</v>
       </c>
     </row>
@@ -8090,7 +8116,7 @@
         <v>306.81176470588201</v>
       </c>
       <c r="F338">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>342.81678250147053</v>
       </c>
     </row>
@@ -8111,7 +8137,7 @@
         <v>370.94693877550998</v>
       </c>
       <c r="F339">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>371.88864179387753</v>
       </c>
     </row>
@@ -8132,7 +8158,7 @@
         <v>204.13275299238299</v>
       </c>
       <c r="F340">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>205.38326174809575</v>
       </c>
     </row>
@@ -8153,7 +8179,7 @@
         <v>356.610788381742</v>
       </c>
       <c r="F341">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>307.69602332043553</v>
       </c>
     </row>
@@ -8174,7 +8200,7 @@
         <v>380.94697773064598</v>
       </c>
       <c r="F342">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>469.87033470766153</v>
       </c>
     </row>
@@ -8195,7 +8221,7 @@
         <v>347.09515418502201</v>
       </c>
       <c r="F343">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>406.99782874625549</v>
       </c>
     </row>
@@ -8216,7 +8242,7 @@
         <v>226.30749354005101</v>
       </c>
       <c r="F344">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>393.81326403501271</v>
       </c>
     </row>
@@ -8237,7 +8263,7 @@
         <v>256.680045871559</v>
       </c>
       <c r="F345">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>428.38694691788976</v>
       </c>
     </row>
@@ -8258,7 +8284,7 @@
         <v>344.84935579781899</v>
       </c>
       <c r="F346">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>549.11869709945472</v>
       </c>
     </row>
@@ -8279,7 +8305,7 @@
         <v>57.941261783901297</v>
       </c>
       <c r="F347">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>139.31556769597532</v>
       </c>
     </row>
@@ -8300,7 +8326,7 @@
         <v>399.41942945258199</v>
       </c>
       <c r="F348">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>495.28163383814547</v>
       </c>
     </row>
@@ -8321,7 +8347,7 @@
         <v>387.48732943469702</v>
       </c>
       <c r="F349">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>390.06383385867423</v>
       </c>
     </row>
@@ -8342,7 +8368,7 @@
         <v>371.60238272524202</v>
       </c>
       <c r="F350">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>507.56437135631052</v>
       </c>
     </row>
@@ -8363,7 +8389,7 @@
         <v>179.21615201900201</v>
       </c>
       <c r="F351">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>437.9526309797505</v>
       </c>
     </row>
@@ -8384,7 +8410,7 @@
         <v>367.12630792227202</v>
       </c>
       <c r="F352">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>464.11314983056798</v>
       </c>
     </row>
@@ -8405,7 +8431,7 @@
         <v>394.97391304347798</v>
       </c>
       <c r="F353">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>446.69000751086952</v>
       </c>
     </row>
@@ -8426,7 +8452,7 @@
         <v>371.53310696095002</v>
       </c>
       <c r="F354">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>285.28485741273755</v>
       </c>
     </row>
@@ -8447,7 +8473,7 @@
         <v>158.090984284532</v>
       </c>
       <c r="F355">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>234.80712339613302</v>
       </c>
     </row>
@@ -8468,7 +8494,7 @@
         <v>100.286617492096</v>
       </c>
       <c r="F356">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>256.21855602302401</v>
       </c>
     </row>
@@ -8489,7 +8515,7 @@
         <v>264.99596774193498</v>
       </c>
       <c r="F357">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>356.87633498548371</v>
       </c>
     </row>
@@ -8510,7 +8536,7 @@
         <v>228.540474243663</v>
       </c>
       <c r="F358">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>333.84951153591578</v>
       </c>
     </row>
@@ -8531,7 +8557,7 @@
         <v>265.34301675977599</v>
       </c>
       <c r="F359">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>353.67433886494399</v>
       </c>
     </row>
@@ -8552,7 +8578,7 @@
         <v>324.01890547263599</v>
       </c>
       <c r="F360">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>402.49915534315903</v>
       </c>
     </row>
@@ -8573,7 +8599,7 @@
         <v>215.37272727272699</v>
       </c>
       <c r="F361">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>395.47130754318175</v>
       </c>
     </row>
@@ -8594,7 +8620,7 @@
         <v>117.382585751978</v>
       </c>
       <c r="F362">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>322.18035731299449</v>
       </c>
     </row>
@@ -8615,7 +8641,7 @@
         <v>87.910552763819098</v>
       </c>
       <c r="F363">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>332.6228736159548</v>
       </c>
     </row>
@@ -8636,7 +8662,7 @@
         <v>125.814442413162</v>
       </c>
       <c r="F364">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>392.06216077829049</v>
       </c>
     </row>
@@ -8657,7 +8683,7 @@
         <v>227.26368159203901</v>
       </c>
       <c r="F365">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>429.3376001980098</v>
       </c>
     </row>
@@ -8678,7 +8704,7 @@
         <v>63.588607594936697</v>
       </c>
       <c r="F366">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>314.7355099487342</v>
       </c>
     </row>
@@ -8699,7 +8725,7 @@
         <v>122.77966101694901</v>
       </c>
       <c r="F367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>429.37797655423719</v>
       </c>
     </row>
@@ -8720,7 +8746,7 @@
         <v>276.94078947368399</v>
       </c>
       <c r="F368">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>441.37819361842099</v>
       </c>
     </row>
@@ -8741,7 +8767,7 @@
         <v>240.022944550669</v>
       </c>
       <c r="F369">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>401.23658693766725</v>
       </c>
     </row>
@@ -8762,7 +8788,7 @@
         <v>239.728536385936</v>
       </c>
       <c r="F370">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>311.78197294648402</v>
       </c>
     </row>
@@ -8783,7 +8809,7 @@
         <v>474.876574307304</v>
       </c>
       <c r="F371">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>531.55290147682604</v>
       </c>
     </row>
@@ -8804,7 +8830,7 @@
         <v>404.50246791707798</v>
       </c>
       <c r="F372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>358.95221742926947</v>
       </c>
     </row>
@@ -8825,7 +8851,7 @@
         <v>395.45419847328202</v>
       </c>
       <c r="F373">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>402.49781699082052</v>
       </c>
     </row>
@@ -8846,7 +8872,7 @@
         <v>448.47771236333</v>
       </c>
       <c r="F374">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>430.29871308333253</v>
       </c>
     </row>
@@ -8867,7 +8893,7 @@
         <v>255.89816849816799</v>
       </c>
       <c r="F375">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>306.28646312454202</v>
       </c>
     </row>
@@ -8888,7 +8914,7 @@
         <v>448.97268292682901</v>
       </c>
       <c r="F376">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>631.74268248170722</v>
       </c>
     </row>
@@ -8909,7 +8935,7 @@
         <v>284.50075987841899</v>
       </c>
       <c r="F377">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>311.36158419460475</v>
       </c>
     </row>
@@ -8930,7 +8956,7 @@
         <v>655.15653040877305</v>
       </c>
       <c r="F378">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>680.15104790219323</v>
       </c>
     </row>
@@ -8951,7 +8977,7 @@
         <v>499.01257142857099</v>
       </c>
       <c r="F379">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>444.92686145714271</v>
       </c>
     </row>
@@ -8972,7 +8998,7 @@
         <v>401.02162565249802</v>
       </c>
       <c r="F380">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>491.31689051312452</v>
       </c>
     </row>
@@ -8993,7 +9019,7 @@
         <v>362.8203125</v>
       </c>
       <c r="F381">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>633.37652494999998</v>
       </c>
     </row>
@@ -9014,7 +9040,7 @@
         <v>353.04855072463698</v>
       </c>
       <c r="F382">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>545.13346798115924</v>
       </c>
     </row>
@@ -9035,7 +9061,7 @@
         <v>326.13405495420398</v>
       </c>
       <c r="F383">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>556.857893863551</v>
       </c>
     </row>
@@ -9056,7 +9082,7 @@
         <v>199.97009674582199</v>
       </c>
       <c r="F384">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>322.93864378645549</v>
       </c>
     </row>
@@ -9077,7 +9103,7 @@
         <v>416.10034305317299</v>
       </c>
       <c r="F385">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>466.57752263829326</v>
       </c>
     </row>
@@ -9098,7 +9124,7 @@
         <v>611.36395147313601</v>
       </c>
       <c r="F386">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>597.35937289328399</v>
       </c>
     </row>
@@ -9119,7 +9145,7 @@
         <v>352.61616161616098</v>
       </c>
       <c r="F387">
-        <f t="shared" ref="F387:F450" si="16">AVERAGE(B387:E387)</f>
+        <f t="shared" ref="F387:F450" si="17">AVERAGE(B387:E387)</f>
         <v>524.37288850404025</v>
       </c>
     </row>
@@ -9140,7 +9166,7 @@
         <v>271.88064269319</v>
       </c>
       <c r="F388">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>490.99034739829756</v>
       </c>
     </row>
@@ -9161,7 +9187,7 @@
         <v>658.05607476635498</v>
       </c>
       <c r="F389">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>648.44527431658867</v>
       </c>
     </row>
@@ -9182,7 +9208,7 @@
         <v>412.37124999999997</v>
       </c>
       <c r="F390">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>539.03728684999999</v>
       </c>
     </row>
@@ -9203,7 +9229,7 @@
         <v>463.99505358614999</v>
       </c>
       <c r="F391">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>626.37418592153745</v>
       </c>
     </row>
@@ -9224,7 +9250,7 @@
         <v>372.15840118430702</v>
       </c>
       <c r="F392">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>440.58149729607675</v>
       </c>
     </row>
@@ -9245,7 +9271,7 @@
         <v>357.74345146379</v>
       </c>
       <c r="F393">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>423.25653051594747</v>
       </c>
     </row>
@@ -9266,7 +9292,7 @@
         <v>369.475687103594</v>
       </c>
       <c r="F394">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>582.11829337589847</v>
       </c>
     </row>
@@ -9287,7 +9313,7 @@
         <v>439.91716997411498</v>
       </c>
       <c r="F395">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>607.31237906852868</v>
       </c>
     </row>
@@ -9308,7 +9334,7 @@
         <v>404.51612903225799</v>
       </c>
       <c r="F396">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>517.90533215806454</v>
       </c>
     </row>
@@ -9329,7 +9355,7 @@
         <v>482.19496855345898</v>
       </c>
       <c r="F397">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>579.83333896336478</v>
       </c>
     </row>
@@ -9350,7 +9376,7 @@
         <v>550.74344262295006</v>
       </c>
       <c r="F398">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>564.75673005573753</v>
       </c>
     </row>
@@ -9371,7 +9397,7 @@
         <v>407.62908680946998</v>
       </c>
       <c r="F399">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>455.91815320236748</v>
       </c>
     </row>
@@ -9392,7 +9418,7 @@
         <v>404.627980922098</v>
       </c>
       <c r="F400">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>503.2890792805245</v>
       </c>
     </row>
@@ -9413,7 +9439,7 @@
         <v>300.98601398601397</v>
       </c>
       <c r="F401">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>591.46395704650342</v>
       </c>
     </row>
@@ -9434,7 +9460,7 @@
         <v>279.54173764906301</v>
       </c>
       <c r="F402">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>370.40465993726576</v>
       </c>
     </row>
@@ -9452,7 +9478,7 @@
         <v>320.21094527363101</v>
       </c>
       <c r="F403">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>375.96401329121039</v>
       </c>
     </row>
@@ -9470,7 +9496,7 @@
         <v>608.84712837837799</v>
       </c>
       <c r="F404">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>535.68174559279271</v>
       </c>
     </row>
@@ -9488,7 +9514,7 @@
         <v>304.21410992616899</v>
       </c>
       <c r="F405">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>206.570547408723</v>
       </c>
     </row>
@@ -9506,7 +9532,7 @@
         <v>329.79089219330803</v>
       </c>
       <c r="F406">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>278.46869789776935</v>
       </c>
     </row>
@@ -9524,7 +9550,7 @@
         <v>497.14346349745301</v>
       </c>
       <c r="F407">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>362.26419136581768</v>
       </c>
     </row>
@@ -9542,7 +9568,7 @@
         <v>437.41017227235398</v>
       </c>
       <c r="F408">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>307.94769866745133</v>
       </c>
     </row>
@@ -9560,7 +9586,7 @@
         <v>317.44790812141099</v>
       </c>
       <c r="F409">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>340.78450870713704</v>
       </c>
     </row>
@@ -9578,7 +9604,7 @@
         <v>335.96692111959197</v>
       </c>
       <c r="F410">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>438.43716947319734</v>
       </c>
     </row>
@@ -9596,7 +9622,7 @@
         <v>367.35052377115198</v>
       </c>
       <c r="F411">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>372.53257215705071</v>
       </c>
     </row>
@@ -9614,7 +9640,7 @@
         <v>448.025910931174</v>
       </c>
       <c r="F412">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>435.71658421039132</v>
       </c>
     </row>
@@ -9632,7 +9658,7 @@
         <v>294.40180772391102</v>
       </c>
       <c r="F413">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>345.26681294130367</v>
       </c>
     </row>
@@ -9650,7 +9676,7 @@
         <v>256.00236406619302</v>
       </c>
       <c r="F414">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>239.27871472206434</v>
       </c>
     </row>
@@ -9668,7 +9694,7 @@
         <v>353.98574483250098</v>
       </c>
       <c r="F415">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>373.66355634416703</v>
       </c>
     </row>
@@ -9686,7 +9712,7 @@
         <v>403.96795952782401</v>
       </c>
       <c r="F416">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>502.36281457594129</v>
       </c>
     </row>
@@ -9704,7 +9730,7 @@
         <v>558.85108481262296</v>
       </c>
       <c r="F417">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>412.73224137087436</v>
       </c>
     </row>
@@ -9722,7 +9748,7 @@
         <v>494.66848816029102</v>
       </c>
       <c r="F418">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>437.65338888676365</v>
       </c>
     </row>
@@ -9740,7 +9766,7 @@
         <v>382.266497461928</v>
       </c>
       <c r="F419">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>270.73775275730935</v>
       </c>
     </row>
@@ -9758,7 +9784,7 @@
         <v>387.489825581395</v>
       </c>
       <c r="F420">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>409.21586886046498</v>
       </c>
     </row>
@@ -9776,7 +9802,7 @@
         <v>502.08136696501202</v>
       </c>
       <c r="F421">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>667.16764422167068</v>
       </c>
     </row>
@@ -9794,7 +9820,7 @@
         <v>438.28750923872798</v>
       </c>
       <c r="F422">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>455.42884177957603</v>
       </c>
     </row>
@@ -9812,7 +9838,7 @@
         <v>425.02349624060099</v>
       </c>
       <c r="F423">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>468.35756301353371</v>
       </c>
     </row>
@@ -9830,7 +9856,7 @@
         <v>358.38184663536703</v>
       </c>
       <c r="F424">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>365.2531202784557</v>
       </c>
     </row>
@@ -9848,7 +9874,7 @@
         <v>483.05905826017499</v>
       </c>
       <c r="F425">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>397.94108358672497</v>
       </c>
     </row>
@@ -9866,7 +9892,7 @@
         <v>325.66726618705002</v>
       </c>
       <c r="F426">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>338.99596596235</v>
       </c>
     </row>
@@ -9884,7 +9910,7 @@
         <v>394.94934333958702</v>
       </c>
       <c r="F427">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>353.90934417986227</v>
       </c>
     </row>
@@ -9902,7 +9928,7 @@
         <v>457.56525157232699</v>
       </c>
       <c r="F428">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>587.81419449077578</v>
       </c>
     </row>
@@ -9920,7 +9946,7 @@
         <v>407.251902587519</v>
       </c>
       <c r="F429">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>469.28654239583966</v>
       </c>
     </row>
@@ -9938,7 +9964,7 @@
         <v>641.775735294117</v>
       </c>
       <c r="F430">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>691.14895513137242</v>
       </c>
     </row>
@@ -9956,7 +9982,7 @@
         <v>422.96784830997501</v>
       </c>
       <c r="F431">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>461.93522393665836</v>
       </c>
     </row>
@@ -9974,7 +10000,7 @@
         <v>497.61047835990797</v>
       </c>
       <c r="F432">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>556.18462111996939</v>
       </c>
     </row>
@@ -9992,7 +10018,7 @@
         <v>643.07954545454504</v>
       </c>
       <c r="F433">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>582.03863661818161</v>
       </c>
     </row>
@@ -10010,7 +10036,7 @@
         <v>523.43760683760604</v>
       </c>
       <c r="F434">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>467.16233967920198</v>
       </c>
     </row>
@@ -10028,7 +10054,7 @@
         <v>659.4144</v>
       </c>
       <c r="F435">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>467.10560506666661</v>
       </c>
     </row>
@@ -10046,7 +10072,7 @@
         <v>437.751873438801</v>
       </c>
       <c r="F436">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>394.28087344626692</v>
       </c>
     </row>
@@ -10064,7 +10090,7 @@
         <v>435.11807817589499</v>
       </c>
       <c r="F437">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>611.11953722529825</v>
       </c>
     </row>
@@ -10082,7 +10108,7 @@
         <v>539.16958654519897</v>
       </c>
       <c r="F438">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>539.11587241506629</v>
       </c>
     </row>
@@ -10100,7 +10126,7 @@
         <v>518.32657342657296</v>
       </c>
       <c r="F439">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>466.99383514219102</v>
       </c>
     </row>
@@ -10118,7 +10144,7 @@
         <v>541.37158852344203</v>
       </c>
       <c r="F440">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>527.68924780781401</v>
       </c>
     </row>
@@ -10136,7 +10162,7 @@
         <v>321.82709950599798</v>
       </c>
       <c r="F441">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>425.18929966866602</v>
       </c>
     </row>
@@ -10154,7 +10180,7 @@
         <v>560.84100418410003</v>
       </c>
       <c r="F442">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>583.17639246136662</v>
       </c>
     </row>
@@ -10172,7 +10198,7 @@
         <v>485.50518518518498</v>
       </c>
       <c r="F443">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>505.7731156617283</v>
       </c>
     </row>
@@ -10190,7 +10216,7 @@
         <v>475.06332637439101</v>
       </c>
       <c r="F444">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>477.68876879146364</v>
       </c>
     </row>
@@ -10208,7 +10234,7 @@
         <v>512.69668587896194</v>
       </c>
       <c r="F445">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>529.11766255965404</v>
       </c>
     </row>
@@ -10226,7 +10252,7 @@
         <v>356.66178521617798</v>
       </c>
       <c r="F446">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>358.23316687205937</v>
       </c>
     </row>
@@ -10244,7 +10270,7 @@
         <v>580.331245650661</v>
       </c>
       <c r="F447">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>571.87175441688703</v>
       </c>
     </row>
@@ -10262,7 +10288,7 @@
         <v>410.57949790794902</v>
       </c>
       <c r="F448">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>368.91177263598297</v>
       </c>
     </row>
@@ -10280,7 +10306,7 @@
         <v>407.72007366482501</v>
       </c>
       <c r="F449">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>435.92087508827507</v>
       </c>
     </row>
@@ -10298,7 +10324,7 @@
         <v>510.18365871294202</v>
       </c>
       <c r="F450">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>506.11383213764731</v>
       </c>
     </row>
@@ -10319,7 +10345,7 @@
         <v>492.50174703004802</v>
       </c>
       <c r="F451">
-        <f t="shared" ref="F451:F512" si="17">AVERAGE(B451:E451)</f>
+        <f t="shared" ref="F451:F512" si="18">AVERAGE(B451:E451)</f>
         <v>492.38228168251203</v>
       </c>
     </row>
@@ -10340,7 +10366,7 @@
         <v>489.537900874635</v>
       </c>
       <c r="F452">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>478.83445708115875</v>
       </c>
     </row>
@@ -10361,7 +10387,7 @@
         <v>370.407299270073</v>
       </c>
       <c r="F453">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>451.82790966751827</v>
       </c>
     </row>
@@ -10382,7 +10408,7 @@
         <v>261.37183098591498</v>
       </c>
       <c r="F454">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>311.47095367147875</v>
       </c>
     </row>
@@ -10403,7 +10429,7 @@
         <v>405.87020237264397</v>
       </c>
       <c r="F455">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>620.72907411816095</v>
       </c>
     </row>
@@ -10424,7 +10450,7 @@
         <v>339.38580463808802</v>
       </c>
       <c r="F456">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>420.43397343452199</v>
       </c>
     </row>
@@ -10445,7 +10471,7 @@
         <v>515.75806451612902</v>
       </c>
       <c r="F457">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>555.32759577903221</v>
       </c>
     </row>
@@ -10466,7 +10492,7 @@
         <v>530.45670391061401</v>
       </c>
       <c r="F458">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>660.99280220265348</v>
       </c>
     </row>
@@ -10487,7 +10513,7 @@
         <v>484.78688524590098</v>
       </c>
       <c r="F459">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>619.73405768647524</v>
       </c>
     </row>
@@ -10508,7 +10534,7 @@
         <v>471.403496503496</v>
       </c>
       <c r="F460">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>660.48148807587404</v>
       </c>
     </row>
@@ -10529,7 +10555,7 @@
         <v>387.050036258158</v>
       </c>
       <c r="F461">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>514.45984256453949</v>
       </c>
     </row>
@@ -10550,7 +10576,7 @@
         <v>566.68736915561703</v>
       </c>
       <c r="F462">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>605.28052068890429</v>
       </c>
     </row>
@@ -10571,7 +10597,7 @@
         <v>526.13974151857803</v>
       </c>
       <c r="F463">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>652.20847610464455</v>
       </c>
     </row>
@@ -10592,7 +10618,7 @@
         <v>496.73733047822901</v>
       </c>
       <c r="F464">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>659.0617444695572</v>
       </c>
     </row>
@@ -10613,7 +10639,7 @@
         <v>371.40836236933802</v>
       </c>
       <c r="F465">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>481.70912139233451</v>
       </c>
     </row>
@@ -10634,7 +10660,7 @@
         <v>380.298528381219</v>
       </c>
       <c r="F466">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>576.02915387030475</v>
       </c>
     </row>
@@ -10655,7 +10681,7 @@
         <v>706.69156293222602</v>
       </c>
       <c r="F467">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>803.03384808305645</v>
       </c>
     </row>
@@ -10676,7 +10702,7 @@
         <v>681.49231843575399</v>
       </c>
       <c r="F468">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>815.06851290893849</v>
       </c>
     </row>
@@ -10697,7 +10723,7 @@
         <v>742.020905923344</v>
       </c>
       <c r="F469">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>706.45383380583598</v>
       </c>
     </row>
@@ -10718,7 +10744,7 @@
         <v>413.552613240418</v>
       </c>
       <c r="F470">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>488.9895913101044</v>
       </c>
     </row>
@@ -10739,7 +10765,7 @@
         <v>417.88198324022301</v>
       </c>
       <c r="F471">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>497.49199881005569</v>
       </c>
     </row>
@@ -10760,7 +10786,7 @@
         <v>599.82984658298403</v>
       </c>
       <c r="F472">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>698.30850597074595</v>
       </c>
     </row>
@@ -10781,7 +10807,7 @@
         <v>531.50585651537301</v>
       </c>
       <c r="F473">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>569.30750767884319</v>
       </c>
     </row>
@@ -10802,7 +10828,7 @@
         <v>302.16690042075697</v>
       </c>
       <c r="F474">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>349.6604012051892</v>
       </c>
     </row>
@@ -10823,7 +10849,7 @@
         <v>537.88107324147904</v>
       </c>
       <c r="F475">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>440.77841567286976</v>
       </c>
     </row>
@@ -10844,7 +10870,7 @@
         <v>392.11039886039799</v>
       </c>
       <c r="F476">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>514.67229681509946</v>
       </c>
     </row>
@@ -10865,7 +10891,7 @@
         <v>414.59776536312802</v>
       </c>
       <c r="F477">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>556.616982790782</v>
       </c>
     </row>
@@ -10886,7 +10912,7 @@
         <v>556.77263007840304</v>
       </c>
       <c r="F478">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>681.03760339460075</v>
       </c>
     </row>
@@ -10907,7 +10933,7 @@
         <v>388.33985507246302</v>
       </c>
       <c r="F479">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>395.46994394311577</v>
       </c>
     </row>
@@ -10928,7 +10954,7 @@
         <v>336.75779036827203</v>
       </c>
       <c r="F480">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>355.689563092068</v>
       </c>
     </row>
@@ -10949,7 +10975,7 @@
         <v>596.07262164124904</v>
       </c>
       <c r="F481">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>623.84685568531222</v>
       </c>
     </row>
@@ -10970,7 +10996,7 @@
         <v>294.80629370629299</v>
       </c>
       <c r="F482">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>326.97190917657326</v>
       </c>
     </row>
@@ -10991,7 +11017,7 @@
         <v>527.66387726638698</v>
       </c>
       <c r="F483">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>758.1793965415967</v>
       </c>
     </row>
@@ -11012,7 +11038,7 @@
         <v>391.981158408932</v>
       </c>
       <c r="F484">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>649.84060410223299</v>
       </c>
     </row>
@@ -11033,7 +11059,7 @@
         <v>765.86689895470295</v>
       </c>
       <c r="F485">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>870.70817116367562</v>
       </c>
     </row>
@@ -11054,7 +11080,7 @@
         <v>490.20139372822302</v>
       </c>
       <c r="F486">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>525.13422118205574</v>
       </c>
     </row>
@@ -11075,7 +11101,7 @@
         <v>568.78690807799398</v>
       </c>
       <c r="F487">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>468.87948331949849</v>
       </c>
     </row>
@@ -11096,7 +11122,7 @@
         <v>493.58048780487798</v>
       </c>
       <c r="F488">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>411.20916617621947</v>
       </c>
     </row>
@@ -11117,7 +11143,7 @@
         <v>493.24825662482499</v>
       </c>
       <c r="F489">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>541.93524430620619</v>
       </c>
     </row>
@@ -11138,7 +11164,7 @@
         <v>366.50417246175198</v>
       </c>
       <c r="F490">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>454.66110129043795</v>
       </c>
     </row>
@@ -11159,7 +11185,7 @@
         <v>237.41742160278699</v>
       </c>
       <c r="F491">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>277.95470637569673</v>
       </c>
     </row>
@@ -11180,7 +11206,7 @@
         <v>538.74184191442998</v>
       </c>
       <c r="F492">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>594.87623510360754</v>
       </c>
     </row>
@@ -11201,7 +11227,7 @@
         <v>555.61630695443603</v>
       </c>
       <c r="F493">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>584.67222706360906</v>
       </c>
     </row>
@@ -11222,7 +11248,7 @@
         <v>466.927627000695</v>
       </c>
       <c r="F494">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>537.60964042517378</v>
       </c>
     </row>
@@ -11243,7 +11269,7 @@
         <v>574.93667362560802</v>
       </c>
       <c r="F495">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>709.13322185640197</v>
       </c>
     </row>
@@ -11264,7 +11290,7 @@
         <v>527.45543175487398</v>
       </c>
       <c r="F496">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>680.97451271371858</v>
       </c>
     </row>
@@ -11285,7 +11311,7 @@
         <v>410.28857890148203</v>
       </c>
       <c r="F497">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>427.87524105037051</v>
       </c>
     </row>
@@ -11306,7 +11332,7 @@
         <v>434.44072524407198</v>
       </c>
       <c r="F498">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>435.100450386018</v>
       </c>
     </row>
@@ -11327,7 +11353,7 @@
         <v>372.27031019202298</v>
       </c>
       <c r="F499">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>405.15475347300571</v>
       </c>
     </row>
@@ -11348,7 +11374,7 @@
         <v>445.61984626135501</v>
       </c>
       <c r="F500">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>514.87427776533877</v>
       </c>
     </row>
@@ -11369,7 +11395,7 @@
         <v>358.88850174215997</v>
       </c>
       <c r="F501">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>393.13998506053997</v>
       </c>
     </row>
@@ -11390,7 +11416,7 @@
         <v>320.50835654596102</v>
       </c>
       <c r="F502">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>399.14256306149025</v>
       </c>
     </row>
@@ -11411,7 +11437,7 @@
         <v>454.169057377049</v>
       </c>
       <c r="F503">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>520.95027424426223</v>
       </c>
     </row>
@@ -11432,7 +11458,7 @@
         <v>345.11986062717699</v>
       </c>
       <c r="F504">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>412.34580443179425</v>
       </c>
     </row>
@@ -11453,7 +11479,7 @@
         <v>541.23006993006902</v>
       </c>
       <c r="F505">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>616.2872151325173</v>
       </c>
     </row>
@@ -11474,7 +11500,7 @@
         <v>400.82869080779898</v>
       </c>
       <c r="F506">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>479.23092735194979</v>
       </c>
     </row>
@@ -11495,7 +11521,7 @@
         <v>516.18883174136602</v>
       </c>
       <c r="F507">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>585.81939001034152</v>
       </c>
     </row>
@@ -11516,7 +11542,7 @@
         <v>487.62256267409401</v>
       </c>
       <c r="F508">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>512.79146134352345</v>
       </c>
     </row>
@@ -11537,7 +11563,7 @@
         <v>481.68662952646201</v>
       </c>
       <c r="F509">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>486.95532588161547</v>
       </c>
     </row>
@@ -11558,7 +11584,7 @@
         <v>380.87726638772602</v>
       </c>
       <c r="F510">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>437.71427652193148</v>
       </c>
     </row>
@@ -11579,7 +11605,7 @@
         <v>558.08692628650897</v>
       </c>
       <c r="F511">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>559.30646624662722</v>
       </c>
     </row>
@@ -11600,7 +11626,7 @@
         <v>746.19972164231001</v>
       </c>
       <c r="F512">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>594.60296625057754</v>
       </c>
     </row>
@@ -11609,7 +11635,7 @@
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="T19:AD19"/>
-    <mergeCell ref="U60:Y60"/>
+    <mergeCell ref="U61:Y61"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Negative_ions/wsl.xlsx
+++ b/Negative_ions/wsl.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Negative_ions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950A24AA-259E-47FB-8C28-4286F9CB7D16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B6020-22C6-4714-BF6B-CE2FAA911D51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wsl" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wsl!$B$1:$E$512</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -50,10 +53,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>月离子数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>7月前平均值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -78,10 +77,6 @@
   </si>
   <si>
     <t>average</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>W4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -127,18 +122,6 @@
   <si>
     <t>效果差</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>BRBG</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>thin</t>
   </si>
   <si>
     <t>T-test</t>
@@ -775,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,12 +766,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -809,18 +786,12 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -831,6 +802,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1188,21 +1177,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE512"/>
+  <dimension ref="A1:AA512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O45" workbookViewId="0">
-      <selection activeCell="AB63" sqref="AB63"/>
+    <sheetView tabSelected="1" topLeftCell="K40" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32:AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="11.9140625" customWidth="1"/>
-    <col min="21" max="21" width="9.5" customWidth="1"/>
+    <col min="16" max="16" width="11.9140625" customWidth="1"/>
+    <col min="17" max="17" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1234,33 +1223,21 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="17" t="s">
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43586</v>
       </c>
@@ -1281,36 +1258,24 @@
         <f>AVERAGE(I2:L2)</f>
         <v>216.910409684358</v>
       </c>
-      <c r="O2" s="16">
-        <v>43678</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="7" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43587</v>
       </c>
@@ -1331,43 +1296,31 @@
         <f t="shared" ref="M3:M18" si="1">AVERAGE(I3:L3)</f>
         <v>261.60145161290302</v>
       </c>
-      <c r="O3" s="16">
-        <v>43709</v>
-      </c>
-      <c r="P3">
-        <v>553.25999999995997</v>
-      </c>
-      <c r="Q3">
-        <v>200.289999999999</v>
-      </c>
-      <c r="R3">
-        <v>1898.8999999999501</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="8">
+      <c r="P3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="6">
         <f>AVERAGE(B2:B428)</f>
         <v>553.26510328448762</v>
       </c>
-      <c r="V3" s="8">
+      <c r="R3" s="6">
         <f>AVERAGE(C2:C428)</f>
         <v>676.82452855072472</v>
       </c>
-      <c r="W3" s="8">
+      <c r="S3" s="6">
         <f>AVERAGE(D2:D428)</f>
         <v>297.35428254034542</v>
       </c>
-      <c r="X3" s="8">
+      <c r="T3" s="6">
         <f>AVERAGE(E2:E428)</f>
         <v>445.51036499535888</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="U3" s="6">
         <f>AVERAGE(F2:F428)</f>
         <v>449.48302933294394</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43588</v>
       </c>
@@ -1388,43 +1341,31 @@
         <f t="shared" si="1"/>
         <v>223.23093390420101</v>
       </c>
-      <c r="O4" s="16">
-        <v>43739</v>
-      </c>
-      <c r="P4">
-        <v>1826.7799999998799</v>
-      </c>
-      <c r="Q4">
-        <v>1159.95999999995</v>
-      </c>
-      <c r="R4">
-        <v>3569.7800000000502</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="8">
+      <c r="P4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="6">
         <f>AVERAGE(B429:B512)</f>
         <v>691.03046949166651</v>
       </c>
-      <c r="V4" s="8">
+      <c r="R4" s="6">
         <f>AVERAGE(C429:C512)</f>
         <v>730.26290524354829</v>
       </c>
-      <c r="W4" s="8">
+      <c r="S4" s="6">
         <f>AVERAGE(D429:D512)</f>
         <v>276.7508984364286</v>
       </c>
-      <c r="X4" s="8">
+      <c r="T4" s="6">
         <f>AVERAGE(E429:E512)</f>
         <v>477.90382012421861</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="U4" s="6">
         <f>AVERAGE(F429:F512)</f>
         <v>528.89855313027567</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43589</v>
       </c>
@@ -1448,43 +1389,31 @@
         <f>AVERAGE(I5:L5)</f>
         <v>362.66923393262721</v>
       </c>
-      <c r="O5" s="16">
-        <v>43770</v>
-      </c>
-      <c r="P5">
-        <v>2466.5699999999201</v>
-      </c>
-      <c r="Q5">
-        <v>1860.97999999988</v>
-      </c>
-      <c r="R5">
-        <v>3719.1599999999899</v>
-      </c>
-      <c r="T5" s="6" t="s">
+      <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="9">
-        <f>(U4-U3)/U3</f>
+      <c r="Q5" s="7">
+        <f>(Q4-Q3)/Q3</f>
         <v>0.24900425743342114</v>
       </c>
-      <c r="V5" s="9">
-        <f t="shared" ref="V5:Y5" si="2">(V4-V3)/V3</f>
+      <c r="R5" s="7">
+        <f t="shared" ref="R5:U5" si="2">(R4-R3)/R3</f>
         <v>7.8954550904427837E-2</v>
       </c>
-      <c r="W5" s="9">
+      <c r="S5" s="7">
         <f t="shared" si="2"/>
         <v>-6.9289010832125242E-2</v>
       </c>
-      <c r="X5" s="9">
-        <f>(X4-X3)/X3</f>
+      <c r="T5" s="7">
+        <f>(T4-T3)/T3</f>
         <v>7.2710889968176581E-2</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="U5" s="7">
         <f t="shared" si="2"/>
         <v>0.17668191814758497</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43590</v>
       </c>
@@ -1505,43 +1434,31 @@
         <f t="shared" si="1"/>
         <v>534.20735420036101</v>
       </c>
-      <c r="O6" s="16">
-        <v>43800</v>
-      </c>
-      <c r="P6">
-        <v>2711.5400000002801</v>
-      </c>
-      <c r="Q6">
-        <v>2355.0100000000102</v>
-      </c>
-      <c r="R6">
-        <v>3765.4699999999498</v>
-      </c>
-      <c r="T6" s="10" t="s">
+      <c r="P6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="10">
+      <c r="Q6" s="8">
         <f>_xlfn.T.TEST(B2:B428,B429:B512,1,2)</f>
         <v>6.6644678620220442E-7</v>
       </c>
-      <c r="V6" s="10">
+      <c r="R6" s="8">
         <f>_xlfn.T.TEST(C2:C428,C429:C512,1,2)</f>
         <v>2.0756252748012793E-2</v>
       </c>
-      <c r="W6" s="10">
+      <c r="S6" s="8">
         <f>_xlfn.T.TEST(D2:D428,D429:D512,1,2)</f>
         <v>9.9993757139112321E-2</v>
       </c>
-      <c r="X6" s="10">
+      <c r="T6" s="8">
         <f>_xlfn.T.TEST(E2:E428,E429:E512,1,2)</f>
         <v>6.7779755572779612E-2</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="U6" s="8">
         <f>_xlfn.T.TEST(F2:F428,F429:F512,1,2)</f>
         <v>1.4452189930212126E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43591</v>
       </c>
@@ -1565,20 +1482,8 @@
         <f t="shared" si="1"/>
         <v>495.36820599820896</v>
       </c>
-      <c r="O7" s="16">
-        <v>43831</v>
-      </c>
-      <c r="P7">
-        <v>2662.8700000001099</v>
-      </c>
-      <c r="Q7">
-        <v>2046.0899999998601</v>
-      </c>
-      <c r="R7">
-        <v>3882.06000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43592</v>
       </c>
@@ -1602,20 +1507,16 @@
         <f t="shared" si="1"/>
         <v>473.17285301737701</v>
       </c>
-      <c r="O8" s="16">
-        <v>43862</v>
-      </c>
-      <c r="P8">
-        <v>1715.3599999998701</v>
-      </c>
-      <c r="Q8">
-        <v>821.56999999994298</v>
-      </c>
-      <c r="R8">
-        <v>3888.73000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43593</v>
       </c>
@@ -1645,20 +1546,16 @@
         <f t="shared" si="1"/>
         <v>694.02212741768324</v>
       </c>
-      <c r="O9" s="16">
-        <v>43891</v>
-      </c>
-      <c r="P9">
-        <v>1916.1099999999699</v>
-      </c>
-      <c r="Q9">
-        <v>221.02</v>
-      </c>
-      <c r="R9">
-        <v>4165.9700000000703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43594</v>
       </c>
@@ -1688,28 +1585,16 @@
         <f t="shared" si="1"/>
         <v>570.61773086994049</v>
       </c>
-      <c r="O10" s="16">
-        <v>43922</v>
-      </c>
-      <c r="P10">
-        <v>2921.2600000001698</v>
-      </c>
-      <c r="Q10">
-        <v>454.98999999997102</v>
-      </c>
-      <c r="R10">
-        <v>3590.5300000001298</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
       <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43595</v>
       </c>
@@ -1739,36 +1624,16 @@
         <f t="shared" si="1"/>
         <v>544.81954456850451</v>
       </c>
-      <c r="O11" s="16">
-        <v>43952</v>
-      </c>
-      <c r="P11">
-        <v>2257.1999999999998</v>
-      </c>
-      <c r="Q11">
-        <v>459.33999999995302</v>
-      </c>
-      <c r="R11">
-        <v>4561.8700000000099</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O11" s="16"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43596</v>
       </c>
@@ -1798,43 +1663,16 @@
         <f t="shared" si="1"/>
         <v>459.59898284776722</v>
       </c>
-      <c r="O12" s="16">
-        <v>43983</v>
-      </c>
-      <c r="P12">
-        <v>1421.93999999989</v>
-      </c>
-      <c r="Q12">
-        <v>142.19000000000301</v>
-      </c>
-      <c r="R12">
-        <v>4124.04000000012</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" s="11">
-        <f>AVERAGE(I2:I15)</f>
-        <v>562.20427478085196</v>
-      </c>
-      <c r="V12" s="11">
-        <f>AVERAGE(J2:J15)</f>
-        <v>668.97570745572216</v>
-      </c>
-      <c r="W12" s="11">
-        <f>AVERAGE(K2:K15)</f>
-        <v>301.09842420606094</v>
-      </c>
-      <c r="X12" s="11">
-        <f t="shared" ref="X12" si="3">AVERAGE(M2:M15)</f>
-        <v>441.34719139602367</v>
-      </c>
-      <c r="Y12" s="11">
-        <f>AVERAGE(M2:M15)</f>
-        <v>441.34719139602367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O12" s="16"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="16"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43597</v>
       </c>
@@ -1864,43 +1702,16 @@
         <f t="shared" si="1"/>
         <v>374.82412654653729</v>
       </c>
-      <c r="O13" s="16">
-        <v>44013</v>
-      </c>
-      <c r="P13">
-        <v>1058.7999999999299</v>
-      </c>
-      <c r="Q13">
-        <v>132.34000000000299</v>
-      </c>
-      <c r="R13">
-        <v>4426.0300000001898</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="11">
-        <f>AVERAGE(I16:I18)</f>
-        <v>679.73442842422367</v>
-      </c>
-      <c r="V13" s="11">
-        <f>AVERAGE(J16:J18)</f>
-        <v>720.30337352482729</v>
-      </c>
-      <c r="W13" s="11">
-        <f>AVERAGE(K16:K18)</f>
-        <v>273.30678723811963</v>
-      </c>
-      <c r="X13" s="11">
-        <f t="shared" ref="X13" si="4">AVERAGE(M16:M18)</f>
-        <v>538.63398941402227</v>
-      </c>
-      <c r="Y13" s="11">
-        <f>AVERAGE(M16:M18)</f>
-        <v>538.63398941402227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O13" s="16"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43598</v>
       </c>
@@ -1930,43 +1741,16 @@
         <f t="shared" si="1"/>
         <v>496.66815152938949</v>
       </c>
-      <c r="O14" s="16">
-        <v>44044</v>
-      </c>
-      <c r="P14">
-        <v>989.21999999995796</v>
-      </c>
-      <c r="Q14">
-        <v>126.600000000002</v>
-      </c>
-      <c r="R14">
-        <v>4091.6500000001402</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U14" s="3">
-        <f>(U13-U12)/U12</f>
-        <v>0.20905240126319766</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" ref="V14:X14" si="5">(V13-V12)/V12</f>
-        <v>7.6725754757697814E-2</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="5"/>
-        <v>-9.2300838309674171E-2</v>
-      </c>
-      <c r="X14" s="3">
-        <f t="shared" si="5"/>
-        <v>0.22043144244392057</v>
-      </c>
-      <c r="Y14" s="3">
-        <f>(Y13-Y12)/Y12</f>
-        <v>0.22043144244392057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O14" s="16"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43599</v>
       </c>
@@ -1996,43 +1780,16 @@
         <f t="shared" si="1"/>
         <v>471.14957341447399</v>
       </c>
-      <c r="O15" s="16">
-        <v>44075</v>
-      </c>
-      <c r="P15">
-        <v>1278.3799999999501</v>
-      </c>
-      <c r="Q15">
-        <v>306.8</v>
-      </c>
-      <c r="R15">
-        <v>4498.8500000001204</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="U15" s="4">
-        <f>_xlfn.T.TEST(I2:I15,I16:I18,1,2)</f>
-        <v>7.9346494021044656E-2</v>
-      </c>
-      <c r="V15" s="4">
-        <f>_xlfn.T.TEST(J2:J15,J16:J18,1,2)</f>
-        <v>0.2404093569607858</v>
-      </c>
-      <c r="W15" s="4">
-        <f>_xlfn.T.TEST(K2:K15,K16:K18,1,2)</f>
-        <v>0.24506919680489092</v>
-      </c>
-      <c r="X15" s="4">
-        <f t="shared" ref="X15" si="6">_xlfn.T.TEST(M2:M15,M16:M18,1,2)</f>
-        <v>0.12761446304394178</v>
-      </c>
-      <c r="Y15" s="4">
-        <f>_xlfn.T.TEST(M2:M15,M16:M18,1,2)</f>
-        <v>0.12761446304394178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O15" s="16"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43600</v>
       </c>
@@ -2062,23 +1819,16 @@
         <f t="shared" si="1"/>
         <v>541.95454708249622</v>
       </c>
-      <c r="O16" s="16">
-        <v>44105</v>
-      </c>
-      <c r="P16">
-        <v>2606.1099999999901</v>
-      </c>
-      <c r="Q16">
-        <v>1369.5699999999299</v>
-      </c>
-      <c r="R16">
-        <v>4389.75000000007</v>
-      </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O16" s="16"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43601</v>
       </c>
@@ -2108,23 +1858,11 @@
         <f t="shared" si="1"/>
         <v>565.71463721840053</v>
       </c>
-      <c r="O17" s="16">
-        <v>44136</v>
-      </c>
-      <c r="P17">
-        <v>3047.1100000002498</v>
-      </c>
-      <c r="Q17">
-        <v>1950.14999999987</v>
-      </c>
-      <c r="R17">
-        <v>4700.7700000000696</v>
-      </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43602</v>
       </c>
@@ -2154,23 +1892,11 @@
         <f t="shared" si="1"/>
         <v>508.23278394117028</v>
       </c>
-      <c r="O18" s="16">
-        <v>44166</v>
-      </c>
-      <c r="P18">
-        <v>3210.3800000002602</v>
-      </c>
-      <c r="Q18">
-        <v>2420.81000000007</v>
-      </c>
-      <c r="R18">
-        <v>4387.83000000006</v>
-      </c>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43603</v>
       </c>
@@ -2181,34 +1907,22 @@
         <f t="shared" si="0"/>
         <v>175.08603669999999</v>
       </c>
-      <c r="O19" s="16">
-        <v>44197</v>
-      </c>
-      <c r="P19">
-        <v>3261.9400000002001</v>
-      </c>
-      <c r="Q19">
-        <v>2256.46000000001</v>
-      </c>
-      <c r="R19">
-        <v>3935.0100000000498</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="13"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43604</v>
       </c>
@@ -2219,56 +1933,44 @@
         <f t="shared" si="0"/>
         <v>202.2442997</v>
       </c>
-      <c r="O20" s="16">
-        <v>44228</v>
-      </c>
-      <c r="P20">
-        <v>2068.9399999999</v>
-      </c>
-      <c r="Q20">
-        <v>888.80999999994697</v>
-      </c>
-      <c r="R20">
-        <v>4189.87</v>
-      </c>
-      <c r="T20" s="13" t="s">
+      <c r="P20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U20" s="13" t="s">
+      <c r="R20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V20" s="13" t="s">
+      <c r="T20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W20" s="13" t="s">
+      <c r="V20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="X20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB20" s="13" t="s">
+      <c r="AA20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AC20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43605</v>
       </c>
@@ -2279,40 +1981,40 @@
         <f t="shared" si="0"/>
         <v>222.4859155</v>
       </c>
-      <c r="T21" s="14">
+      <c r="P21" s="11">
         <v>183</v>
       </c>
+      <c r="Q21">
+        <v>703.2348432</v>
+      </c>
+      <c r="S21">
+        <v>297.37288139999998</v>
+      </c>
+      <c r="T21">
+        <v>407.251902587519</v>
+      </c>
       <c r="U21">
-        <v>703.2348432</v>
+        <f t="shared" ref="U21:U56" si="3">AVERAGE(Q21:T21)</f>
+        <v>469.28654239583966</v>
+      </c>
+      <c r="V21" s="11">
+        <v>44380</v>
       </c>
       <c r="W21">
-        <v>297.37288139999998</v>
-      </c>
-      <c r="X21">
-        <v>407.251902587519</v>
+        <v>625.94773520000001</v>
       </c>
       <c r="Y21">
-        <f t="shared" ref="Y21:Y56" si="7">AVERAGE(U21:X21)</f>
-        <v>469.28654239583966</v>
-      </c>
-      <c r="Z21" s="14">
-        <v>44380</v>
+        <v>336.8900883</v>
+      </c>
+      <c r="Z21">
+        <v>422.96784830997501</v>
       </c>
       <c r="AA21">
-        <v>625.94773520000001</v>
-      </c>
-      <c r="AC21">
-        <v>336.8900883</v>
-      </c>
-      <c r="AD21">
-        <v>422.96784830997501</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" ref="AE21:AE41" si="8">AVERAGE(AA21:AD21)</f>
+        <f t="shared" ref="AA21:AA41" si="4">AVERAGE(W21:Z21)</f>
         <v>461.93522393665836</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43606</v>
       </c>
@@ -2323,40 +2025,40 @@
         <f t="shared" si="0"/>
         <v>133.40809970000001</v>
       </c>
-      <c r="T22" s="14">
+      <c r="P22" s="11">
         <v>44388</v>
       </c>
+      <c r="Q22">
+        <v>652.46083920000001</v>
+      </c>
+      <c r="S22">
+        <v>230.19409279999999</v>
+      </c>
+      <c r="T22">
+        <v>518.32657342657296</v>
+      </c>
       <c r="U22">
-        <v>652.46083920000001</v>
+        <f t="shared" si="3"/>
+        <v>466.99383514219102</v>
+      </c>
+      <c r="V22" s="11">
+        <v>44389</v>
       </c>
       <c r="W22">
-        <v>230.19409279999999</v>
-      </c>
-      <c r="X22">
-        <v>518.32657342657296</v>
+        <v>734.00210079999999</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="7"/>
-        <v>466.99383514219102</v>
-      </c>
-      <c r="Z22" s="14">
-        <v>44389</v>
+        <v>307.69405410000002</v>
+      </c>
+      <c r="Z22">
+        <v>541.37158852344203</v>
       </c>
       <c r="AA22">
-        <v>734.00210079999999</v>
-      </c>
-      <c r="AC22">
-        <v>307.69405410000002</v>
-      </c>
-      <c r="AD22">
-        <v>541.37158852344203</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>527.68924780781401</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43607</v>
       </c>
@@ -2367,46 +2069,46 @@
         <f t="shared" si="0"/>
         <v>283.25287359999999</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="T23" s="14">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="11">
         <v>44393</v>
       </c>
+      <c r="Q23">
+        <v>761.98119780000002</v>
+      </c>
+      <c r="S23">
+        <v>196.02178219999999</v>
+      </c>
+      <c r="T23">
+        <v>475.06332637439101</v>
+      </c>
       <c r="U23">
-        <v>761.98119780000002</v>
+        <f t="shared" si="3"/>
+        <v>477.68876879146364</v>
+      </c>
+      <c r="V23" s="11">
+        <v>44390</v>
       </c>
       <c r="W23">
-        <v>196.02178219999999</v>
-      </c>
-      <c r="X23">
-        <v>475.06332637439101</v>
+        <v>581.04114370000002</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="7"/>
-        <v>477.68876879146364</v>
-      </c>
-      <c r="Z23" s="14">
-        <v>44390</v>
+        <v>372.69965580000002</v>
+      </c>
+      <c r="Z23">
+        <v>321.82709950599798</v>
       </c>
       <c r="AA23">
-        <v>581.04114370000002</v>
-      </c>
-      <c r="AC23">
-        <v>372.69965580000002</v>
-      </c>
-      <c r="AD23">
-        <v>321.82709950599798</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>425.18929966866602</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43608</v>
       </c>
@@ -2417,46 +2119,46 @@
         <f t="shared" si="0"/>
         <v>344.86089240000001</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="T24" s="14">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="11">
         <v>44398</v>
       </c>
+      <c r="Q24">
+        <v>609.01563940000005</v>
+      </c>
+      <c r="S24">
+        <v>291.02691220000003</v>
+      </c>
+      <c r="T24">
+        <v>407.72007366482501</v>
+      </c>
       <c r="U24">
-        <v>609.01563940000005</v>
+        <f t="shared" si="3"/>
+        <v>435.92087508827507</v>
+      </c>
+      <c r="V24" s="11">
+        <v>44391</v>
       </c>
       <c r="W24">
-        <v>291.02691220000003</v>
-      </c>
-      <c r="X24">
-        <v>407.72007366482501</v>
+        <v>874.76585369999998</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="7"/>
-        <v>435.92087508827507</v>
-      </c>
-      <c r="Z24" s="14">
-        <v>44391</v>
+        <v>313.92231950000001</v>
+      </c>
+      <c r="Z24">
+        <v>560.84100418410003</v>
       </c>
       <c r="AA24">
-        <v>874.76585369999998</v>
-      </c>
-      <c r="AC24">
-        <v>313.92231950000001</v>
-      </c>
-      <c r="AD24">
-        <v>560.84100418410003</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>583.17639246136662</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43609</v>
       </c>
@@ -2467,43 +2169,43 @@
         <f t="shared" si="0"/>
         <v>162.7288136</v>
       </c>
-      <c r="T25" s="14">
+      <c r="P25" s="11">
         <v>44400</v>
       </c>
+      <c r="Q25">
+        <v>697.58589389999997</v>
+      </c>
+      <c r="R25">
+        <v>636.94444439999995</v>
+      </c>
+      <c r="S25">
+        <v>142.4970414</v>
+      </c>
+      <c r="T25">
+        <v>492.50174703004802</v>
+      </c>
       <c r="U25">
-        <v>697.58589389999997</v>
-      </c>
-      <c r="V25">
-        <v>636.94444439999995</v>
+        <f t="shared" si="3"/>
+        <v>492.38228168251203</v>
+      </c>
+      <c r="V25" s="11">
+        <v>44392</v>
       </c>
       <c r="W25">
-        <v>142.4970414</v>
-      </c>
-      <c r="X25">
-        <v>492.50174703004802</v>
+        <v>708.91364899999996</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="7"/>
-        <v>492.38228168251203</v>
-      </c>
-      <c r="Z25" s="14">
-        <v>44392</v>
+        <v>322.9005128</v>
+      </c>
+      <c r="Z25">
+        <v>485.50518518518498</v>
       </c>
       <c r="AA25">
-        <v>708.91364899999996</v>
-      </c>
-      <c r="AC25">
-        <v>322.9005128</v>
-      </c>
-      <c r="AD25">
-        <v>485.50518518518498</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>505.7731156617283</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43610</v>
       </c>
@@ -2514,83 +2216,83 @@
         <f t="shared" si="0"/>
         <v>345.88888889999998</v>
       </c>
-      <c r="T26" s="14">
+      <c r="P26" s="11">
         <v>44402</v>
       </c>
+      <c r="Q26">
+        <v>525.11454670000001</v>
+      </c>
+      <c r="R26">
+        <v>722.47719300000006</v>
+      </c>
+      <c r="S26">
+        <v>189.31259969999999</v>
+      </c>
+      <c r="T26">
+        <v>370.407299270073</v>
+      </c>
       <c r="U26">
-        <v>525.11454670000001</v>
-      </c>
-      <c r="V26">
-        <v>722.47719300000006</v>
+        <f t="shared" si="3"/>
+        <v>451.82790966751827</v>
+      </c>
+      <c r="V26" s="11">
+        <v>44396</v>
       </c>
       <c r="W26">
-        <v>189.31259969999999</v>
-      </c>
-      <c r="X26">
-        <v>370.407299270073</v>
+        <v>792.01183839999999</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="7"/>
-        <v>451.82790966751827</v>
-      </c>
-      <c r="Z26" s="14">
-        <v>44396</v>
+        <v>343.27217919999998</v>
+      </c>
+      <c r="Z26">
+        <v>580.331245650661</v>
       </c>
       <c r="AA26">
-        <v>792.01183839999999</v>
-      </c>
-      <c r="AC26">
-        <v>343.27217919999998</v>
-      </c>
-      <c r="AD26">
-        <v>580.331245650661</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>571.87175441688703</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43611</v>
       </c>
-      <c r="T27" s="14">
+      <c r="P27" s="11">
         <v>44403</v>
       </c>
+      <c r="Q27">
+        <v>371.78885020000001</v>
+      </c>
+      <c r="R27">
+        <v>501.58188150000001</v>
+      </c>
+      <c r="S27">
+        <v>111.14125199999999</v>
+      </c>
+      <c r="T27">
+        <v>261.37183098591498</v>
+      </c>
       <c r="U27">
-        <v>371.78885020000001</v>
-      </c>
-      <c r="V27">
-        <v>501.58188150000001</v>
+        <f t="shared" si="3"/>
+        <v>311.47095367147875</v>
+      </c>
+      <c r="V27" s="11">
+        <v>44397</v>
       </c>
       <c r="W27">
-        <v>111.14125199999999</v>
-      </c>
-      <c r="X27">
-        <v>261.37183098591498</v>
+        <v>552.77126920000001</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="7"/>
-        <v>311.47095367147875</v>
-      </c>
-      <c r="Z27" s="14">
-        <v>44397</v>
+        <v>143.3845508</v>
+      </c>
+      <c r="Z27">
+        <v>410.57949790794902</v>
       </c>
       <c r="AA27">
-        <v>552.77126920000001</v>
-      </c>
-      <c r="AC27">
-        <v>143.3845508</v>
-      </c>
-      <c r="AD27">
-        <v>410.57949790794902</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>368.91177263598297</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43612</v>
       </c>
@@ -2601,46 +2303,46 @@
         <f t="shared" si="0"/>
         <v>138.44902909999999</v>
       </c>
-      <c r="T28" s="14">
+      <c r="P28" s="11">
         <v>44406</v>
       </c>
+      <c r="Q28">
+        <v>671.28731600000003</v>
+      </c>
+      <c r="R28">
+        <v>761.04491229999996</v>
+      </c>
+      <c r="S28">
+        <v>273.22009029999998</v>
+      </c>
+      <c r="T28">
+        <v>515.75806451612902</v>
+      </c>
       <c r="U28">
-        <v>671.28731600000003</v>
-      </c>
-      <c r="V28">
-        <v>761.04491229999996</v>
+        <f t="shared" si="3"/>
+        <v>555.32759577903221</v>
+      </c>
+      <c r="V28" s="11">
+        <v>44401</v>
       </c>
       <c r="W28">
-        <v>273.22009029999998</v>
+        <v>650.29347829999995</v>
       </c>
       <c r="X28">
-        <v>515.75806451612902</v>
+        <v>688.72217709999995</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="7"/>
-        <v>555.32759577903221</v>
-      </c>
-      <c r="Z28" s="14">
-        <v>44401</v>
+        <v>86.784272049999998</v>
+      </c>
+      <c r="Z28">
+        <v>489.537900874635</v>
       </c>
       <c r="AA28">
-        <v>650.29347829999995</v>
-      </c>
-      <c r="AB28">
-        <v>688.72217709999995</v>
-      </c>
-      <c r="AC28">
-        <v>86.784272049999998</v>
-      </c>
-      <c r="AD28">
-        <v>489.537900874635</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>478.83445708115875</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43613</v>
       </c>
@@ -2651,46 +2353,46 @@
         <f t="shared" si="0"/>
         <v>74.603513169999999</v>
       </c>
-      <c r="T29" s="14">
+      <c r="P29" s="11">
         <v>44409</v>
       </c>
+      <c r="Q29">
+        <v>834.11670160000006</v>
+      </c>
+      <c r="R29">
+        <v>909.87386119999996</v>
+      </c>
+      <c r="S29">
+        <v>426.53189300000003</v>
+      </c>
+      <c r="T29">
+        <v>471.403496503496</v>
+      </c>
       <c r="U29">
-        <v>834.11670160000006</v>
-      </c>
-      <c r="V29">
-        <v>909.87386119999996</v>
+        <f t="shared" si="3"/>
+        <v>660.48148807587404</v>
+      </c>
+      <c r="V29" s="11">
+        <v>44405</v>
       </c>
       <c r="W29">
-        <v>426.53189300000003</v>
+        <v>503.29395219999998</v>
       </c>
       <c r="X29">
-        <v>471.403496503496</v>
+        <v>600.85098870000002</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="7"/>
-        <v>660.48148807587404</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>44405</v>
+        <v>238.2051482</v>
+      </c>
+      <c r="Z29">
+        <v>339.38580463808802</v>
       </c>
       <c r="AA29">
-        <v>503.29395219999998</v>
-      </c>
-      <c r="AB29">
-        <v>600.85098870000002</v>
-      </c>
-      <c r="AC29">
-        <v>238.2051482</v>
-      </c>
-      <c r="AD29">
-        <v>339.38580463808802</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>420.43397343452199</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43614</v>
       </c>
@@ -2701,46 +2403,46 @@
         <f t="shared" si="0"/>
         <v>0.74647887300000004</v>
       </c>
-      <c r="T30" s="14">
+      <c r="P30" s="11">
         <v>44410</v>
       </c>
+      <c r="Q30">
+        <v>581.87290499999995</v>
+      </c>
+      <c r="R30">
+        <v>687.08036340000001</v>
+      </c>
+      <c r="S30">
+        <v>401.83606559999998</v>
+      </c>
+      <c r="T30">
+        <v>387.050036258158</v>
+      </c>
       <c r="U30">
-        <v>581.87290499999995</v>
-      </c>
-      <c r="V30">
-        <v>687.08036340000001</v>
+        <f t="shared" si="3"/>
+        <v>514.45984256453949</v>
+      </c>
+      <c r="V30" s="11">
+        <v>44408</v>
       </c>
       <c r="W30">
-        <v>401.83606559999998</v>
+        <v>773.27414769999996</v>
       </c>
       <c r="X30">
-        <v>387.050036258158</v>
+        <v>817.95046660000003</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="7"/>
-        <v>514.45984256453949</v>
-      </c>
-      <c r="Z30" s="14">
-        <v>44408</v>
+        <v>402.9247312</v>
+      </c>
+      <c r="Z30">
+        <v>484.78688524590098</v>
       </c>
       <c r="AA30">
-        <v>773.27414769999996</v>
-      </c>
-      <c r="AB30">
-        <v>817.95046660000003</v>
-      </c>
-      <c r="AC30">
-        <v>402.9247312</v>
-      </c>
-      <c r="AD30">
-        <v>484.78688524590098</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>619.73405768647524</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43615</v>
       </c>
@@ -2751,46 +2453,46 @@
         <f t="shared" si="0"/>
         <v>213.5961801</v>
       </c>
-      <c r="T31" s="14">
+      <c r="P31" s="11">
         <v>44414</v>
       </c>
+      <c r="Q31">
+        <v>698.91986059999999</v>
+      </c>
+      <c r="R31">
+        <v>623.97838209999998</v>
+      </c>
+      <c r="S31">
+        <v>232.52988049999999</v>
+      </c>
+      <c r="T31">
+        <v>371.40836236933802</v>
+      </c>
       <c r="U31">
-        <v>698.91986059999999</v>
-      </c>
-      <c r="V31">
-        <v>623.97838209999998</v>
+        <f t="shared" si="3"/>
+        <v>481.70912139233451</v>
+      </c>
+      <c r="V31" s="11">
+        <v>44412</v>
       </c>
       <c r="W31">
-        <v>232.52988049999999</v>
+        <v>893.21772510000005</v>
       </c>
       <c r="X31">
-        <v>371.40836236933802</v>
+        <v>914.97697140000002</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="7"/>
-        <v>481.70912139233451</v>
-      </c>
-      <c r="Z31" s="14">
-        <v>44412</v>
+        <v>274.49946640000002</v>
+      </c>
+      <c r="Z31">
+        <v>526.13974151857803</v>
       </c>
       <c r="AA31">
-        <v>893.21772510000005</v>
-      </c>
-      <c r="AB31">
-        <v>914.97697140000002</v>
-      </c>
-      <c r="AC31">
-        <v>274.49946640000002</v>
-      </c>
-      <c r="AD31">
-        <v>526.13974151857803</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>652.20847610464455</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43616</v>
       </c>
@@ -2801,46 +2503,46 @@
         <f t="shared" si="0"/>
         <v>233.75795299999999</v>
       </c>
-      <c r="T32" s="14">
+      <c r="P32" s="11">
         <v>44418</v>
       </c>
+      <c r="Q32">
+        <v>813.41422590000002</v>
+      </c>
+      <c r="R32">
+        <v>999.73449479999999</v>
+      </c>
+      <c r="S32">
+        <v>270.64570859999998</v>
+      </c>
+      <c r="T32">
+        <v>742.020905923344</v>
+      </c>
       <c r="U32">
-        <v>813.41422590000002</v>
-      </c>
-      <c r="V32">
-        <v>999.73449479999999</v>
+        <f t="shared" si="3"/>
+        <v>706.45383380583598</v>
+      </c>
+      <c r="V32" s="11">
+        <v>44416</v>
       </c>
       <c r="W32">
-        <v>270.64570859999998</v>
+        <v>1045.3568459999999</v>
       </c>
       <c r="X32">
-        <v>742.020905923344</v>
+        <v>1044.1493780000001</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="7"/>
-        <v>706.45383380583598</v>
-      </c>
-      <c r="Z32" s="14">
-        <v>44416</v>
+        <v>415.9376054</v>
+      </c>
+      <c r="Z32">
+        <v>706.69156293222602</v>
       </c>
       <c r="AA32">
-        <v>1045.3568459999999</v>
-      </c>
-      <c r="AB32">
-        <v>1044.1493780000001</v>
-      </c>
-      <c r="AC32">
-        <v>415.9376054</v>
-      </c>
-      <c r="AD32">
-        <v>706.69156293222602</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>803.03384808305645</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43617</v>
       </c>
@@ -2851,46 +2553,46 @@
         <f t="shared" si="0"/>
         <v>302.7311436</v>
       </c>
-      <c r="T33" s="14">
+      <c r="P33" s="11">
         <v>44420</v>
       </c>
+      <c r="Q33">
+        <v>543.25768159999996</v>
+      </c>
+      <c r="R33">
+        <v>780.86322399999995</v>
+      </c>
+      <c r="S33">
+        <v>247.9651064</v>
+      </c>
+      <c r="T33">
+        <v>417.88198324022301</v>
+      </c>
       <c r="U33">
-        <v>543.25768159999996</v>
-      </c>
-      <c r="V33">
-        <v>780.86322399999995</v>
+        <f t="shared" si="3"/>
+        <v>497.49199881005569</v>
+      </c>
+      <c r="V33" s="11">
+        <v>44417</v>
       </c>
       <c r="W33">
-        <v>247.9651064</v>
+        <v>1090.2400560000001</v>
       </c>
       <c r="X33">
-        <v>417.88198324022301</v>
+        <v>1006.6655029999999</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="7"/>
-        <v>497.49199881005569</v>
-      </c>
-      <c r="Z33" s="14">
-        <v>44417</v>
+        <v>481.87617419999998</v>
+      </c>
+      <c r="Z33">
+        <v>681.49231843575399</v>
       </c>
       <c r="AA33">
-        <v>1090.2400560000001</v>
-      </c>
-      <c r="AB33">
-        <v>1006.6655029999999</v>
-      </c>
-      <c r="AC33">
-        <v>481.87617419999998</v>
-      </c>
-      <c r="AD33">
-        <v>681.49231843575399</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>815.06851290893849</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43618</v>
       </c>
@@ -2901,46 +2603,46 @@
         <f t="shared" si="0"/>
         <v>488.53093810000001</v>
       </c>
-      <c r="T34" s="14">
+      <c r="P34" s="11">
         <v>44421</v>
       </c>
+      <c r="Q34">
+        <v>948.57282229999998</v>
+      </c>
+      <c r="R34">
+        <v>852.97763799999996</v>
+      </c>
+      <c r="S34">
+        <v>391.85371700000002</v>
+      </c>
+      <c r="T34">
+        <v>599.82984658298403</v>
+      </c>
       <c r="U34">
-        <v>948.57282229999998</v>
-      </c>
-      <c r="V34">
-        <v>852.97763799999996</v>
+        <f t="shared" si="3"/>
+        <v>698.30850597074595</v>
+      </c>
+      <c r="V34" s="11">
+        <v>44454</v>
       </c>
       <c r="W34">
-        <v>391.85371700000002</v>
+        <v>757.25417830000004</v>
       </c>
       <c r="X34">
-        <v>599.82984658298403</v>
+        <v>815.81951219999996</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="7"/>
-        <v>698.30850597074595</v>
-      </c>
-      <c r="Z34" s="14">
-        <v>44454</v>
+        <v>350.84510010000002</v>
+      </c>
+      <c r="Z34">
+        <v>541.23006993006902</v>
       </c>
       <c r="AA34">
-        <v>757.25417830000004</v>
-      </c>
-      <c r="AB34">
-        <v>815.81951219999996</v>
-      </c>
-      <c r="AC34">
-        <v>350.84510010000002</v>
-      </c>
-      <c r="AD34">
-        <v>541.23006993006902</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>616.2872151325173</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43619</v>
       </c>
@@ -2951,46 +2653,46 @@
         <f t="shared" si="0"/>
         <v>330.47591740000001</v>
       </c>
-      <c r="T35" s="14">
+      <c r="P35" s="11">
         <v>44432</v>
       </c>
+      <c r="Q35">
+        <v>1077.9142859999999</v>
+      </c>
+      <c r="R35">
+        <v>948.19024390000004</v>
+      </c>
+      <c r="S35">
+        <v>478.94917900000002</v>
+      </c>
+      <c r="T35">
+        <v>527.66387726638698</v>
+      </c>
       <c r="U35">
-        <v>1077.9142859999999</v>
-      </c>
-      <c r="V35">
-        <v>948.19024390000004</v>
+        <f t="shared" si="3"/>
+        <v>758.1793965415967</v>
+      </c>
+      <c r="V35" s="11">
+        <v>44455</v>
       </c>
       <c r="W35">
-        <v>478.94917900000002</v>
+        <v>578.62325910000004</v>
       </c>
       <c r="X35">
-        <v>527.66387726638698</v>
+        <v>634.8795265</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="7"/>
-        <v>758.1793965415967</v>
-      </c>
-      <c r="Z35" s="14">
-        <v>44455</v>
+        <v>302.59223300000002</v>
+      </c>
+      <c r="Z35">
+        <v>400.82869080779898</v>
       </c>
       <c r="AA35">
-        <v>578.62325910000004</v>
-      </c>
-      <c r="AB35">
-        <v>634.8795265</v>
-      </c>
-      <c r="AC35">
-        <v>302.59223300000002</v>
-      </c>
-      <c r="AD35">
-        <v>400.82869080779898</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>479.23092735194979</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43620</v>
       </c>
@@ -3001,46 +2703,46 @@
         <f t="shared" si="0"/>
         <v>483.61797749999999</v>
       </c>
-      <c r="T36" s="14">
+      <c r="P36" s="11">
         <v>44433</v>
       </c>
+      <c r="Q36">
+        <v>996.49616189999995</v>
+      </c>
+      <c r="R36">
+        <v>778.23377530000005</v>
+      </c>
+      <c r="S36">
+        <v>432.65132080000001</v>
+      </c>
+      <c r="T36">
+        <v>391.981158408932</v>
+      </c>
       <c r="U36">
-        <v>996.49616189999995</v>
-      </c>
-      <c r="V36">
-        <v>778.23377530000005</v>
+        <f t="shared" si="3"/>
+        <v>649.84060410223299</v>
+      </c>
+      <c r="V36" s="11">
+        <v>44456</v>
       </c>
       <c r="W36">
-        <v>432.65132080000001</v>
+        <v>741.7967989</v>
       </c>
       <c r="X36">
-        <v>391.981158408932</v>
+        <v>771.33263739999995</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="7"/>
-        <v>649.84060410223299</v>
-      </c>
-      <c r="Z36" s="14">
-        <v>44456</v>
+        <v>313.959292</v>
+      </c>
+      <c r="Z36">
+        <v>516.18883174136602</v>
       </c>
       <c r="AA36">
-        <v>741.7967989</v>
-      </c>
-      <c r="AB36">
-        <v>771.33263739999995</v>
-      </c>
-      <c r="AC36">
-        <v>313.959292</v>
-      </c>
-      <c r="AD36">
-        <v>516.18883174136602</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>585.81939001034152</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43621</v>
       </c>
@@ -3051,46 +2753,46 @@
         <f t="shared" si="0"/>
         <v>430.99626869999997</v>
       </c>
-      <c r="T37" s="14">
+      <c r="P37" s="11">
         <v>44434</v>
       </c>
+      <c r="Q37">
+        <v>1146.4707109999999</v>
+      </c>
+      <c r="R37">
+        <v>1090.9372820000001</v>
+      </c>
+      <c r="S37">
+        <v>479.55779269999999</v>
+      </c>
+      <c r="T37">
+        <v>765.86689895470295</v>
+      </c>
       <c r="U37">
-        <v>1146.4707109999999</v>
-      </c>
-      <c r="V37">
-        <v>1090.9372820000001</v>
+        <f t="shared" si="3"/>
+        <v>870.70817116367562</v>
+      </c>
+      <c r="V37" s="11">
+        <v>44457</v>
       </c>
       <c r="W37">
-        <v>479.55779269999999</v>
+        <v>568.52785519999998</v>
       </c>
       <c r="X37">
-        <v>765.86689895470295</v>
+        <v>687.0703833</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="7"/>
-        <v>870.70817116367562</v>
-      </c>
-      <c r="Z37" s="14">
-        <v>44457</v>
+        <v>307.94504419999998</v>
+      </c>
+      <c r="Z37">
+        <v>487.62256267409401</v>
       </c>
       <c r="AA37">
-        <v>568.52785519999998</v>
-      </c>
-      <c r="AB37">
-        <v>687.0703833</v>
-      </c>
-      <c r="AC37">
-        <v>307.94504419999998</v>
-      </c>
-      <c r="AD37">
-        <v>487.62256267409401</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>512.79146134352345</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43622</v>
       </c>
@@ -3101,46 +2803,46 @@
         <f t="shared" si="0"/>
         <v>303.14583329999999</v>
       </c>
-      <c r="T38" s="14">
+      <c r="P38" s="11">
         <v>44435</v>
       </c>
+      <c r="Q38">
+        <v>637.66480839999997</v>
+      </c>
+      <c r="R38">
+        <v>716.25905290000003</v>
+      </c>
+      <c r="S38">
+        <v>256.41162969999999</v>
+      </c>
+      <c r="T38">
+        <v>490.20139372822302</v>
+      </c>
       <c r="U38">
-        <v>637.66480839999997</v>
-      </c>
-      <c r="V38">
-        <v>716.25905290000003</v>
+        <f t="shared" si="3"/>
+        <v>525.13422118205574</v>
+      </c>
+      <c r="V38" s="11">
+        <v>44458</v>
       </c>
       <c r="W38">
-        <v>256.41162969999999</v>
+        <v>564.58008359999997</v>
       </c>
       <c r="X38">
-        <v>490.20139372822302</v>
+        <v>601.21866299999999</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="7"/>
-        <v>525.13422118205574</v>
-      </c>
-      <c r="Z38" s="14">
-        <v>44458</v>
+        <v>300.3359274</v>
+      </c>
+      <c r="Z38">
+        <v>481.68662952646201</v>
       </c>
       <c r="AA38">
-        <v>564.58008359999997</v>
-      </c>
-      <c r="AB38">
-        <v>601.21866299999999</v>
-      </c>
-      <c r="AC38">
-        <v>300.3359274</v>
-      </c>
-      <c r="AD38">
-        <v>481.68662952646201</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>486.95532588161547</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43623</v>
       </c>
@@ -3151,46 +2853,46 @@
         <f t="shared" si="0"/>
         <v>284.46709129999999</v>
       </c>
-      <c r="T39" s="14">
+      <c r="P39" s="11">
         <v>44436</v>
       </c>
+      <c r="Q39">
+        <v>461.97144850000001</v>
+      </c>
+      <c r="R39">
+        <v>692.21657379999999</v>
+      </c>
+      <c r="S39">
+        <v>152.5430029</v>
+      </c>
+      <c r="T39">
+        <v>568.78690807799398</v>
+      </c>
       <c r="U39">
-        <v>461.97144850000001</v>
-      </c>
-      <c r="V39">
-        <v>692.21657379999999</v>
+        <f t="shared" si="3"/>
+        <v>468.87948331949849</v>
+      </c>
+      <c r="V39" s="11">
+        <v>44459</v>
       </c>
       <c r="W39">
-        <v>152.5430029</v>
+        <v>570.88842399999999</v>
       </c>
       <c r="X39">
-        <v>568.78690807799398</v>
+        <v>457.28661090000003</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="7"/>
-        <v>468.87948331949849</v>
-      </c>
-      <c r="Z39" s="14">
-        <v>44459</v>
+        <v>341.8048048</v>
+      </c>
+      <c r="Z39">
+        <v>380.87726638772602</v>
       </c>
       <c r="AA39">
-        <v>570.88842399999999</v>
-      </c>
-      <c r="AB39">
-        <v>457.28661090000003</v>
-      </c>
-      <c r="AC39">
-        <v>341.8048048</v>
-      </c>
-      <c r="AD39">
-        <v>380.87726638772602</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>437.71427652193148</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43624</v>
       </c>
@@ -3201,46 +2903,46 @@
         <f t="shared" si="0"/>
         <v>400.44807689999999</v>
       </c>
-      <c r="T40" s="14">
+      <c r="P40" s="11">
         <v>44437</v>
       </c>
+      <c r="Q40">
+        <v>218.6778243</v>
+      </c>
+      <c r="R40">
+        <v>706.40627180000001</v>
+      </c>
+      <c r="S40">
+        <v>226.1720808</v>
+      </c>
+      <c r="T40">
+        <v>493.58048780487798</v>
+      </c>
       <c r="U40">
-        <v>218.6778243</v>
-      </c>
-      <c r="V40">
-        <v>706.40627180000001</v>
+        <f t="shared" si="3"/>
+        <v>411.20916617621947</v>
+      </c>
+      <c r="V40" s="11">
+        <v>44460</v>
       </c>
       <c r="W40">
-        <v>226.1720808</v>
+        <v>722.45549370000003</v>
       </c>
       <c r="X40">
-        <v>493.58048780487798</v>
+        <v>739.99721839999995</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="7"/>
-        <v>411.20916617621947</v>
-      </c>
-      <c r="Z40" s="14">
-        <v>44460</v>
+        <v>216.6862266</v>
+      </c>
+      <c r="Z40">
+        <v>558.08692628650897</v>
       </c>
       <c r="AA40">
-        <v>722.45549370000003</v>
-      </c>
-      <c r="AB40">
-        <v>739.99721839999995</v>
-      </c>
-      <c r="AC40">
-        <v>216.6862266</v>
-      </c>
-      <c r="AD40">
-        <v>558.08692628650897</v>
-      </c>
-      <c r="AE40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>559.30646624662722</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43625</v>
       </c>
@@ -3251,46 +2953,46 @@
         <f t="shared" si="0"/>
         <v>120.98027310000001</v>
       </c>
-      <c r="T41" s="14">
+      <c r="P41" s="11">
         <v>44438</v>
       </c>
+      <c r="Q41">
+        <v>784.49302650000004</v>
+      </c>
+      <c r="R41">
+        <v>692.24320560000001</v>
+      </c>
+      <c r="S41">
+        <v>197.75648849999999</v>
+      </c>
+      <c r="T41">
+        <v>493.24825662482499</v>
+      </c>
       <c r="U41">
-        <v>784.49302650000004</v>
-      </c>
-      <c r="V41">
-        <v>692.24320560000001</v>
+        <f t="shared" si="3"/>
+        <v>541.93524430620619</v>
+      </c>
+      <c r="V41" s="11">
+        <v>44461</v>
       </c>
       <c r="W41">
-        <v>197.75648849999999</v>
+        <v>683.08002780000004</v>
       </c>
       <c r="X41">
-        <v>493.24825662482499</v>
+        <v>895.08072370000002</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="7"/>
-        <v>541.93524430620619</v>
-      </c>
-      <c r="Z41" s="14">
-        <v>44461</v>
+        <v>54.051391860000003</v>
+      </c>
+      <c r="Z41">
+        <v>746.19972164231001</v>
       </c>
       <c r="AA41">
-        <v>683.08002780000004</v>
-      </c>
-      <c r="AB41">
-        <v>895.08072370000002</v>
-      </c>
-      <c r="AC41">
-        <v>54.051391860000003</v>
-      </c>
-      <c r="AD41">
-        <v>746.19972164231001</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>594.60296625057754</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43626</v>
       </c>
@@ -3301,28 +3003,28 @@
         <f t="shared" si="0"/>
         <v>202.9791908</v>
       </c>
-      <c r="T42" s="14">
+      <c r="P42" s="11">
         <v>44439</v>
       </c>
+      <c r="Q42">
+        <v>551.61961059999999</v>
+      </c>
+      <c r="R42">
+        <v>549.605007</v>
+      </c>
+      <c r="S42">
+        <v>350.91561510000002</v>
+      </c>
+      <c r="T42">
+        <v>366.50417246175198</v>
+      </c>
       <c r="U42">
-        <v>551.61961059999999</v>
-      </c>
-      <c r="V42">
-        <v>549.605007</v>
-      </c>
-      <c r="W42">
-        <v>350.91561510000002</v>
-      </c>
-      <c r="X42">
-        <v>366.50417246175198</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>454.66110129043795</v>
       </c>
-      <c r="Z42" s="14"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V42" s="11"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43627</v>
       </c>
@@ -3333,28 +3035,28 @@
         <f t="shared" si="0"/>
         <v>298.61545890000002</v>
       </c>
-      <c r="T43" s="14">
+      <c r="P43" s="11">
         <v>44440</v>
       </c>
+      <c r="Q43">
+        <v>293.58257839999999</v>
+      </c>
+      <c r="R43">
+        <v>457.5062762</v>
+      </c>
+      <c r="S43">
+        <v>123.3125493</v>
+      </c>
+      <c r="T43">
+        <v>237.41742160278699</v>
+      </c>
       <c r="U43">
-        <v>293.58257839999999</v>
-      </c>
-      <c r="V43">
-        <v>457.5062762</v>
-      </c>
-      <c r="W43">
-        <v>123.3125493</v>
-      </c>
-      <c r="X43">
-        <v>237.41742160278699</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>277.95470637569673</v>
       </c>
-      <c r="Z43" s="14"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V43" s="11"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43628</v>
       </c>
@@ -3365,28 +3067,28 @@
         <f t="shared" si="0"/>
         <v>161.19143579999999</v>
       </c>
-      <c r="T44" s="14">
+      <c r="P44" s="11">
         <v>44441</v>
       </c>
+      <c r="Q44">
+        <v>770.82996519999995</v>
+      </c>
+      <c r="R44">
+        <v>788.60905920000005</v>
+      </c>
+      <c r="S44">
+        <v>281.32407410000002</v>
+      </c>
+      <c r="T44">
+        <v>538.74184191442998</v>
+      </c>
       <c r="U44">
-        <v>770.82996519999995</v>
-      </c>
-      <c r="V44">
-        <v>788.60905920000005</v>
-      </c>
-      <c r="W44">
-        <v>281.32407410000002</v>
-      </c>
-      <c r="X44">
-        <v>538.74184191442998</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>594.87623510360754</v>
       </c>
-      <c r="Z44" s="13"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V44" s="10"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43629</v>
       </c>
@@ -3397,28 +3099,28 @@
         <f t="shared" si="0"/>
         <v>151.26736109999999</v>
       </c>
-      <c r="T45" s="14">
+      <c r="P45" s="11">
         <v>44442</v>
       </c>
+      <c r="Q45">
+        <v>764.61710630000005</v>
+      </c>
+      <c r="R45">
+        <v>776.66266989999997</v>
+      </c>
+      <c r="S45">
+        <v>241.79282509999999</v>
+      </c>
+      <c r="T45">
+        <v>555.61630695443603</v>
+      </c>
       <c r="U45">
-        <v>764.61710630000005</v>
-      </c>
-      <c r="V45">
-        <v>776.66266989999997</v>
-      </c>
-      <c r="W45">
-        <v>241.79282509999999</v>
-      </c>
-      <c r="X45">
-        <v>555.61630695443603</v>
-      </c>
-      <c r="Y45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>584.67222706360906</v>
       </c>
-      <c r="Z45" s="13"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V45" s="10"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43630</v>
       </c>
@@ -3429,28 +3131,28 @@
         <f t="shared" si="0"/>
         <v>47.977148079999999</v>
       </c>
-      <c r="T46" s="14">
+      <c r="P46" s="11">
         <v>44443</v>
       </c>
+      <c r="Q46">
+        <v>759.89144050000004</v>
+      </c>
+      <c r="R46">
+        <v>675.91370910000001</v>
+      </c>
+      <c r="S46">
+        <v>247.70578510000001</v>
+      </c>
+      <c r="T46">
+        <v>466.927627000695</v>
+      </c>
       <c r="U46">
-        <v>759.89144050000004</v>
-      </c>
-      <c r="V46">
-        <v>675.91370910000001</v>
-      </c>
-      <c r="W46">
-        <v>247.70578510000001</v>
-      </c>
-      <c r="X46">
-        <v>466.927627000695</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>537.60964042517378</v>
       </c>
-      <c r="Z46" s="13"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V46" s="10"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43631</v>
       </c>
@@ -3461,28 +3163,28 @@
         <f t="shared" si="0"/>
         <v>321.8036199</v>
       </c>
-      <c r="T47" s="14">
+      <c r="P47" s="11">
         <v>44444</v>
       </c>
+      <c r="Q47">
+        <v>981.29227560000004</v>
+      </c>
+      <c r="R47">
+        <v>965.24217120000003</v>
+      </c>
+      <c r="S47">
+        <v>315.06176699999997</v>
+      </c>
+      <c r="T47">
+        <v>574.93667362560802</v>
+      </c>
       <c r="U47">
-        <v>981.29227560000004</v>
-      </c>
-      <c r="V47">
-        <v>965.24217120000003</v>
-      </c>
-      <c r="W47">
-        <v>315.06176699999997</v>
-      </c>
-      <c r="X47">
-        <v>574.93667362560802</v>
-      </c>
-      <c r="Y47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>709.13322185640197</v>
       </c>
-      <c r="Z47" s="13"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V47" s="10"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43632</v>
       </c>
@@ -3493,28 +3195,28 @@
         <f t="shared" si="0"/>
         <v>538.88946280000005</v>
       </c>
-      <c r="T48" s="14">
+      <c r="P48" s="11">
         <v>44445</v>
       </c>
+      <c r="Q48">
+        <v>927.80431750000002</v>
+      </c>
+      <c r="R48">
+        <v>867.11768800000004</v>
+      </c>
+      <c r="S48">
+        <v>401.52061359999999</v>
+      </c>
+      <c r="T48">
+        <v>527.45543175487398</v>
+      </c>
       <c r="U48">
-        <v>927.80431750000002</v>
-      </c>
-      <c r="V48">
-        <v>867.11768800000004</v>
-      </c>
-      <c r="W48">
-        <v>401.52061359999999</v>
-      </c>
-      <c r="X48">
-        <v>527.45543175487398</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>680.97451271371858</v>
       </c>
-      <c r="Z48" s="13"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V48" s="10"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43633</v>
       </c>
@@ -3525,28 +3227,28 @@
         <f t="shared" si="0"/>
         <v>308.20642650000002</v>
       </c>
-      <c r="T49" s="14">
+      <c r="P49" s="11">
         <v>44446</v>
       </c>
+      <c r="Q49">
+        <v>536.44707519999997</v>
+      </c>
+      <c r="R49">
+        <v>623.62282530000004</v>
+      </c>
+      <c r="S49">
+        <v>141.14248480000001</v>
+      </c>
+      <c r="T49">
+        <v>410.28857890148203</v>
+      </c>
       <c r="U49">
-        <v>536.44707519999997</v>
-      </c>
-      <c r="V49">
-        <v>623.62282530000004</v>
-      </c>
-      <c r="W49">
-        <v>141.14248480000001</v>
-      </c>
-      <c r="X49">
-        <v>410.28857890148203</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>427.87524105037051</v>
       </c>
-      <c r="Z49" s="13"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V49" s="10"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43634</v>
       </c>
@@ -3557,28 +3259,28 @@
         <f t="shared" si="0"/>
         <v>331.0506024</v>
       </c>
-      <c r="T50" s="14">
+      <c r="P50" s="11">
         <v>44447</v>
       </c>
+      <c r="Q50">
+        <v>515.23517100000004</v>
+      </c>
+      <c r="R50">
+        <v>581.49721060000002</v>
+      </c>
+      <c r="S50">
+        <v>209.22869470000001</v>
+      </c>
+      <c r="T50">
+        <v>434.44072524407198</v>
+      </c>
       <c r="U50">
-        <v>515.23517100000004</v>
-      </c>
-      <c r="V50">
-        <v>581.49721060000002</v>
-      </c>
-      <c r="W50">
-        <v>209.22869470000001</v>
-      </c>
-      <c r="X50">
-        <v>434.44072524407198</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>435.100450386018</v>
       </c>
-      <c r="Z50" s="13"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V50" s="10"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43635</v>
       </c>
@@ -3589,28 +3291,28 @@
         <f t="shared" si="0"/>
         <v>200.8319559</v>
       </c>
-      <c r="T51" s="14">
+      <c r="P51" s="11">
         <v>44448</v>
       </c>
+      <c r="Q51">
+        <v>492.48712599999999</v>
+      </c>
+      <c r="R51">
+        <v>597.31754869999997</v>
+      </c>
+      <c r="S51">
+        <v>158.54402899999999</v>
+      </c>
+      <c r="T51">
+        <v>372.27031019202298</v>
+      </c>
       <c r="U51">
-        <v>492.48712599999999</v>
-      </c>
-      <c r="V51">
-        <v>597.31754869999997</v>
-      </c>
-      <c r="W51">
-        <v>158.54402899999999</v>
-      </c>
-      <c r="X51">
-        <v>372.27031019202298</v>
-      </c>
-      <c r="Y51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>405.15475347300571</v>
       </c>
-      <c r="Z51" s="13"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V51" s="10"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43636</v>
       </c>
@@ -3621,28 +3323,28 @@
         <f t="shared" si="0"/>
         <v>168.94646270000001</v>
       </c>
-      <c r="T52" s="14">
+      <c r="P52" s="11">
         <v>44449</v>
       </c>
+      <c r="Q52">
+        <v>607.89881370000001</v>
+      </c>
+      <c r="R52">
+        <v>663.03703700000005</v>
+      </c>
+      <c r="S52">
+        <v>342.94141409999997</v>
+      </c>
+      <c r="T52">
+        <v>445.61984626135501</v>
+      </c>
       <c r="U52">
-        <v>607.89881370000001</v>
-      </c>
-      <c r="V52">
-        <v>663.03703700000005</v>
-      </c>
-      <c r="W52">
-        <v>342.94141409999997</v>
-      </c>
-      <c r="X52">
-        <v>445.61984626135501</v>
-      </c>
-      <c r="Y52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>514.87427776533877</v>
       </c>
-      <c r="Z52" s="13"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V52" s="10"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43637</v>
       </c>
@@ -3653,53 +3355,53 @@
         <f t="shared" si="0"/>
         <v>84.75961538</v>
       </c>
-      <c r="T53" s="14">
+      <c r="P53" s="11">
         <v>44450</v>
       </c>
+      <c r="Q53">
+        <v>533.91631800000005</v>
+      </c>
+      <c r="R53">
+        <v>528.174216</v>
+      </c>
+      <c r="S53">
+        <v>151.5809045</v>
+      </c>
+      <c r="T53">
+        <v>358.88850174215997</v>
+      </c>
       <c r="U53">
-        <v>533.91631800000005</v>
-      </c>
-      <c r="V53">
-        <v>528.174216</v>
-      </c>
-      <c r="W53">
-        <v>151.5809045</v>
-      </c>
-      <c r="X53">
-        <v>358.88850174215997</v>
-      </c>
-      <c r="Y53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>393.13998506053997</v>
       </c>
-      <c r="Z53" s="13"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V53" s="10"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43638</v>
       </c>
-      <c r="T54" s="14">
+      <c r="P54" s="11">
         <v>44451</v>
       </c>
+      <c r="Q54">
+        <v>498.80362120000001</v>
+      </c>
+      <c r="R54">
+        <v>570.04944290000003</v>
+      </c>
+      <c r="S54">
+        <v>207.2088316</v>
+      </c>
+      <c r="T54">
+        <v>320.50835654596102</v>
+      </c>
       <c r="U54">
-        <v>498.80362120000001</v>
-      </c>
-      <c r="V54">
-        <v>570.04944290000003</v>
-      </c>
-      <c r="W54">
-        <v>207.2088316</v>
-      </c>
-      <c r="X54">
-        <v>320.50835654596102</v>
-      </c>
-      <c r="Y54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>399.14256306149025</v>
       </c>
-      <c r="Z54" s="13"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V54" s="10"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43639</v>
       </c>
@@ -3710,28 +3412,28 @@
         <f t="shared" si="0"/>
         <v>273.67509030000002</v>
       </c>
-      <c r="T55" s="14">
+      <c r="P55" s="11">
         <v>44452</v>
       </c>
+      <c r="Q55">
+        <v>824.21926229999997</v>
+      </c>
+      <c r="R55">
+        <v>736.04410259999997</v>
+      </c>
+      <c r="S55">
+        <v>69.3686747</v>
+      </c>
+      <c r="T55">
+        <v>454.169057377049</v>
+      </c>
       <c r="U55">
-        <v>824.21926229999997</v>
-      </c>
-      <c r="V55">
-        <v>736.04410259999997</v>
-      </c>
-      <c r="W55">
-        <v>69.3686747</v>
-      </c>
-      <c r="X55">
-        <v>454.169057377049</v>
-      </c>
-      <c r="Y55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>520.95027424426223</v>
       </c>
-      <c r="Z55" s="13"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V55" s="10"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43640</v>
       </c>
@@ -3742,28 +3444,28 @@
         <f t="shared" si="0"/>
         <v>61.257903489999997</v>
       </c>
-      <c r="T56" s="14">
+      <c r="P56" s="11">
         <v>44453</v>
       </c>
+      <c r="Q56">
+        <v>494.64250870000001</v>
+      </c>
+      <c r="R56">
+        <v>548.46411149999994</v>
+      </c>
+      <c r="S56">
+        <v>261.1567369</v>
+      </c>
+      <c r="T56">
+        <v>345.11986062717699</v>
+      </c>
       <c r="U56">
-        <v>494.64250870000001</v>
-      </c>
-      <c r="V56">
-        <v>548.46411149999994</v>
-      </c>
-      <c r="W56">
-        <v>261.1567369</v>
-      </c>
-      <c r="X56">
-        <v>345.11986062717699</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>412.34580443179425</v>
       </c>
-      <c r="Z56" s="13"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V56" s="10"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43641</v>
       </c>
@@ -3774,9 +3476,9 @@
         <f t="shared" si="0"/>
         <v>51.443271770000003</v>
       </c>
-      <c r="T57" s="12"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P57" s="9"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43642</v>
       </c>
@@ -3787,51 +3489,51 @@
         <f t="shared" si="0"/>
         <v>71.171021379999999</v>
       </c>
-      <c r="T58" s="12" t="s">
-        <v>24</v>
+      <c r="P58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q58">
+        <f>AVERAGE(Q21:Q56)</f>
+        <v>674.71107722777788</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ref="R58:AA58" si="5">AVERAGE(R21:R56)</f>
+        <v>719.68455860000006</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="5"/>
+        <v>261.9165421416667</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="5"/>
+        <v>460.50636505013398</v>
       </c>
       <c r="U58">
         <f>AVERAGE(U21:U56)</f>
-        <v>674.71107722777788</v>
-      </c>
-      <c r="V58">
-        <f t="shared" ref="V58:AE58" si="9">AVERAGE(V21:V56)</f>
-        <v>719.68455860000006</v>
+        <v>522.0598564980736</v>
       </c>
       <c r="W58">
-        <f t="shared" si="9"/>
-        <v>261.9165421416667</v>
+        <f>AVERAGE(W21:W56)</f>
+        <v>714.87313885238098</v>
       </c>
       <c r="X58">
-        <f t="shared" si="9"/>
-        <v>460.50636505013398</v>
+        <f t="shared" si="5"/>
+        <v>762.57148287142866</v>
       </c>
       <c r="Y58">
-        <f>AVERAGE(Y21:Y56)</f>
-        <v>522.0598564980736</v>
+        <f t="shared" si="5"/>
+        <v>296.62908466238093</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="5"/>
+        <v>507.81801818613462</v>
       </c>
       <c r="AA58">
-        <f>AVERAGE(AA21:AA56)</f>
-        <v>714.87313885238098</v>
-      </c>
-      <c r="AB58">
-        <f t="shared" si="9"/>
-        <v>762.57148287142866</v>
-      </c>
-      <c r="AC58">
-        <f t="shared" si="9"/>
-        <v>296.62908466238093</v>
-      </c>
-      <c r="AD58">
-        <f t="shared" si="9"/>
-        <v>507.81801818613462</v>
-      </c>
-      <c r="AE58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>547.93181717271364</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43643</v>
       </c>
@@ -3842,31 +3544,31 @@
         <f t="shared" si="0"/>
         <v>53.12987013</v>
       </c>
-      <c r="T59" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="U59" s="15">
-        <f>(U58-AA58)/AA58</f>
+      <c r="P59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="12">
+        <f>(Q58-W58)/W58</f>
         <v>-5.6180683595241976E-2</v>
       </c>
-      <c r="V59" s="15">
-        <f>(V58-AB58)/AB58</f>
+      <c r="R59" s="12">
+        <f>(R58-X58)/X58</f>
         <v>-5.6239874208172343E-2</v>
       </c>
-      <c r="W59" s="15">
-        <f t="shared" ref="W59:Y59" si="10">(W58-AC58)/AC58</f>
+      <c r="S59" s="12">
+        <f t="shared" ref="S59:U59" si="6">(S58-Y58)/Y58</f>
         <v>-0.1170233949250916</v>
       </c>
-      <c r="X59" s="15">
-        <f t="shared" si="10"/>
+      <c r="T59" s="12">
+        <f t="shared" si="6"/>
         <v>-9.3166550696629921E-2</v>
       </c>
-      <c r="Y59" s="15">
-        <f t="shared" si="10"/>
+      <c r="U59" s="12">
+        <f t="shared" si="6"/>
         <v>-4.7217481927107972E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43644</v>
       </c>
@@ -3877,31 +3579,31 @@
         <f t="shared" si="0"/>
         <v>93.081218269999994</v>
       </c>
-      <c r="T60" s="12" t="s">
-        <v>32</v>
+      <c r="P60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q60">
+        <f>_xlfn.T.TEST(Q21:Q56,W21:W41,1,2)</f>
+        <v>0.22679865170246161</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ref="R60:U60" si="7">_xlfn.T.TEST(R21:R56,X21:X41,1,2)</f>
+        <v>0.19893973794743197</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="7"/>
+        <v>0.11670791829120498</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="7"/>
+        <v>6.4507267253002307E-2</v>
       </c>
       <c r="U60">
-        <f>_xlfn.T.TEST(U21:U56,AA21:AA41,1,2)</f>
-        <v>0.22679865170246161</v>
-      </c>
-      <c r="V60">
-        <f t="shared" ref="V60:Y60" si="11">_xlfn.T.TEST(V21:V56,AB21:AB41,1,2)</f>
-        <v>0.19893973794743197</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="11"/>
-        <v>0.11670791829120498</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="11"/>
-        <v>6.4507267253002307E-2</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0.22347391825290608</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43645</v>
       </c>
@@ -3912,16 +3614,16 @@
         <f t="shared" si="0"/>
         <v>253.1488636</v>
       </c>
-      <c r="T61" s="12"/>
-      <c r="U61" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P61" s="9"/>
+      <c r="Q61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43646</v>
       </c>
@@ -3932,9 +3634,9 @@
         <f t="shared" si="0"/>
         <v>284.88659790000003</v>
       </c>
-      <c r="T62" s="12"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P62" s="9"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43647</v>
       </c>
@@ -3945,9 +3647,9 @@
         <f t="shared" si="0"/>
         <v>261.375</v>
       </c>
-      <c r="T63" s="12"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P63" s="9"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43648</v>
       </c>
@@ -3958,7 +3660,7 @@
         <f t="shared" si="0"/>
         <v>196.31021899999999</v>
       </c>
-      <c r="T64" s="12"/>
+      <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
@@ -3992,7 +3694,7 @@
         <v>38.57992565</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="12">AVERAGE(B67:E67)</f>
+        <f t="shared" ref="F67:F130" si="8">AVERAGE(B67:E67)</f>
         <v>38.57992565</v>
       </c>
     </row>
@@ -4004,7 +3706,7 @@
         <v>440.51890759999998</v>
       </c>
       <c r="F68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>440.51890759999998</v>
       </c>
     </row>
@@ -4016,7 +3718,7 @@
         <v>117.69775679999999</v>
       </c>
       <c r="F69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>117.69775679999999</v>
       </c>
     </row>
@@ -4028,7 +3730,7 @@
         <v>26.455334990000001</v>
       </c>
       <c r="F70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>26.455334990000001</v>
       </c>
     </row>
@@ -4040,7 +3742,7 @@
         <v>74.439560439999994</v>
       </c>
       <c r="F71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>74.439560439999994</v>
       </c>
     </row>
@@ -4052,7 +3754,7 @@
         <v>226.12220919999999</v>
       </c>
       <c r="F72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>226.12220919999999</v>
       </c>
     </row>
@@ -4064,7 +3766,7 @@
         <v>275.25238100000001</v>
       </c>
       <c r="F73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>275.25238100000001</v>
       </c>
     </row>
@@ -4076,7 +3778,7 @@
         <v>224.4025671</v>
       </c>
       <c r="F74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>224.4025671</v>
       </c>
     </row>
@@ -4088,7 +3790,7 @@
         <v>181.8823529</v>
       </c>
       <c r="F75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>181.8823529</v>
       </c>
     </row>
@@ -4105,7 +3807,7 @@
         <v>465.67441860000002</v>
       </c>
       <c r="F77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>465.67441860000002</v>
       </c>
     </row>
@@ -4157,7 +3859,7 @@
         <v>351.72300469999999</v>
       </c>
       <c r="F86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>351.72300469999999</v>
       </c>
     </row>
@@ -4169,7 +3871,7 @@
         <v>318.89221559999999</v>
       </c>
       <c r="F87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>318.89221559999999</v>
       </c>
     </row>
@@ -4181,7 +3883,7 @@
         <v>137.20585629999999</v>
       </c>
       <c r="F88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>137.20585629999999</v>
       </c>
     </row>
@@ -4193,7 +3895,7 @@
         <v>167.04980080000001</v>
       </c>
       <c r="F89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>167.04980080000001</v>
       </c>
     </row>
@@ -4205,7 +3907,7 @@
         <v>120.46643109999999</v>
       </c>
       <c r="F90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>120.46643109999999</v>
       </c>
     </row>
@@ -4217,7 +3919,7 @@
         <v>330.98169719999999</v>
       </c>
       <c r="F91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>330.98169719999999</v>
       </c>
     </row>
@@ -4229,7 +3931,7 @@
         <v>307.59032719999999</v>
       </c>
       <c r="F92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>307.59032719999999</v>
       </c>
     </row>
@@ -4241,7 +3943,7 @@
         <v>455.43648209999998</v>
       </c>
       <c r="F93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>455.43648209999998</v>
       </c>
     </row>
@@ -4253,7 +3955,7 @@
         <v>400.76451609999998</v>
       </c>
       <c r="F94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>400.76451609999998</v>
       </c>
     </row>
@@ -4375,7 +4077,7 @@
         <v>215.56862749999999</v>
       </c>
       <c r="F117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>215.56862749999999</v>
       </c>
     </row>
@@ -4390,7 +4092,7 @@
         <v>205.2082671</v>
       </c>
       <c r="F118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>241.89944270000001</v>
       </c>
     </row>
@@ -4402,7 +4104,7 @@
         <v>586.86344540000005</v>
       </c>
       <c r="F119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>586.86344540000005</v>
       </c>
     </row>
@@ -4414,7 +4116,7 @@
         <v>585.14235619999999</v>
       </c>
       <c r="F120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>585.14235619999999</v>
       </c>
     </row>
@@ -4426,7 +4128,7 @@
         <v>496.46164570000002</v>
       </c>
       <c r="F121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>496.46164570000002</v>
       </c>
     </row>
@@ -4438,7 +4140,7 @@
         <v>337.96407190000002</v>
       </c>
       <c r="F122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>337.96407190000002</v>
       </c>
     </row>
@@ -4450,7 +4152,7 @@
         <v>511.11002100000002</v>
       </c>
       <c r="F123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>511.11002100000002</v>
       </c>
     </row>
@@ -4462,7 +4164,7 @@
         <v>473.88284520000002</v>
       </c>
       <c r="F124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>473.88284520000002</v>
       </c>
     </row>
@@ -4474,7 +4176,7 @@
         <v>445.32960889999998</v>
       </c>
       <c r="F125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>445.32960889999998</v>
       </c>
     </row>
@@ -4486,7 +4188,7 @@
         <v>327.54593180000001</v>
       </c>
       <c r="F126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>327.54593180000001</v>
       </c>
     </row>
@@ -4498,7 +4200,7 @@
         <v>483.05985920000001</v>
       </c>
       <c r="F127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>483.05985920000001</v>
       </c>
     </row>
@@ -4510,7 +4212,7 @@
         <v>513.95725300000004</v>
       </c>
       <c r="F128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>513.95725300000004</v>
       </c>
     </row>
@@ -4522,7 +4224,7 @@
         <v>795.64915970000004</v>
       </c>
       <c r="F129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>795.64915970000004</v>
       </c>
     </row>
@@ -4534,7 +4236,7 @@
         <v>582.95251399999995</v>
       </c>
       <c r="F130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>582.95251399999995</v>
       </c>
     </row>
@@ -4546,7 +4248,7 @@
         <v>472.77298050000002</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="13">AVERAGE(B131:E131)</f>
+        <f t="shared" ref="F131:F194" si="9">AVERAGE(B131:E131)</f>
         <v>472.77298050000002</v>
       </c>
     </row>
@@ -4558,7 +4260,7 @@
         <v>566.48688709999999</v>
       </c>
       <c r="F132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>566.48688709999999</v>
       </c>
     </row>
@@ -4570,7 +4272,7 @@
         <v>771.01815639999995</v>
       </c>
       <c r="F133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>771.01815639999995</v>
       </c>
     </row>
@@ -4582,7 +4284,7 @@
         <v>435.14613179999998</v>
       </c>
       <c r="F134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>435.14613179999998</v>
       </c>
     </row>
@@ -4594,7 +4296,7 @@
         <v>478.88407819999998</v>
       </c>
       <c r="F135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>478.88407819999998</v>
       </c>
     </row>
@@ -4606,7 +4308,7 @@
         <v>695.70071429999996</v>
       </c>
       <c r="F136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>695.70071429999996</v>
       </c>
     </row>
@@ -4618,7 +4320,7 @@
         <v>540.71877180000001</v>
       </c>
       <c r="F137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>540.71877180000001</v>
       </c>
     </row>
@@ -4630,7 +4332,7 @@
         <v>456.0438413</v>
       </c>
       <c r="F138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>456.0438413</v>
       </c>
     </row>
@@ -4642,7 +4344,7 @@
         <v>335.67550590000002</v>
       </c>
       <c r="F139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>335.67550590000002</v>
       </c>
     </row>
@@ -4654,7 +4356,7 @@
         <v>375.09414229999999</v>
       </c>
       <c r="F140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>375.09414229999999</v>
       </c>
     </row>
@@ -4666,7 +4368,7 @@
         <v>525.73152019999998</v>
       </c>
       <c r="F141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>525.73152019999998</v>
       </c>
     </row>
@@ -4678,7 +4380,7 @@
         <v>374.45953550000002</v>
       </c>
       <c r="F142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>374.45953550000002</v>
       </c>
     </row>
@@ -4690,7 +4392,7 @@
         <v>278.50174950000002</v>
       </c>
       <c r="F143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>278.50174950000002</v>
       </c>
     </row>
@@ -4702,7 +4404,7 @@
         <v>521.80879270000003</v>
       </c>
       <c r="F144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>521.80879270000003</v>
       </c>
     </row>
@@ -4714,7 +4416,7 @@
         <v>701.24181180000005</v>
       </c>
       <c r="F145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>701.24181180000005</v>
       </c>
     </row>
@@ -4726,7 +4428,7 @@
         <v>498.03566430000001</v>
       </c>
       <c r="F146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>498.03566430000001</v>
       </c>
     </row>
@@ -4738,7 +4440,7 @@
         <v>397.94556870000002</v>
       </c>
       <c r="F147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>397.94556870000002</v>
       </c>
     </row>
@@ -4750,7 +4452,7 @@
         <v>532.14135759999999</v>
       </c>
       <c r="F148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>532.14135759999999</v>
       </c>
     </row>
@@ -4762,7 +4464,7 @@
         <v>547.66132400000004</v>
       </c>
       <c r="F149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>547.66132400000004</v>
       </c>
     </row>
@@ -4774,7 +4476,7 @@
         <v>559.6948324</v>
       </c>
       <c r="F150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>559.6948324</v>
       </c>
     </row>
@@ -4786,7 +4488,7 @@
         <v>672.36775990000001</v>
       </c>
       <c r="F151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>672.36775990000001</v>
       </c>
     </row>
@@ -4798,7 +4500,7 @@
         <v>686.87177699999995</v>
       </c>
       <c r="F152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>686.87177699999995</v>
       </c>
     </row>
@@ -4810,7 +4512,7 @@
         <v>783.46587739999995</v>
       </c>
       <c r="F153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>783.46587739999995</v>
       </c>
     </row>
@@ -4822,7 +4524,7 @@
         <v>639.6499652</v>
       </c>
       <c r="F154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>639.6499652</v>
       </c>
     </row>
@@ -4834,7 +4536,7 @@
         <v>601.11033029999999</v>
       </c>
       <c r="F155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>601.11033029999999</v>
       </c>
     </row>
@@ -4846,7 +4548,7 @@
         <v>504.3923345</v>
       </c>
       <c r="F156">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>504.3923345</v>
       </c>
     </row>
@@ -4858,7 +4560,7 @@
         <v>326.87038330000001</v>
       </c>
       <c r="F157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>326.87038330000001</v>
       </c>
     </row>
@@ -4870,7 +4572,7 @@
         <v>547.87762239999995</v>
       </c>
       <c r="F158">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>547.87762239999995</v>
       </c>
     </row>
@@ -4882,7 +4584,7 @@
         <v>471.16013989999999</v>
       </c>
       <c r="F159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>471.16013989999999</v>
       </c>
     </row>
@@ -4894,7 +4596,7 @@
         <v>725.28041959999996</v>
       </c>
       <c r="F160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>725.28041959999996</v>
       </c>
     </row>
@@ -4906,7 +4608,7 @@
         <v>597.05874129999995</v>
       </c>
       <c r="F161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>597.05874129999995</v>
       </c>
     </row>
@@ -4918,7 +4620,7 @@
         <v>405.24633640000002</v>
       </c>
       <c r="F162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>405.24633640000002</v>
       </c>
     </row>
@@ -4930,7 +4632,7 @@
         <v>404.36806150000001</v>
       </c>
       <c r="F163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>404.36806150000001</v>
       </c>
     </row>
@@ -4942,7 +4644,7 @@
         <v>769.25</v>
       </c>
       <c r="F164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>769.25</v>
       </c>
     </row>
@@ -4954,7 +4656,7 @@
         <v>810.01392759999999</v>
       </c>
       <c r="F165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>810.01392759999999</v>
       </c>
     </row>
@@ -4966,7 +4668,7 @@
         <v>698.97768480000002</v>
       </c>
       <c r="F166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>698.97768480000002</v>
       </c>
     </row>
@@ -4978,7 +4680,7 @@
         <v>721.72955969999998</v>
       </c>
       <c r="F167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>721.72955969999998</v>
       </c>
     </row>
@@ -4990,7 +4692,7 @@
         <v>426.6062718</v>
       </c>
       <c r="F168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>426.6062718</v>
       </c>
     </row>
@@ -5002,7 +4704,7 @@
         <v>638.71325650000006</v>
       </c>
       <c r="F169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>638.71325650000006</v>
       </c>
     </row>
@@ -5014,7 +4716,7 @@
         <v>813.26484979999998</v>
       </c>
       <c r="F170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>813.26484979999998</v>
       </c>
     </row>
@@ -5026,7 +4728,7 @@
         <v>804.18822669999997</v>
       </c>
       <c r="F171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>804.18822669999997</v>
       </c>
     </row>
@@ -5038,7 +4740,7 @@
         <v>935.93850450000002</v>
       </c>
       <c r="F172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>935.93850450000002</v>
       </c>
     </row>
@@ -5050,7 +4752,7 @@
         <v>539.54564459999995</v>
       </c>
       <c r="F173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>539.54564459999995</v>
       </c>
     </row>
@@ -5062,7 +4764,7 @@
         <v>566.21717880000006</v>
       </c>
       <c r="F174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>566.21717880000006</v>
       </c>
     </row>
@@ -5074,7 +4776,7 @@
         <v>465.38418469999999</v>
       </c>
       <c r="F175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>465.38418469999999</v>
       </c>
     </row>
@@ -5086,7 +4788,7 @@
         <v>753.15679439999997</v>
       </c>
       <c r="F176">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>753.15679439999997</v>
       </c>
     </row>
@@ -5101,7 +4803,7 @@
         <v>220.10393260000001</v>
       </c>
       <c r="F177">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>307.11011395000003</v>
       </c>
     </row>
@@ -5116,7 +4818,7 @@
         <v>532.83454730000005</v>
       </c>
       <c r="F178">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>616.11922350000009</v>
       </c>
     </row>
@@ -5131,7 +4833,7 @@
         <v>542.18865740000001</v>
       </c>
       <c r="F179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>671.55182000000002</v>
       </c>
     </row>
@@ -5146,7 +4848,7 @@
         <v>457.37612610000002</v>
       </c>
       <c r="F180">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>663.27592915000002</v>
       </c>
     </row>
@@ -5161,7 +4863,7 @@
         <v>305.14020429999999</v>
       </c>
       <c r="F181">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>410.72860460000004</v>
       </c>
     </row>
@@ -5176,7 +4878,7 @@
         <v>554.67357509999999</v>
       </c>
       <c r="F182">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>784.24467305000007</v>
       </c>
     </row>
@@ -5191,7 +4893,7 @@
         <v>311.40432959999998</v>
       </c>
       <c r="F183">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>473.88220665</v>
       </c>
     </row>
@@ -5206,7 +4908,7 @@
         <v>237.23438770000001</v>
       </c>
       <c r="F184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>454.68117985000004</v>
       </c>
     </row>
@@ -5221,7 +4923,7 @@
         <v>90.133388569999994</v>
       </c>
       <c r="F185">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>313.86144953499996</v>
       </c>
     </row>
@@ -5236,7 +4938,7 @@
         <v>263.46936849999997</v>
       </c>
       <c r="F186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>423.25149095</v>
       </c>
     </row>
@@ -5251,7 +4953,7 @@
         <v>498.34980689999998</v>
       </c>
       <c r="F187">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>700.34191880000003</v>
       </c>
     </row>
@@ -5266,7 +4968,7 @@
         <v>411.52062710000001</v>
       </c>
       <c r="F188">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>583.68958525000005</v>
       </c>
     </row>
@@ -5281,7 +4983,7 @@
         <v>173.04391889999999</v>
       </c>
       <c r="F189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>373.35400714999997</v>
       </c>
     </row>
@@ -5296,7 +4998,7 @@
         <v>311.89622639999999</v>
       </c>
       <c r="F190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>386.09047190000001</v>
       </c>
     </row>
@@ -5311,7 +5013,7 @@
         <v>228.70463789999999</v>
       </c>
       <c r="F191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>328.63064405</v>
       </c>
     </row>
@@ -5326,7 +5028,7 @@
         <v>155.69846150000001</v>
       </c>
       <c r="F192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>292.02112755000002</v>
       </c>
     </row>
@@ -5341,7 +5043,7 @@
         <v>326.39742619999998</v>
       </c>
       <c r="F193">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>423.90213249999999</v>
       </c>
     </row>
@@ -5356,7 +5058,7 @@
         <v>104.87921849999999</v>
       </c>
       <c r="F194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>394.94974200000001</v>
       </c>
     </row>
@@ -5371,7 +5073,7 @@
         <v>473.32106340000001</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F258" si="14">AVERAGE(B195:E195)</f>
+        <f t="shared" ref="F195:F258" si="10">AVERAGE(B195:E195)</f>
         <v>739.7632572</v>
       </c>
     </row>
@@ -5386,7 +5088,7 @@
         <v>275.53891629999998</v>
       </c>
       <c r="F196">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>424.5739274</v>
       </c>
     </row>
@@ -5401,7 +5103,7 @@
         <v>254.94117650000001</v>
       </c>
       <c r="F197">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>381.26353519999998</v>
       </c>
     </row>
@@ -5416,7 +5118,7 @@
         <v>214.15816860000001</v>
       </c>
       <c r="F198">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>465.26191749999998</v>
       </c>
     </row>
@@ -5431,7 +5133,7 @@
         <v>433.02844829999998</v>
       </c>
       <c r="F199">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>550.17550314999994</v>
       </c>
     </row>
@@ -5446,7 +5148,7 @@
         <v>357.84404460000002</v>
       </c>
       <c r="F200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>475.65684435000003</v>
       </c>
     </row>
@@ -5461,7 +5163,7 @@
         <v>170.4068293</v>
       </c>
       <c r="F201">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>354.08410044999999</v>
       </c>
     </row>
@@ -5476,7 +5178,7 @@
         <v>153.08083139999999</v>
       </c>
       <c r="F202">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>325.15389334999998</v>
       </c>
     </row>
@@ -5491,7 +5193,7 @@
         <v>462.97627870000002</v>
       </c>
       <c r="F203">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>644.19030414999997</v>
       </c>
     </row>
@@ -5506,7 +5208,7 @@
         <v>504.39066150000002</v>
       </c>
       <c r="F204">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>638.57825760000003</v>
       </c>
     </row>
@@ -5521,7 +5223,7 @@
         <v>315.27060649999999</v>
       </c>
       <c r="F205">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>517.28562080000006</v>
       </c>
     </row>
@@ -5536,7 +5238,7 @@
         <v>332.76607280000002</v>
       </c>
       <c r="F206">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>519.24167880000005</v>
       </c>
     </row>
@@ -5551,7 +5253,7 @@
         <v>350.64967230000002</v>
       </c>
       <c r="F207">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>580.52769929999999</v>
       </c>
     </row>
@@ -5566,7 +5268,7 @@
         <v>179.0858369</v>
       </c>
       <c r="F208">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>336.14996170000001</v>
       </c>
     </row>
@@ -5581,7 +5283,7 @@
         <v>281.94219650000002</v>
       </c>
       <c r="F209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>376.4924269</v>
       </c>
     </row>
@@ -5596,7 +5298,7 @@
         <v>366.59180579999997</v>
       </c>
       <c r="F210">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>513.83281099999999</v>
       </c>
     </row>
@@ -5611,7 +5313,7 @@
         <v>352.20984220000003</v>
       </c>
       <c r="F211">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>626.42555044999995</v>
       </c>
     </row>
@@ -5626,7 +5328,7 @@
         <v>365.87790699999999</v>
       </c>
       <c r="F212">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>419.02374674999999</v>
       </c>
     </row>
@@ -5641,7 +5343,7 @@
         <v>343.50323100000003</v>
       </c>
       <c r="F213">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>500.25161550000001</v>
       </c>
     </row>
@@ -5656,7 +5358,7 @@
         <v>152.5615942</v>
       </c>
       <c r="F214">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>264.7325462</v>
       </c>
     </row>
@@ -5722,7 +5424,7 @@
         <v>414.00451807228899</v>
       </c>
       <c r="F224">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>545.38301161807226</v>
       </c>
     </row>
@@ -5743,7 +5445,7 @@
         <v>739.47438162544097</v>
       </c>
       <c r="F225">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>818.1368798063603</v>
       </c>
     </row>
@@ -5764,7 +5466,7 @@
         <v>717.66077441077402</v>
       </c>
       <c r="F226">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>794.59709380269351</v>
       </c>
     </row>
@@ -5785,7 +5487,7 @@
         <v>722.28484320557402</v>
       </c>
       <c r="F227">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>758.9116471263934</v>
       </c>
     </row>
@@ -5806,7 +5508,7 @@
         <v>920.912630579297</v>
       </c>
       <c r="F228">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>709.76437794482422</v>
       </c>
     </row>
@@ -5827,7 +5529,7 @@
         <v>715.90154968094805</v>
       </c>
       <c r="F229">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>810.23926919523694</v>
       </c>
     </row>
@@ -5848,7 +5550,7 @@
         <v>577.69869402985</v>
       </c>
       <c r="F230">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>609.90940028246246</v>
       </c>
     </row>
@@ -5869,7 +5571,7 @@
         <v>499.24732229795501</v>
       </c>
       <c r="F231">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>542.22786232448868</v>
       </c>
     </row>
@@ -5890,7 +5592,7 @@
         <v>308.33475479744101</v>
       </c>
       <c r="F232">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>347.39155699936026</v>
       </c>
     </row>
@@ -5911,7 +5613,7 @@
         <v>625.35983263598303</v>
       </c>
       <c r="F233">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>698.59643920899566</v>
       </c>
     </row>
@@ -5932,7 +5634,7 @@
         <v>764.48264729620598</v>
       </c>
       <c r="F234">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>785.00377852405154</v>
       </c>
     </row>
@@ -5953,7 +5655,7 @@
         <v>748.08003518029898</v>
       </c>
       <c r="F235">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>751.0573674950748</v>
       </c>
     </row>
@@ -5974,7 +5676,7 @@
         <v>745.42664092664097</v>
       </c>
       <c r="F236">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>688.52915095666026</v>
       </c>
     </row>
@@ -5995,7 +5697,7 @@
         <v>608.91019644527501</v>
       </c>
       <c r="F237">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>766.94645636131872</v>
       </c>
     </row>
@@ -6016,7 +5718,7 @@
         <v>538.32110912343398</v>
       </c>
       <c r="F238">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>700.54097940585848</v>
       </c>
     </row>
@@ -6037,7 +5739,7 @@
         <v>839.69883720930204</v>
       </c>
       <c r="F239">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>737.07951497732552</v>
       </c>
     </row>
@@ -6058,7 +5760,7 @@
         <v>378.13807531380701</v>
       </c>
       <c r="F240">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>309.98796962845176</v>
       </c>
     </row>
@@ -6079,7 +5781,7 @@
         <v>742.32575068243796</v>
       </c>
       <c r="F241">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>892.94932789560937</v>
       </c>
     </row>
@@ -6100,7 +5802,7 @@
         <v>739.38641188959605</v>
       </c>
       <c r="F242">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>866.51831134739905</v>
       </c>
     </row>
@@ -6121,7 +5823,7 @@
         <v>427.33685136323601</v>
       </c>
       <c r="F243">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>497.04271541580903</v>
       </c>
     </row>
@@ -6142,7 +5844,7 @@
         <v>686.89253996447599</v>
       </c>
       <c r="F244">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>705.48129469111893</v>
       </c>
     </row>
@@ -6163,7 +5865,7 @@
         <v>954.60362173038197</v>
       </c>
       <c r="F245">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>771.2634351575955</v>
       </c>
     </row>
@@ -6184,7 +5886,7 @@
         <v>767.84675834970506</v>
       </c>
       <c r="F246">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>807.8441958624262</v>
       </c>
     </row>
@@ -6205,7 +5907,7 @@
         <v>834.93574297188695</v>
       </c>
       <c r="F247">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>651.3848740179717</v>
       </c>
     </row>
@@ -6226,7 +5928,7 @@
         <v>562.54770755886</v>
       </c>
       <c r="F248">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>512.66672558971504</v>
       </c>
     </row>
@@ -6247,7 +5949,7 @@
         <v>864.45474137931001</v>
       </c>
       <c r="F249">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>917.00321501982739</v>
       </c>
     </row>
@@ -6268,7 +5970,7 @@
         <v>642.07196029776605</v>
       </c>
       <c r="F250">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>444.89631479944148</v>
       </c>
     </row>
@@ -6289,7 +5991,7 @@
         <v>298.978146194423</v>
       </c>
       <c r="F251">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>275.87542799610577</v>
       </c>
     </row>
@@ -6310,7 +6012,7 @@
         <v>403.12596401028202</v>
       </c>
       <c r="F252">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>552.08311510257045</v>
       </c>
     </row>
@@ -6331,7 +6033,7 @@
         <v>500.77603686635899</v>
       </c>
       <c r="F253">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>673.23648811658973</v>
       </c>
     </row>
@@ -6352,7 +6054,7 @@
         <v>790.35352112676003</v>
       </c>
       <c r="F254">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>643.24989918169001</v>
       </c>
     </row>
@@ -6373,7 +6075,7 @@
         <v>193.59922779922701</v>
       </c>
       <c r="F255">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>295.23311838980675</v>
       </c>
     </row>
@@ -6394,7 +6096,7 @@
         <v>278.07602339181199</v>
       </c>
       <c r="F256">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>346.372593847953</v>
       </c>
     </row>
@@ -6415,7 +6117,7 @@
         <v>436.48888888888803</v>
       </c>
       <c r="F257">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>603.25864799722206</v>
       </c>
     </row>
@@ -6436,7 +6138,7 @@
         <v>434.5</v>
       </c>
       <c r="F258">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>508.72803405000002</v>
       </c>
     </row>
@@ -6457,7 +6159,7 @@
         <v>521.51496388028897</v>
       </c>
       <c r="F259">
-        <f t="shared" ref="F259:F322" si="15">AVERAGE(B259:E259)</f>
+        <f t="shared" ref="F259:F322" si="11">AVERAGE(B259:E259)</f>
         <v>585.48378124507224</v>
       </c>
     </row>
@@ -6478,7 +6180,7 @@
         <v>663.906367041198</v>
       </c>
       <c r="F260">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>722.30531693529952</v>
       </c>
     </row>
@@ -6499,7 +6201,7 @@
         <v>184.20132743362799</v>
       </c>
       <c r="F261">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>312.03278573340702</v>
       </c>
     </row>
@@ -6520,7 +6222,7 @@
         <v>473.10028116213601</v>
       </c>
       <c r="F262">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>572.01518281553399</v>
       </c>
     </row>
@@ -6541,7 +6243,7 @@
         <v>913.713747645951</v>
       </c>
       <c r="F263">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>773.61361983648771</v>
       </c>
     </row>
@@ -6562,7 +6264,7 @@
         <v>355.569477911646</v>
       </c>
       <c r="F264">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>351.32606695291145</v>
       </c>
     </row>
@@ -6583,7 +6285,7 @@
         <v>510.89898989898899</v>
       </c>
       <c r="F265">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>626.57174847474721</v>
       </c>
     </row>
@@ -6604,7 +6306,7 @@
         <v>444.65741728922001</v>
       </c>
       <c r="F266">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>493.34997537230493</v>
       </c>
     </row>
@@ -6625,7 +6327,7 @@
         <v>744.88842975206603</v>
       </c>
       <c r="F267">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>809.86948896301647</v>
       </c>
     </row>
@@ -6646,7 +6348,7 @@
         <v>539.84526854219905</v>
       </c>
       <c r="F268">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>590.18202741054984</v>
       </c>
     </row>
@@ -6667,7 +6369,7 @@
         <v>732.90675547097999</v>
       </c>
       <c r="F269">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>578.937364042745</v>
       </c>
     </row>
@@ -6688,7 +6390,7 @@
         <v>362.36170212765899</v>
       </c>
       <c r="F270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>514.88149103191472</v>
       </c>
     </row>
@@ -6709,7 +6411,7 @@
         <v>566.01295896328202</v>
       </c>
       <c r="F271">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>496.2609213908205</v>
       </c>
     </row>
@@ -6730,7 +6432,7 @@
         <v>528.86798336798302</v>
       </c>
       <c r="F272">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>589.58765326699574</v>
       </c>
     </row>
@@ -6751,7 +6453,7 @@
         <v>528.25666337611005</v>
       </c>
       <c r="F273">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>590.52213764402745</v>
       </c>
     </row>
@@ -6772,7 +6474,7 @@
         <v>679.71643192488204</v>
       </c>
       <c r="F274">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>719.3306718812205</v>
       </c>
     </row>
@@ -6793,7 +6495,7 @@
         <v>569.73523622047196</v>
       </c>
       <c r="F275">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>757.16928563011811</v>
       </c>
     </row>
@@ -6814,7 +6516,7 @@
         <v>921.38590604026797</v>
       </c>
       <c r="F276">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>778.62537966006698</v>
       </c>
     </row>
@@ -6835,7 +6537,7 @@
         <v>688.00935453695001</v>
       </c>
       <c r="F277">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>570.89645323423747</v>
       </c>
     </row>
@@ -6856,7 +6558,7 @@
         <v>297.44480257856497</v>
       </c>
       <c r="F278">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>323.99658599464124</v>
       </c>
     </row>
@@ -6877,7 +6579,7 @@
         <v>642.64217252396099</v>
       </c>
       <c r="F279">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>699.59609743099031</v>
       </c>
     </row>
@@ -6898,7 +6600,7 @@
         <v>510.01249024199802</v>
       </c>
       <c r="F280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>667.35981786049945</v>
       </c>
     </row>
@@ -6919,7 +6621,7 @@
         <v>759.35359116022096</v>
       </c>
       <c r="F281">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>674.7515714150552</v>
       </c>
     </row>
@@ -6940,7 +6642,7 @@
         <v>534.95481335952798</v>
       </c>
       <c r="F282">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>519.44712693988197</v>
       </c>
     </row>
@@ -6961,7 +6663,7 @@
         <v>639.44847020933901</v>
       </c>
       <c r="F283">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>689.22415652733469</v>
       </c>
     </row>
@@ -6982,7 +6684,7 @@
         <v>438.27809523809498</v>
       </c>
       <c r="F284">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>449.58937060952377</v>
       </c>
     </row>
@@ -7003,7 +6705,7 @@
         <v>443.10854947166098</v>
       </c>
       <c r="F285">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>465.24380441791527</v>
       </c>
     </row>
@@ -7024,7 +6726,7 @@
         <v>634.49863760217897</v>
       </c>
       <c r="F286">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>602.66688630054477</v>
       </c>
     </row>
@@ -7045,7 +6747,7 @@
         <v>579.06637168141594</v>
       </c>
       <c r="F287">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>598.03190259535393</v>
       </c>
     </row>
@@ -7066,7 +6768,7 @@
         <v>562.62109704641296</v>
       </c>
       <c r="F288">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>716.5995076616033</v>
       </c>
     </row>
@@ -7087,7 +6789,7 @@
         <v>497.14358322744602</v>
       </c>
       <c r="F289">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>653.2665520068615</v>
       </c>
     </row>
@@ -7108,7 +6810,7 @@
         <v>299.40740740740699</v>
       </c>
       <c r="F290">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>317.74504180185176</v>
       </c>
     </row>
@@ -7129,7 +6831,7 @@
         <v>207.70760642009699</v>
       </c>
       <c r="F291">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>248.43116158002425</v>
       </c>
     </row>
@@ -7150,7 +6852,7 @@
         <v>537.67525298988005</v>
       </c>
       <c r="F292">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>571.16536339747006</v>
       </c>
     </row>
@@ -7171,7 +6873,7 @@
         <v>918.402791625124</v>
       </c>
       <c r="F293">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>896.33392493128099</v>
       </c>
     </row>
@@ -7192,7 +6894,7 @@
         <v>740.71044776119402</v>
       </c>
       <c r="F294">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>711.83194414029845</v>
       </c>
     </row>
@@ -7213,7 +6915,7 @@
         <v>382.13935340022198</v>
       </c>
       <c r="F295">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>444.15176822505549</v>
       </c>
     </row>
@@ -7234,7 +6936,7 @@
         <v>629.95387293298495</v>
       </c>
       <c r="F296">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>618.3995657082462</v>
       </c>
     </row>
@@ -7255,7 +6957,7 @@
         <v>432.08276533592903</v>
       </c>
       <c r="F297">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>499.87726975898227</v>
       </c>
     </row>
@@ -7276,7 +6978,7 @@
         <v>632.16224814422003</v>
       </c>
       <c r="F298">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>698.72899088605504</v>
       </c>
     </row>
@@ -7297,7 +6999,7 @@
         <v>736.37445319334995</v>
       </c>
       <c r="F299">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>726.12904989833748</v>
       </c>
     </row>
@@ -7318,7 +7020,7 @@
         <v>525.79601990049696</v>
       </c>
       <c r="F300">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>572.79914825012429</v>
       </c>
     </row>
@@ -7339,7 +7041,7 @@
         <v>325.13043478260801</v>
       </c>
       <c r="F301">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>346.222269170652</v>
       </c>
     </row>
@@ -7360,7 +7062,7 @@
         <v>456.12254901960699</v>
       </c>
       <c r="F302">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>510.36222500490175</v>
       </c>
     </row>
@@ -7381,7 +7083,7 @@
         <v>337.81845688350899</v>
       </c>
       <c r="F303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>344.73726864587729</v>
       </c>
     </row>
@@ -7402,7 +7104,7 @@
         <v>369.625592417061</v>
       </c>
       <c r="F304">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>454.19623715426519</v>
       </c>
     </row>
@@ -7423,7 +7125,7 @@
         <v>315.658064516129</v>
       </c>
       <c r="F305">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>495.53667410403227</v>
       </c>
     </row>
@@ -7444,7 +7146,7 @@
         <v>206.027820710973</v>
       </c>
       <c r="F306">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>233.84572557774322</v>
       </c>
     </row>
@@ -7465,7 +7167,7 @@
         <v>546.24935511607896</v>
       </c>
       <c r="F307">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>508.37396955401977</v>
       </c>
     </row>
@@ -7486,7 +7188,7 @@
         <v>414.07931570762003</v>
       </c>
       <c r="F308">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>349.362370876905</v>
       </c>
     </row>
@@ -7507,7 +7209,7 @@
         <v>435.94299999999998</v>
       </c>
       <c r="F309">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>544.76176874999999</v>
       </c>
     </row>
@@ -7528,7 +7230,7 @@
         <v>589.05646359583898</v>
       </c>
       <c r="F310">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>699.44537257395973</v>
       </c>
     </row>
@@ -7549,7 +7251,7 @@
         <v>414.50670241286798</v>
       </c>
       <c r="F311">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>651.42823410321705</v>
       </c>
     </row>
@@ -7570,7 +7272,7 @@
         <v>341.91356673960598</v>
       </c>
       <c r="F312">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>390.95517685990154</v>
       </c>
     </row>
@@ -7591,7 +7293,7 @@
         <v>467.32871536523902</v>
       </c>
       <c r="F313">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>444.42176041630978</v>
       </c>
     </row>
@@ -7612,7 +7314,7 @@
         <v>92.7596371882086</v>
       </c>
       <c r="F314">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>122.48118749455215</v>
       </c>
     </row>
@@ -7633,7 +7335,7 @@
         <v>568.87780548628405</v>
       </c>
       <c r="F315">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>633.46371497157099</v>
       </c>
     </row>
@@ -7654,7 +7356,7 @@
         <v>641.689453125</v>
       </c>
       <c r="F316">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>746.04939200625006</v>
       </c>
     </row>
@@ -7675,7 +7377,7 @@
         <v>451.75278969956997</v>
       </c>
       <c r="F317">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>443.19844739989253</v>
       </c>
     </row>
@@ -7696,7 +7398,7 @@
         <v>303.19845111326202</v>
       </c>
       <c r="F318">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>425.22654190331554</v>
       </c>
     </row>
@@ -7717,7 +7419,7 @@
         <v>514.17316513761398</v>
       </c>
       <c r="F319">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>695.44728055940345</v>
       </c>
     </row>
@@ -7738,7 +7440,7 @@
         <v>760.920802534318</v>
       </c>
       <c r="F320">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>868.19568983357954</v>
       </c>
     </row>
@@ -7759,7 +7461,7 @@
         <v>436.32871972318299</v>
       </c>
       <c r="F321">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>412.14876378079578</v>
       </c>
     </row>
@@ -7780,7 +7482,7 @@
         <v>290.94780219780199</v>
       </c>
       <c r="F322">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>360.8226380994505</v>
       </c>
     </row>
@@ -7801,7 +7503,7 @@
         <v>378.98595943837699</v>
       </c>
       <c r="F323">
-        <f t="shared" ref="F323:F386" si="16">AVERAGE(B323:E323)</f>
+        <f t="shared" ref="F323:F386" si="12">AVERAGE(B323:E323)</f>
         <v>487.14756425959428</v>
       </c>
     </row>
@@ -7822,7 +7524,7 @@
         <v>182.79058597502399</v>
       </c>
       <c r="F324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>286.78927116875604</v>
       </c>
     </row>
@@ -7843,7 +7545,7 @@
         <v>349.82259887005603</v>
       </c>
       <c r="F325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>526.94014786751404</v>
       </c>
     </row>
@@ -7864,7 +7566,7 @@
         <v>226.501726121979</v>
       </c>
       <c r="F326">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>362.30378768049479</v>
       </c>
     </row>
@@ -7885,7 +7587,7 @@
         <v>413.66966292134799</v>
       </c>
       <c r="F327">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>494.73763260533696</v>
       </c>
     </row>
@@ -7906,7 +7608,7 @@
         <v>317.44707091469598</v>
       </c>
       <c r="F328">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>233.90089489367404</v>
       </c>
     </row>
@@ -7927,7 +7629,7 @@
         <v>352.05895439377002</v>
       </c>
       <c r="F329">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>341.20794417344251</v>
       </c>
     </row>
@@ -7948,7 +7650,7 @@
         <v>453.498054474708</v>
       </c>
       <c r="F330">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>468.56378479367697</v>
       </c>
     </row>
@@ -7969,7 +7671,7 @@
         <v>291.65721649484499</v>
       </c>
       <c r="F331">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>264.05460167371126</v>
       </c>
     </row>
@@ -7990,7 +7692,7 @@
         <v>508.37984496124</v>
       </c>
       <c r="F332">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>517.15146219030999</v>
       </c>
     </row>
@@ -8011,7 +7713,7 @@
         <v>457.81906300484599</v>
       </c>
       <c r="F333">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>482.21501602621146</v>
       </c>
     </row>
@@ -8032,7 +7734,7 @@
         <v>342.736906211936</v>
       </c>
       <c r="F334">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>370.17846487798397</v>
       </c>
     </row>
@@ -8053,7 +7755,7 @@
         <v>348.19503105590002</v>
       </c>
       <c r="F335">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>427.18088736397505</v>
       </c>
     </row>
@@ -8074,7 +7776,7 @@
         <v>233.57203389830499</v>
       </c>
       <c r="F336">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>259.14495504957625</v>
       </c>
     </row>
@@ -8095,7 +7797,7 @@
         <v>329.02816901408403</v>
       </c>
       <c r="F337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>358.97140842852104</v>
       </c>
     </row>
@@ -8116,7 +7818,7 @@
         <v>306.81176470588201</v>
       </c>
       <c r="F338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>342.81678250147053</v>
       </c>
     </row>
@@ -8137,7 +7839,7 @@
         <v>370.94693877550998</v>
       </c>
       <c r="F339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>371.88864179387753</v>
       </c>
     </row>
@@ -8158,7 +7860,7 @@
         <v>204.13275299238299</v>
       </c>
       <c r="F340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>205.38326174809575</v>
       </c>
     </row>
@@ -8179,7 +7881,7 @@
         <v>356.610788381742</v>
       </c>
       <c r="F341">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>307.69602332043553</v>
       </c>
     </row>
@@ -8200,7 +7902,7 @@
         <v>380.94697773064598</v>
       </c>
       <c r="F342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>469.87033470766153</v>
       </c>
     </row>
@@ -8221,7 +7923,7 @@
         <v>347.09515418502201</v>
       </c>
       <c r="F343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>406.99782874625549</v>
       </c>
     </row>
@@ -8242,7 +7944,7 @@
         <v>226.30749354005101</v>
       </c>
       <c r="F344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>393.81326403501271</v>
       </c>
     </row>
@@ -8263,7 +7965,7 @@
         <v>256.680045871559</v>
       </c>
       <c r="F345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>428.38694691788976</v>
       </c>
     </row>
@@ -8284,7 +7986,7 @@
         <v>344.84935579781899</v>
       </c>
       <c r="F346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>549.11869709945472</v>
       </c>
     </row>
@@ -8305,7 +8007,7 @@
         <v>57.941261783901297</v>
       </c>
       <c r="F347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>139.31556769597532</v>
       </c>
     </row>
@@ -8326,7 +8028,7 @@
         <v>399.41942945258199</v>
       </c>
       <c r="F348">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>495.28163383814547</v>
       </c>
     </row>
@@ -8347,7 +8049,7 @@
         <v>387.48732943469702</v>
       </c>
       <c r="F349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>390.06383385867423</v>
       </c>
     </row>
@@ -8368,7 +8070,7 @@
         <v>371.60238272524202</v>
       </c>
       <c r="F350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>507.56437135631052</v>
       </c>
     </row>
@@ -8389,7 +8091,7 @@
         <v>179.21615201900201</v>
       </c>
       <c r="F351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>437.9526309797505</v>
       </c>
     </row>
@@ -8410,7 +8112,7 @@
         <v>367.12630792227202</v>
       </c>
       <c r="F352">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>464.11314983056798</v>
       </c>
     </row>
@@ -8431,7 +8133,7 @@
         <v>394.97391304347798</v>
       </c>
       <c r="F353">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>446.69000751086952</v>
       </c>
     </row>
@@ -8452,7 +8154,7 @@
         <v>371.53310696095002</v>
       </c>
       <c r="F354">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>285.28485741273755</v>
       </c>
     </row>
@@ -8473,7 +8175,7 @@
         <v>158.090984284532</v>
       </c>
       <c r="F355">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>234.80712339613302</v>
       </c>
     </row>
@@ -8494,7 +8196,7 @@
         <v>100.286617492096</v>
       </c>
       <c r="F356">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>256.21855602302401</v>
       </c>
     </row>
@@ -8515,7 +8217,7 @@
         <v>264.99596774193498</v>
       </c>
       <c r="F357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>356.87633498548371</v>
       </c>
     </row>
@@ -8536,7 +8238,7 @@
         <v>228.540474243663</v>
       </c>
       <c r="F358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>333.84951153591578</v>
       </c>
     </row>
@@ -8557,7 +8259,7 @@
         <v>265.34301675977599</v>
       </c>
       <c r="F359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>353.67433886494399</v>
       </c>
     </row>
@@ -8578,7 +8280,7 @@
         <v>324.01890547263599</v>
       </c>
       <c r="F360">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>402.49915534315903</v>
       </c>
     </row>
@@ -8599,7 +8301,7 @@
         <v>215.37272727272699</v>
       </c>
       <c r="F361">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>395.47130754318175</v>
       </c>
     </row>
@@ -8620,7 +8322,7 @@
         <v>117.382585751978</v>
       </c>
       <c r="F362">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>322.18035731299449</v>
       </c>
     </row>
@@ -8641,7 +8343,7 @@
         <v>87.910552763819098</v>
       </c>
       <c r="F363">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>332.6228736159548</v>
       </c>
     </row>
@@ -8662,7 +8364,7 @@
         <v>125.814442413162</v>
       </c>
       <c r="F364">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>392.06216077829049</v>
       </c>
     </row>
@@ -8683,7 +8385,7 @@
         <v>227.26368159203901</v>
       </c>
       <c r="F365">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>429.3376001980098</v>
       </c>
     </row>
@@ -8704,7 +8406,7 @@
         <v>63.588607594936697</v>
       </c>
       <c r="F366">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>314.7355099487342</v>
       </c>
     </row>
@@ -8725,7 +8427,7 @@
         <v>122.77966101694901</v>
       </c>
       <c r="F367">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>429.37797655423719</v>
       </c>
     </row>
@@ -8746,7 +8448,7 @@
         <v>276.94078947368399</v>
       </c>
       <c r="F368">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>441.37819361842099</v>
       </c>
     </row>
@@ -8767,7 +8469,7 @@
         <v>240.022944550669</v>
       </c>
       <c r="F369">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>401.23658693766725</v>
       </c>
     </row>
@@ -8788,7 +8490,7 @@
         <v>239.728536385936</v>
       </c>
       <c r="F370">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>311.78197294648402</v>
       </c>
     </row>
@@ -8809,7 +8511,7 @@
         <v>474.876574307304</v>
       </c>
       <c r="F371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>531.55290147682604</v>
       </c>
     </row>
@@ -8830,7 +8532,7 @@
         <v>404.50246791707798</v>
       </c>
       <c r="F372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>358.95221742926947</v>
       </c>
     </row>
@@ -8851,7 +8553,7 @@
         <v>395.45419847328202</v>
       </c>
       <c r="F373">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>402.49781699082052</v>
       </c>
     </row>
@@ -8872,7 +8574,7 @@
         <v>448.47771236333</v>
       </c>
       <c r="F374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>430.29871308333253</v>
       </c>
     </row>
@@ -8893,7 +8595,7 @@
         <v>255.89816849816799</v>
       </c>
       <c r="F375">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>306.28646312454202</v>
       </c>
     </row>
@@ -8914,7 +8616,7 @@
         <v>448.97268292682901</v>
       </c>
       <c r="F376">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>631.74268248170722</v>
       </c>
     </row>
@@ -8935,7 +8637,7 @@
         <v>284.50075987841899</v>
       </c>
       <c r="F377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>311.36158419460475</v>
       </c>
     </row>
@@ -8956,7 +8658,7 @@
         <v>655.15653040877305</v>
       </c>
       <c r="F378">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>680.15104790219323</v>
       </c>
     </row>
@@ -8977,7 +8679,7 @@
         <v>499.01257142857099</v>
       </c>
       <c r="F379">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>444.92686145714271</v>
       </c>
     </row>
@@ -8998,7 +8700,7 @@
         <v>401.02162565249802</v>
       </c>
       <c r="F380">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>491.31689051312452</v>
       </c>
     </row>
@@ -9019,7 +8721,7 @@
         <v>362.8203125</v>
       </c>
       <c r="F381">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>633.37652494999998</v>
       </c>
     </row>
@@ -9040,7 +8742,7 @@
         <v>353.04855072463698</v>
       </c>
       <c r="F382">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>545.13346798115924</v>
       </c>
     </row>
@@ -9061,7 +8763,7 @@
         <v>326.13405495420398</v>
       </c>
       <c r="F383">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>556.857893863551</v>
       </c>
     </row>
@@ -9082,7 +8784,7 @@
         <v>199.97009674582199</v>
       </c>
       <c r="F384">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>322.93864378645549</v>
       </c>
     </row>
@@ -9103,7 +8805,7 @@
         <v>416.10034305317299</v>
       </c>
       <c r="F385">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>466.57752263829326</v>
       </c>
     </row>
@@ -9124,7 +8826,7 @@
         <v>611.36395147313601</v>
       </c>
       <c r="F386">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>597.35937289328399</v>
       </c>
     </row>
@@ -9145,7 +8847,7 @@
         <v>352.61616161616098</v>
       </c>
       <c r="F387">
-        <f t="shared" ref="F387:F450" si="17">AVERAGE(B387:E387)</f>
+        <f t="shared" ref="F387:F450" si="13">AVERAGE(B387:E387)</f>
         <v>524.37288850404025</v>
       </c>
     </row>
@@ -9166,7 +8868,7 @@
         <v>271.88064269319</v>
       </c>
       <c r="F388">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>490.99034739829756</v>
       </c>
     </row>
@@ -9187,7 +8889,7 @@
         <v>658.05607476635498</v>
       </c>
       <c r="F389">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>648.44527431658867</v>
       </c>
     </row>
@@ -9208,7 +8910,7 @@
         <v>412.37124999999997</v>
       </c>
       <c r="F390">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>539.03728684999999</v>
       </c>
     </row>
@@ -9229,7 +8931,7 @@
         <v>463.99505358614999</v>
       </c>
       <c r="F391">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>626.37418592153745</v>
       </c>
     </row>
@@ -9250,7 +8952,7 @@
         <v>372.15840118430702</v>
       </c>
       <c r="F392">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>440.58149729607675</v>
       </c>
     </row>
@@ -9271,7 +8973,7 @@
         <v>357.74345146379</v>
       </c>
       <c r="F393">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>423.25653051594747</v>
       </c>
     </row>
@@ -9292,7 +8994,7 @@
         <v>369.475687103594</v>
       </c>
       <c r="F394">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>582.11829337589847</v>
       </c>
     </row>
@@ -9313,7 +9015,7 @@
         <v>439.91716997411498</v>
       </c>
       <c r="F395">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>607.31237906852868</v>
       </c>
     </row>
@@ -9334,7 +9036,7 @@
         <v>404.51612903225799</v>
       </c>
       <c r="F396">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>517.90533215806454</v>
       </c>
     </row>
@@ -9355,7 +9057,7 @@
         <v>482.19496855345898</v>
       </c>
       <c r="F397">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>579.83333896336478</v>
       </c>
     </row>
@@ -9376,7 +9078,7 @@
         <v>550.74344262295006</v>
       </c>
       <c r="F398">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>564.75673005573753</v>
       </c>
     </row>
@@ -9397,7 +9099,7 @@
         <v>407.62908680946998</v>
       </c>
       <c r="F399">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>455.91815320236748</v>
       </c>
     </row>
@@ -9418,7 +9120,7 @@
         <v>404.627980922098</v>
       </c>
       <c r="F400">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>503.2890792805245</v>
       </c>
     </row>
@@ -9439,7 +9141,7 @@
         <v>300.98601398601397</v>
       </c>
       <c r="F401">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>591.46395704650342</v>
       </c>
     </row>
@@ -9460,7 +9162,7 @@
         <v>279.54173764906301</v>
       </c>
       <c r="F402">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>370.40465993726576</v>
       </c>
     </row>
@@ -9478,7 +9180,7 @@
         <v>320.21094527363101</v>
       </c>
       <c r="F403">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>375.96401329121039</v>
       </c>
     </row>
@@ -9496,7 +9198,7 @@
         <v>608.84712837837799</v>
       </c>
       <c r="F404">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>535.68174559279271</v>
       </c>
     </row>
@@ -9514,7 +9216,7 @@
         <v>304.21410992616899</v>
       </c>
       <c r="F405">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>206.570547408723</v>
       </c>
     </row>
@@ -9532,7 +9234,7 @@
         <v>329.79089219330803</v>
       </c>
       <c r="F406">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>278.46869789776935</v>
       </c>
     </row>
@@ -9550,7 +9252,7 @@
         <v>497.14346349745301</v>
       </c>
       <c r="F407">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>362.26419136581768</v>
       </c>
     </row>
@@ -9568,7 +9270,7 @@
         <v>437.41017227235398</v>
       </c>
       <c r="F408">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>307.94769866745133</v>
       </c>
     </row>
@@ -9586,7 +9288,7 @@
         <v>317.44790812141099</v>
       </c>
       <c r="F409">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>340.78450870713704</v>
       </c>
     </row>
@@ -9604,7 +9306,7 @@
         <v>335.96692111959197</v>
       </c>
       <c r="F410">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>438.43716947319734</v>
       </c>
     </row>
@@ -9622,7 +9324,7 @@
         <v>367.35052377115198</v>
       </c>
       <c r="F411">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>372.53257215705071</v>
       </c>
     </row>
@@ -9640,7 +9342,7 @@
         <v>448.025910931174</v>
       </c>
       <c r="F412">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>435.71658421039132</v>
       </c>
     </row>
@@ -9658,7 +9360,7 @@
         <v>294.40180772391102</v>
       </c>
       <c r="F413">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>345.26681294130367</v>
       </c>
     </row>
@@ -9676,7 +9378,7 @@
         <v>256.00236406619302</v>
       </c>
       <c r="F414">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>239.27871472206434</v>
       </c>
     </row>
@@ -9694,7 +9396,7 @@
         <v>353.98574483250098</v>
       </c>
       <c r="F415">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>373.66355634416703</v>
       </c>
     </row>
@@ -9712,7 +9414,7 @@
         <v>403.96795952782401</v>
       </c>
       <c r="F416">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>502.36281457594129</v>
       </c>
     </row>
@@ -9730,7 +9432,7 @@
         <v>558.85108481262296</v>
       </c>
       <c r="F417">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>412.73224137087436</v>
       </c>
     </row>
@@ -9748,7 +9450,7 @@
         <v>494.66848816029102</v>
       </c>
       <c r="F418">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>437.65338888676365</v>
       </c>
     </row>
@@ -9766,7 +9468,7 @@
         <v>382.266497461928</v>
       </c>
       <c r="F419">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>270.73775275730935</v>
       </c>
     </row>
@@ -9784,7 +9486,7 @@
         <v>387.489825581395</v>
       </c>
       <c r="F420">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>409.21586886046498</v>
       </c>
     </row>
@@ -9802,7 +9504,7 @@
         <v>502.08136696501202</v>
       </c>
       <c r="F421">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>667.16764422167068</v>
       </c>
     </row>
@@ -9820,7 +9522,7 @@
         <v>438.28750923872798</v>
       </c>
       <c r="F422">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>455.42884177957603</v>
       </c>
     </row>
@@ -9838,7 +9540,7 @@
         <v>425.02349624060099</v>
       </c>
       <c r="F423">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>468.35756301353371</v>
       </c>
     </row>
@@ -9856,7 +9558,7 @@
         <v>358.38184663536703</v>
       </c>
       <c r="F424">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>365.2531202784557</v>
       </c>
     </row>
@@ -9874,7 +9576,7 @@
         <v>483.05905826017499</v>
       </c>
       <c r="F425">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>397.94108358672497</v>
       </c>
     </row>
@@ -9892,7 +9594,7 @@
         <v>325.66726618705002</v>
       </c>
       <c r="F426">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>338.99596596235</v>
       </c>
     </row>
@@ -9910,7 +9612,7 @@
         <v>394.94934333958702</v>
       </c>
       <c r="F427">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>353.90934417986227</v>
       </c>
     </row>
@@ -9928,7 +9630,7 @@
         <v>457.56525157232699</v>
       </c>
       <c r="F428">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>587.81419449077578</v>
       </c>
     </row>
@@ -9946,7 +9648,7 @@
         <v>407.251902587519</v>
       </c>
       <c r="F429">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>469.28654239583966</v>
       </c>
     </row>
@@ -9964,7 +9666,7 @@
         <v>641.775735294117</v>
       </c>
       <c r="F430">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>691.14895513137242</v>
       </c>
     </row>
@@ -9982,7 +9684,7 @@
         <v>422.96784830997501</v>
       </c>
       <c r="F431">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>461.93522393665836</v>
       </c>
     </row>
@@ -10000,7 +9702,7 @@
         <v>497.61047835990797</v>
       </c>
       <c r="F432">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>556.18462111996939</v>
       </c>
     </row>
@@ -10018,7 +9720,7 @@
         <v>643.07954545454504</v>
       </c>
       <c r="F433">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>582.03863661818161</v>
       </c>
     </row>
@@ -10036,7 +9738,7 @@
         <v>523.43760683760604</v>
       </c>
       <c r="F434">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>467.16233967920198</v>
       </c>
     </row>
@@ -10054,7 +9756,7 @@
         <v>659.4144</v>
       </c>
       <c r="F435">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>467.10560506666661</v>
       </c>
     </row>
@@ -10072,7 +9774,7 @@
         <v>437.751873438801</v>
       </c>
       <c r="F436">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>394.28087344626692</v>
       </c>
     </row>
@@ -10090,7 +9792,7 @@
         <v>435.11807817589499</v>
       </c>
       <c r="F437">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>611.11953722529825</v>
       </c>
     </row>
@@ -10108,7 +9810,7 @@
         <v>539.16958654519897</v>
       </c>
       <c r="F438">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>539.11587241506629</v>
       </c>
     </row>
@@ -10126,7 +9828,7 @@
         <v>518.32657342657296</v>
       </c>
       <c r="F439">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>466.99383514219102</v>
       </c>
     </row>
@@ -10144,7 +9846,7 @@
         <v>541.37158852344203</v>
       </c>
       <c r="F440">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>527.68924780781401</v>
       </c>
     </row>
@@ -10162,7 +9864,7 @@
         <v>321.82709950599798</v>
       </c>
       <c r="F441">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>425.18929966866602</v>
       </c>
     </row>
@@ -10180,7 +9882,7 @@
         <v>560.84100418410003</v>
       </c>
       <c r="F442">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>583.17639246136662</v>
       </c>
     </row>
@@ -10198,7 +9900,7 @@
         <v>485.50518518518498</v>
       </c>
       <c r="F443">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>505.7731156617283</v>
       </c>
     </row>
@@ -10216,7 +9918,7 @@
         <v>475.06332637439101</v>
       </c>
       <c r="F444">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>477.68876879146364</v>
       </c>
     </row>
@@ -10234,7 +9936,7 @@
         <v>512.69668587896194</v>
       </c>
       <c r="F445">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>529.11766255965404</v>
       </c>
     </row>
@@ -10252,7 +9954,7 @@
         <v>356.66178521617798</v>
       </c>
       <c r="F446">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>358.23316687205937</v>
       </c>
     </row>
@@ -10270,7 +9972,7 @@
         <v>580.331245650661</v>
       </c>
       <c r="F447">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>571.87175441688703</v>
       </c>
     </row>
@@ -10288,7 +9990,7 @@
         <v>410.57949790794902</v>
       </c>
       <c r="F448">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>368.91177263598297</v>
       </c>
     </row>
@@ -10306,7 +10008,7 @@
         <v>407.72007366482501</v>
       </c>
       <c r="F449">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>435.92087508827507</v>
       </c>
     </row>
@@ -10324,7 +10026,7 @@
         <v>510.18365871294202</v>
       </c>
       <c r="F450">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>506.11383213764731</v>
       </c>
     </row>
@@ -10345,7 +10047,7 @@
         <v>492.50174703004802</v>
       </c>
       <c r="F451">
-        <f t="shared" ref="F451:F512" si="18">AVERAGE(B451:E451)</f>
+        <f t="shared" ref="F451:F512" si="14">AVERAGE(B451:E451)</f>
         <v>492.38228168251203</v>
       </c>
     </row>
@@ -10366,7 +10068,7 @@
         <v>489.537900874635</v>
       </c>
       <c r="F452">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>478.83445708115875</v>
       </c>
     </row>
@@ -10387,7 +10089,7 @@
         <v>370.407299270073</v>
       </c>
       <c r="F453">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>451.82790966751827</v>
       </c>
     </row>
@@ -10408,7 +10110,7 @@
         <v>261.37183098591498</v>
       </c>
       <c r="F454">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>311.47095367147875</v>
       </c>
     </row>
@@ -10429,7 +10131,7 @@
         <v>405.87020237264397</v>
       </c>
       <c r="F455">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>620.72907411816095</v>
       </c>
     </row>
@@ -10450,7 +10152,7 @@
         <v>339.38580463808802</v>
       </c>
       <c r="F456">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>420.43397343452199</v>
       </c>
     </row>
@@ -10471,7 +10173,7 @@
         <v>515.75806451612902</v>
       </c>
       <c r="F457">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>555.32759577903221</v>
       </c>
     </row>
@@ -10492,7 +10194,7 @@
         <v>530.45670391061401</v>
       </c>
       <c r="F458">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>660.99280220265348</v>
       </c>
     </row>
@@ -10513,7 +10215,7 @@
         <v>484.78688524590098</v>
       </c>
       <c r="F459">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>619.73405768647524</v>
       </c>
     </row>
@@ -10534,7 +10236,7 @@
         <v>471.403496503496</v>
       </c>
       <c r="F460">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>660.48148807587404</v>
       </c>
     </row>
@@ -10555,7 +10257,7 @@
         <v>387.050036258158</v>
       </c>
       <c r="F461">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>514.45984256453949</v>
       </c>
     </row>
@@ -10576,7 +10278,7 @@
         <v>566.68736915561703</v>
       </c>
       <c r="F462">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>605.28052068890429</v>
       </c>
     </row>
@@ -10597,7 +10299,7 @@
         <v>526.13974151857803</v>
       </c>
       <c r="F463">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>652.20847610464455</v>
       </c>
     </row>
@@ -10618,7 +10320,7 @@
         <v>496.73733047822901</v>
       </c>
       <c r="F464">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>659.0617444695572</v>
       </c>
     </row>
@@ -10639,7 +10341,7 @@
         <v>371.40836236933802</v>
       </c>
       <c r="F465">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>481.70912139233451</v>
       </c>
     </row>
@@ -10660,7 +10362,7 @@
         <v>380.298528381219</v>
       </c>
       <c r="F466">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>576.02915387030475</v>
       </c>
     </row>
@@ -10681,7 +10383,7 @@
         <v>706.69156293222602</v>
       </c>
       <c r="F467">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>803.03384808305645</v>
       </c>
     </row>
@@ -10702,7 +10404,7 @@
         <v>681.49231843575399</v>
       </c>
       <c r="F468">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>815.06851290893849</v>
       </c>
     </row>
@@ -10723,7 +10425,7 @@
         <v>742.020905923344</v>
       </c>
       <c r="F469">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>706.45383380583598</v>
       </c>
     </row>
@@ -10744,7 +10446,7 @@
         <v>413.552613240418</v>
       </c>
       <c r="F470">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>488.9895913101044</v>
       </c>
     </row>
@@ -10765,7 +10467,7 @@
         <v>417.88198324022301</v>
       </c>
       <c r="F471">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>497.49199881005569</v>
       </c>
     </row>
@@ -10786,7 +10488,7 @@
         <v>599.82984658298403</v>
       </c>
       <c r="F472">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>698.30850597074595</v>
       </c>
     </row>
@@ -10807,7 +10509,7 @@
         <v>531.50585651537301</v>
       </c>
       <c r="F473">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>569.30750767884319</v>
       </c>
     </row>
@@ -10828,7 +10530,7 @@
         <v>302.16690042075697</v>
       </c>
       <c r="F474">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>349.6604012051892</v>
       </c>
     </row>
@@ -10849,7 +10551,7 @@
         <v>537.88107324147904</v>
       </c>
       <c r="F475">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>440.77841567286976</v>
       </c>
     </row>
@@ -10870,7 +10572,7 @@
         <v>392.11039886039799</v>
       </c>
       <c r="F476">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>514.67229681509946</v>
       </c>
     </row>
@@ -10891,7 +10593,7 @@
         <v>414.59776536312802</v>
       </c>
       <c r="F477">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>556.616982790782</v>
       </c>
     </row>
@@ -10912,7 +10614,7 @@
         <v>556.77263007840304</v>
       </c>
       <c r="F478">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>681.03760339460075</v>
       </c>
     </row>
@@ -10933,7 +10635,7 @@
         <v>388.33985507246302</v>
       </c>
       <c r="F479">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>395.46994394311577</v>
       </c>
     </row>
@@ -10954,7 +10656,7 @@
         <v>336.75779036827203</v>
       </c>
       <c r="F480">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>355.689563092068</v>
       </c>
     </row>
@@ -10975,7 +10677,7 @@
         <v>596.07262164124904</v>
       </c>
       <c r="F481">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>623.84685568531222</v>
       </c>
     </row>
@@ -10996,7 +10698,7 @@
         <v>294.80629370629299</v>
       </c>
       <c r="F482">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>326.97190917657326</v>
       </c>
     </row>
@@ -11017,7 +10719,7 @@
         <v>527.66387726638698</v>
       </c>
       <c r="F483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>758.1793965415967</v>
       </c>
     </row>
@@ -11038,7 +10740,7 @@
         <v>391.981158408932</v>
       </c>
       <c r="F484">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>649.84060410223299</v>
       </c>
     </row>
@@ -11059,7 +10761,7 @@
         <v>765.86689895470295</v>
       </c>
       <c r="F485">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>870.70817116367562</v>
       </c>
     </row>
@@ -11080,7 +10782,7 @@
         <v>490.20139372822302</v>
       </c>
       <c r="F486">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>525.13422118205574</v>
       </c>
     </row>
@@ -11101,7 +10803,7 @@
         <v>568.78690807799398</v>
       </c>
       <c r="F487">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>468.87948331949849</v>
       </c>
     </row>
@@ -11122,7 +10824,7 @@
         <v>493.58048780487798</v>
       </c>
       <c r="F488">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>411.20916617621947</v>
       </c>
     </row>
@@ -11143,7 +10845,7 @@
         <v>493.24825662482499</v>
       </c>
       <c r="F489">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>541.93524430620619</v>
       </c>
     </row>
@@ -11164,7 +10866,7 @@
         <v>366.50417246175198</v>
       </c>
       <c r="F490">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>454.66110129043795</v>
       </c>
     </row>
@@ -11185,7 +10887,7 @@
         <v>237.41742160278699</v>
       </c>
       <c r="F491">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>277.95470637569673</v>
       </c>
     </row>
@@ -11206,7 +10908,7 @@
         <v>538.74184191442998</v>
       </c>
       <c r="F492">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>594.87623510360754</v>
       </c>
     </row>
@@ -11227,7 +10929,7 @@
         <v>555.61630695443603</v>
       </c>
       <c r="F493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>584.67222706360906</v>
       </c>
     </row>
@@ -11248,7 +10950,7 @@
         <v>466.927627000695</v>
       </c>
       <c r="F494">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>537.60964042517378</v>
       </c>
     </row>
@@ -11269,7 +10971,7 @@
         <v>574.93667362560802</v>
       </c>
       <c r="F495">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>709.13322185640197</v>
       </c>
     </row>
@@ -11290,7 +10992,7 @@
         <v>527.45543175487398</v>
       </c>
       <c r="F496">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>680.97451271371858</v>
       </c>
     </row>
@@ -11311,7 +11013,7 @@
         <v>410.28857890148203</v>
       </c>
       <c r="F497">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>427.87524105037051</v>
       </c>
     </row>
@@ -11332,7 +11034,7 @@
         <v>434.44072524407198</v>
       </c>
       <c r="F498">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>435.100450386018</v>
       </c>
     </row>
@@ -11353,7 +11055,7 @@
         <v>372.27031019202298</v>
       </c>
       <c r="F499">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>405.15475347300571</v>
       </c>
     </row>
@@ -11374,7 +11076,7 @@
         <v>445.61984626135501</v>
       </c>
       <c r="F500">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>514.87427776533877</v>
       </c>
     </row>
@@ -11395,7 +11097,7 @@
         <v>358.88850174215997</v>
       </c>
       <c r="F501">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>393.13998506053997</v>
       </c>
     </row>
@@ -11416,7 +11118,7 @@
         <v>320.50835654596102</v>
       </c>
       <c r="F502">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>399.14256306149025</v>
       </c>
     </row>
@@ -11437,7 +11139,7 @@
         <v>454.169057377049</v>
       </c>
       <c r="F503">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>520.95027424426223</v>
       </c>
     </row>
@@ -11458,7 +11160,7 @@
         <v>345.11986062717699</v>
       </c>
       <c r="F504">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>412.34580443179425</v>
       </c>
     </row>
@@ -11479,7 +11181,7 @@
         <v>541.23006993006902</v>
       </c>
       <c r="F505">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>616.2872151325173</v>
       </c>
     </row>
@@ -11500,7 +11202,7 @@
         <v>400.82869080779898</v>
       </c>
       <c r="F506">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>479.23092735194979</v>
       </c>
     </row>
@@ -11521,7 +11223,7 @@
         <v>516.18883174136602</v>
       </c>
       <c r="F507">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>585.81939001034152</v>
       </c>
     </row>
@@ -11542,7 +11244,7 @@
         <v>487.62256267409401</v>
       </c>
       <c r="F508">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>512.79146134352345</v>
       </c>
     </row>
@@ -11563,7 +11265,7 @@
         <v>481.68662952646201</v>
       </c>
       <c r="F509">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>486.95532588161547</v>
       </c>
     </row>
@@ -11584,7 +11286,7 @@
         <v>380.87726638772602</v>
       </c>
       <c r="F510">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>437.71427652193148</v>
       </c>
     </row>
@@ -11605,7 +11307,7 @@
         <v>558.08692628650897</v>
       </c>
       <c r="F511">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>559.30646624662722</v>
       </c>
     </row>
@@ -11626,16 +11328,17 @@
         <v>746.19972164231001</v>
       </c>
       <c r="F512">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>594.60296625057754</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:E512" xr:uid="{C6A1EC76-67E0-4A60-A3AC-8E49E3B6CDFF}"/>
   <mergeCells count="4">
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="T19:AD19"/>
-    <mergeCell ref="U61:Y61"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="P19:Z19"/>
+    <mergeCell ref="Q61:U61"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
